--- a/links-new.xlsx
+++ b/links-new.xlsx
@@ -427,7 +427,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="21.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="70.26953125" customWidth="1" min="2" max="2"/>
@@ -448,7 +448,6 @@
           <t>https://img.pvvstream.pro/preview/07zPxuNDnLK1JtDT-JWY4g/-97129549_456241199/sun9-59.userapi.com/d7ppTfBjEJWjogEKuXBsc00GV_7_VSj3BimljQ/-iQppzy1-TM.jpg</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -464,7 +463,6 @@
           <t>https://img.pvvstream.pro/preview/mlAUz2NU8GO_tm9QDYNN_g/-165127459_456240133/sun9-66.userapi.com/fwStbO57fhGJtOhNfggZMB9S-dfPwozsqrwi8g/MepqQ-H7OXA.jpg</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,7 +478,6 @@
           <t>https://img.pvvstream.pro/preview/t4DtabtGRj_o4brBkgU3GA/-167219025_456239938/i.mycdn.me/getVideoPreview?id=1450683795975&amp;idx=7&amp;type=39&amp;tkn=OkrmsHIEAn70qdxa80YTc_yLJNI&amp;fn=vid_l&amp;c_uniq_tag=sokeabaenMgU9mOsomlONRxy3ppxBT3bE9BHFnHp3qY</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -493,8 +490,6 @@
           <t>https://www.pornomovies.com/videos/3063635/tushy-i-tried-anal-with-my-roommate-karla-kush/?utm_source=PBWeb&amp;utm_medium=PBWeb&amp;sub=100001</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -505,8 +500,6 @@
           <t>https://mat6tube.com/watch/-201266903_456244518</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -517,8 +510,6 @@
           <t>https://mat6tube.com/watch/-110216470_456239462</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -529,8 +520,6 @@
           <t>https://mat6tube.com/watch/-132555026_456239242</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -541,8 +530,6 @@
           <t>https://mat6tube.com/watch/-161003282_456239052</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -553,8 +540,6 @@
           <t>https://mat6tube.com/watch/-115615196_456265517</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -565,8 +550,6 @@
           <t>https://mat6tube.com/watch/-207824109_456239170</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -577,8 +560,6 @@
           <t>https://bestpornstars.tv/mov/j7FFS7xolRx/empress-jade-bbc-bj/</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -589,8 +570,6 @@
           <t>https://hotmovs.com/videos/11058893/smiling-blonde-takes-a-dick-in-anal-at-a-porn-casting/?promo=31134</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -603,8 +582,6 @@
           <t>https://txxx.com/videos/18107355/kimberly-brix-in-sexy-teen-redhead-tries-double-penetrat/?promo=31134</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -617,8 +594,6 @@
           <t>https://www.pornhub.org/model/diana-rider</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -629,8 +604,6 @@
           <t>https://mat6tube.com/watch/-127700459_456260042</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -641,8 +614,6 @@
           <t>https://mat6tube.com/watch/747013257_456239184</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -653,8 +624,6 @@
           <t>https://mat6tube.com/watch/-219788778_456248077</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -665,8 +634,6 @@
           <t>https://mat6tube.com/watch/-120436652_456247450</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -677,8 +644,6 @@
           <t>https://mat6tube.com/watch/-87541081_456239669</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -689,8 +654,6 @@
           <t>https://mat6tube.com/watch/-222339173_456239266</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" t="inlineStr">
@@ -703,8 +666,6 @@
           <t>https://www.bravotube.net/videos/next-door-milf-natalia-nix-drops-her-dress-to-be-fucked-hard/?promoid=14857920313092</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" t="n">
@@ -715,8 +676,6 @@
           <t>https://www.pornhub.com/view_video.php?viewkey=ph5eb8d3e7adb52</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -727,8 +686,6 @@
           <t>https://www.pornhat.com/video/59011/one-of-everything-part-4/?ad_sub=349</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -759,8 +716,6 @@
           <t>https://txxx.tube/videos/16468387/hot-teacher3/?promo=23513</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -776,7 +731,6 @@
           <t>https://xhand.com/rta.gif</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="n">
@@ -787,8 +741,6 @@
           <t>https://mat6tube.com/watch/-194844196_456241674</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -799,8 +751,6 @@
           <t>https://mat6tube.com/watch/-214447256_456240424</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -811,8 +761,6 @@
           <t>https://mat6tube.com/watch/-149052135_456241338</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -823,8 +771,6 @@
           <t>https://mat6tube.com/watch/-202311464_456239497</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -835,8 +781,6 @@
           <t>https://mat6tube.com/watch/-222675800_456239356</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -847,8 +791,6 @@
           <t>https://mat6tube.com/watch/-190055806_456239744</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -859,8 +801,6 @@
           <t>https://mat6tube.com/watch/471478089_456239170</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -871,8 +811,6 @@
           <t>https://mat6tube.com/watch/471478089_456239160</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -883,8 +821,6 @@
           <t>https://mat6tube.com/watch/471478089_456239149</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -895,8 +831,6 @@
           <t>https://mat6tube.com/watch/-219602921_456242626</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -907,8 +841,6 @@
           <t>https://mat6tube.com/watch/-203958911_456239511</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -919,8 +851,6 @@
           <t>https://mat6tube.com/watch/-187217911_456246250</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -931,8 +861,6 @@
           <t>https://mat6tube.com/watch/-187792045_456239406</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -943,8 +871,6 @@
           <t>https://www.pornhub.org/view_video.php?viewkey=6569808b084fa</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -955,8 +881,6 @@
           <t>https://mat6tube.com/watch/-223654443_456239245</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -967,8 +891,6 @@
           <t>https://mat6tube.com/watch/-149052135_456242342</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -979,8 +901,6 @@
           <t>https://mat6tube.com/watch/-221679740_456239416</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1035,8 +955,6 @@
           <t>https://hdzog.com/videos/1994617/alina-lopez-i-do-hd/?nplimit=1&amp;skip=10&amp;utm_content=pg</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1049,8 +967,6 @@
           <t>https://upornia.com/videos/3221785/horny-bitch-lily-adams-is-ready-to-get-two-hard-black-cocks-at-the-same-time/?nplimit=1&amp;skip=10&amp;utm_content=pg</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1063,8 +979,6 @@
           <t>https://www.eporner.com/video-jWESsCnc5ke/lana-rhoades/?trx=1227735290aee694b81473a256bea12420712</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1075,8 +989,6 @@
           <t>https://www.porndr.com/videos/143146/blacked-bored-wife-finds-a-fresh-fabulous-distraction/?utm_source=pbweb</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1092,7 +1004,6 @@
           <t>https://www.fapnado.xxx/contents/models/688/s1_688.jpg</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1110,7 +1021,6 @@
           <t>https://st.love4porn.com/contents/content_sources/24/c1_DPR-1200x150-ELENA-KOSHKA-103441.jpg</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1123,8 +1033,6 @@
           <t>https://www.eporner.com/video-hZyIobPp3XP/evelyn-claire-room-for-one-more/?trx=1227735290aee694b81473a256bea12420712</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1142,7 +1050,6 @@
           <t>https://www.freeporn8.com/contents/videos_screenshots/651000/651874/320x180/2.jpg</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1153,8 +1060,6 @@
           <t>https://mat6tube.com/watch/-223988393_456239352</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1170,7 +1075,6 @@
           <t>https://faptor.com/contents/videos_screenshots/184000/184968/320x180/1.jpg</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1186,7 +1090,6 @@
           <t>https://www.4wank.com/contents/videos_screenshots/257000/257507/320x180/1.jpg</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1202,7 +1105,6 @@
           <t>https://cdn.rexporn.sex/contents/videos_screenshots/19000/19054/reximg/preview/2/1.jpg</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1213,8 +1115,6 @@
           <t>https://www.porndr.com/videos/143146/blacked-bored-wife-finds-a-fresh-fabulous-distraction/?utm_source=pbweb</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1225,8 +1125,6 @@
           <t>https://mat6tube.com/watch/-196485682_456239084</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1237,8 +1135,6 @@
           <t>https://mat6tube.com/watch/-222713642_456239492</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1249,8 +1145,6 @@
           <t>https://www.eporner.com/video-Ix90OfffAG1/nesty-hot-sexy-girl-is-followed-and-fucked/</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1268,7 +1162,6 @@
           <t>https://faptor.com/contents/videos_screenshots/180000/180271/320x180/1.jpg</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1281,8 +1174,6 @@
           <t>https://www.eporner.com/video-1ZDWVYPVPIW/gizelle-blanco-it-s-yours/?trx=1227735290aee694b81473a256bea12420712</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1300,7 +1191,6 @@
           <t>https://starwank.com/contents/videos_screenshots/3000/3563/320x180/1.jpg</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1316,7 +1206,6 @@
           <t>https://www.inxxx.com/contents/videos_screenshots/31000/31043/320x180/1.jpg</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1376,7 +1265,6 @@
           <t>https://c2.ttcache.com/thumbnail/FptjTjUtPUq/288x162/1.jpg</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1392,7 +1280,6 @@
           <t>https://cdnth.zbporn.tv/contents/categories/33/c1_blowjobs.jpg</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1403,8 +1290,6 @@
           <t>https://www.wankoz.com/videos/410693/broke-bigtit-fucks-two-at-alley/?utm_source=pbwmed&amp;utm_medium=cpc&amp;utm_campaign=wank</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1415,8 +1300,6 @@
           <t>https://www.momvids.com/videos/58379/busty-realtor-fucks-her-clients-to-sell-a-house-lolly-hardcore/?utm_source=PBWeb&amp;utm_medium=PBWeb&amp;sub=100001</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1432,7 +1315,6 @@
           <t>https://www.bigtitslust.com/contents/videos_screenshots/270000/270729/320x180/9.jpg</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1443,8 +1325,6 @@
           <t>https://www.babestube.com/videos/165605/slutty-housewife-sophia-leone-gets-shagged-by-a-fat-bbc/?utm_source=PBWeb&amp;utm_medium=PBWeb&amp;sub=100001</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1480,7 +1360,6 @@
           <t>https://starwank.com/contents/videos_screenshots/0/872/320x180/1.jpg</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1496,7 +1375,6 @@
           <t>https://i.xxxshake.com/contents/videos_screenshots/31000/31134/640x360/2.jpg</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1507,8 +1385,6 @@
           <t>https://mat6tube.com/watch/-171718843_456243002</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1521,8 +1397,6 @@
           <t>https://www.pornomovies.com/videos/3150223/pure-taboo-milf-swinger-natasha-nice-pays-the-price-after-getting-creampied-by-another-man-part-1-2/?utm_source=PBWeb&amp;utm_medium=PBWeb&amp;sub=100001&amp;asgtbndr=1</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1540,7 +1414,6 @@
           <t>https://xhand.com/rta.gif</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1556,7 +1429,6 @@
           <t>https://mc.yandex.ru/watch/94134834</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1592,7 +1464,6 @@
           <t>https://tubedupe.com/contents/videos_screenshots/141000/141638/preview.jpg</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1603,8 +1474,6 @@
           <t>https://beeg.onl/-0544121872641951?_gl=1*1f16sq2*_ga*MTA4NDUzNzY0LjE3MTM1NTAxNTg.*_ga_MQH2C0NN3E*MTcxMzU1MDE1OC4xLjAuMTcxMzU1MDE1OC4wLjAuMA..&amp;utm_source=porn.biz&amp;utm_medium=Redirect</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1620,7 +1489,6 @@
           <t>https://www.amateur8.com/contents/videos_screenshots/105000/105928/320x180/4.jpg</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1636,7 +1504,6 @@
           <t>https://www.freeporn8.com/contents/videos_screenshots/384000/384756/320x180/2.jpg</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1647,8 +1514,6 @@
           <t>https://mat6tube.com/watch/-191109542_456242811</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1659,8 +1524,6 @@
           <t>https://mat6tube.com/watch/-220013754_456241370</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1676,7 +1539,6 @@
           <t>https://st.love4porn.com/contents/content_sources/289/c1_GBC-1200x150.jpg</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1689,8 +1551,6 @@
           <t>https://prostasex.org/watch/46276/marta-la-croft-fuck-big-butts-blowjob-hardcore-big-tits-milf-brazzers-wife-stepmom-anal-ass-blow-job-hotmom-big-boobs-handjob/</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1770,7 +1630,7 @@
       <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="25.90625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -5298,7 +5158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/pornworld/cherry-kiss-baby-kxtten/lovely-hardcore-saxsy/cherry-kiss-baby-kxtten-1.jpg</t>
+          <t>https://vip.xxxporn.pics/media/evilangel/david-perry-lorenzo-viota-vince-karter-baby-kxtten/generation-big-tits-extrem/hd-david-perry-lorenzo-viota-vince-karter-baby-kxtten-1.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">

--- a/links-new.xlsx
+++ b/links-new.xlsx
@@ -5158,7 +5158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/evilangel/david-perry-lorenzo-viota-vince-karter-baby-kxtten/generation-big-tits-extrem/hd-david-perry-lorenzo-viota-vince-karter-baby-kxtten-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/evilangel/baby-kxtten-charlie-forde-erik-everhard-vince-karter/yojmi-shorts-freeroughporn/hd-baby-kxtten-charlie-forde-erik-everhard-vince-karter-11.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">

--- a/links-new.xlsx
+++ b/links-new.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="profiles" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="profiles" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +46,12 @@
       <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <color rgb="FF333333"/>
+      <sz val="7"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +74,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -77,6 +84,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +429,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -448,6 +456,11 @@
           <t>https://img.pvvstream.pro/preview/07zPxuNDnLK1JtDT-JWY4g/-97129549_456241199/sun9-59.userapi.com/d7ppTfBjEJWjogEKuXBsc00GV_7_VSj3BimljQ/-iQppzy1-TM.jpg</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>[comp] holy sh*t! bbc blacked pmv porn compilation (kenzie anne, interracial, gabbie carter, emily willis, elsa jean) - ExPornToons</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -463,6 +476,11 @@
           <t>https://img.pvvstream.pro/preview/mlAUz2NU8GO_tm9QDYNN_g/-165127459_456240133/sun9-66.userapi.com/fwStbO57fhGJtOhNfggZMB9S-dfPwozsqrwi8g/MepqQ-H7OXA.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Deeper blake blossom - ExPornToons</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -478,6 +496,11 @@
           <t>https://img.pvvstream.pro/preview/t4DtabtGRj_o4brBkgU3GA/-167219025_456239938/i.mycdn.me/getVideoPreview?id=1450683795975&amp;idx=7&amp;type=39&amp;tkn=OkrmsHIEAn70qdxa80YTc_yLJNI&amp;fn=vid_l&amp;c_uniq_tag=sokeabaenMgU9mOsomlONRxy3ppxBT3bE9BHFnHp3qY</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Linzee ryder [squirt,rimjob,deep throat, big tits,blonde,blowjob,facial,hardcore, fucking,facials big tits секс брюнетка большие - ExPornToons</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +583,11 @@
           <t>https://bestpornstars.tv/mov/j7FFS7xolRx/empress-jade-bbc-bj/</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Empress Jade Bbc Bj - Free Sex Movies - BestPornStars.Tv</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -666,6 +694,11 @@
           <t>https://www.bravotube.net/videos/next-door-milf-natalia-nix-drops-her-dress-to-be-fucked-hard/?promoid=14857920313092</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Next Door MILF Natalia Nix Drops Her Dress To Be Fucked Hard</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" t="n">
@@ -706,6 +739,11 @@
           <t>https://thumb-nss.xhcdn.com/a/c0V2DUrve6Cao7G-5hOEVA/024/329/356/v2/1280x720.219.jpg</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hot Blonde Offers Her Pussy to get a Raise: Office Porn by Porn CZ | xHamster</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -716,6 +754,11 @@
           <t>https://txxx.tube/videos/16468387/hot-teacher3/?promo=23513</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>404 Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -731,6 +774,11 @@
           <t>https://xhand.com/rta.gif</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>The Secret Life Of A Housewife part 1 - reality threesome hardcore with petite blonde Elsa Jean</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="n">
@@ -923,6 +971,12 @@
           <t>https://icdn05.hqporn.xxx/40222/2011068_1_2x.webp</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Blacked - Ariana Marie threesome XXX video  - HQporn.xxx
+</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -943,6 +997,12 @@
       <c r="D45" t="inlineStr">
         <is>
           <t>https://icdn05.hqporn.xxx/40051/2002503_1_2x.webp</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Blacked Raw - Supermodel Dana Wolf throat fucking in the bed  - HQporn.xxx
+</t>
         </is>
       </c>
     </row>
@@ -989,6 +1049,11 @@
           <t>https://www.porndr.com/videos/143146/blacked-bored-wife-finds-a-fresh-fabulous-distraction/?utm_source=pbweb</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>BLACKED Bored wife finds a fresh fabulous distraction</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1004,6 +1069,11 @@
           <t>https://www.fapnado.xxx/contents/models/688/s1_688.jpg</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Lonely Trophy Wife Hooks up in an Interracial Manner at Fapnado</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1021,6 +1091,11 @@
           <t>https://st.love4porn.com/contents/content_sources/24/c1_DPR-1200x150-ELENA-KOSHKA-103441.jpg</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Love4Porn.com Presents Deeper. Mona &amp; Alyx play a twisted game of husband swapping</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1048,6 +1123,11 @@
       <c r="C53" t="inlineStr">
         <is>
           <t>https://www.freeporn8.com/contents/videos_screenshots/651000/651874/320x180/2.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Free Aiden Ashley - The Ally With Benefits 720p 2021 VHQ Porn Video HD</t>
         </is>
       </c>
     </row>
@@ -1075,6 +1155,11 @@
           <t>https://faptor.com/contents/videos_screenshots/184000/184968/320x180/1.jpg</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Deeper - Evelin Stone's Date Surprise</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1090,6 +1175,11 @@
           <t>https://www.4wank.com/contents/videos_screenshots/257000/257507/320x180/1.jpg</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Prof Wiener Manhandles College Girl!</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1105,6 +1195,11 @@
           <t>https://cdn.rexporn.sex/contents/videos_screenshots/19000/19054/reximg/preview/2/1.jpg</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Timid Chubby Teen Loves When Dominant Men Dominate Her</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1115,6 +1210,11 @@
           <t>https://www.porndr.com/videos/143146/blacked-bored-wife-finds-a-fresh-fabulous-distraction/?utm_source=pbweb</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BLACKED Bored wife finds a fresh fabulous distraction</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1162,6 +1262,11 @@
           <t>https://faptor.com/contents/videos_screenshots/180000/180271/320x180/1.jpg</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Lovely babe Samantha Hayes is screwed by a ebony stud</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1189,6 +1294,11 @@
       <c r="C64" t="inlineStr">
         <is>
           <t>https://starwank.com/contents/videos_screenshots/3000/3563/320x180/1.jpg</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Sodomized in Picturesque Paris - Tori Black Ass Pumping</t>
         </is>
       </c>
     </row>
@@ -1206,6 +1316,11 @@
           <t>https://www.inxxx.com/contents/videos_screenshots/31000/31043/320x180/1.jpg</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Hot Whore Banged In Hotel Room - Elena Koshka - XXX Video - inXXX.com</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1226,6 +1341,11 @@
       <c r="D66" t="inlineStr">
         <is>
           <t>https://e8.tbnpsn.com/media/videos/tmb/1308503/player/16.jpg</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Lucky For You, I Love Perverts - HD Sex Tube, Free Porn Videos, Hot XXX Movies - Hardcore, Interracial, Brunette, Teen (18+), Hd Porn - 1308503 - Tubeon.com</t>
         </is>
       </c>
     </row>
@@ -1248,6 +1368,11 @@
           <t>https://thumb-nss.xhcdn.com/a/HFlOkQXxXdyPxbr2imTCVw/022/635/726/v2/1280x720.214.jpg</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cum inside a Spanish slut pussy ! | xHamster</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1263,6 +1388,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t>https://c2.ttcache.com/thumbnail/FptjTjUtPUq/288x162/1.jpg</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Hardcore Pornography Sex Videos
+    </t>
         </is>
       </c>
     </row>
@@ -1280,6 +1412,11 @@
           <t>https://cdnth.zbporn.tv/contents/categories/33/c1_blowjobs.jpg</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Fragile teeny gets anus stretched with gigantic dong - ZB Porn</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1315,6 +1452,11 @@
           <t>https://www.bigtitslust.com/contents/videos_screenshots/270000/270729/320x180/9.jpg</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Porn twenty one SEXTURY - double penetration COMPILATION! The Hottest European Pornstar Women Get Double Permeated HARD! Video</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1345,6 +1487,11 @@
           <t>https://thumb-nss.xhcdn.com/a/Ss-R7d0BI6RP-HjbpzSawQ/021/745/471/v2/1280x720.209.jpg</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>StayHomeMilf - Tattooed Milf With Huge Jugs In Crop Top | xHamster</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1360,6 +1507,11 @@
           <t>https://starwank.com/contents/videos_screenshots/0/872/320x180/1.jpg</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>You're No Saint Either - Tommy Pistol, Lilly Bell</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1375,6 +1527,11 @@
           <t>https://i.xxxshake.com/contents/videos_screenshots/31000/31134/640x360/2.jpg</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Blonde trades pussy for a salary boost - XXXshake.com</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1414,6 +1571,11 @@
           <t>https://xhand.com/rta.gif</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Busty brunette Alyx Star has her big natural tits worshipped</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1429,6 +1591,11 @@
           <t>https://mc.yandex.ru/watch/94134834</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Alluring Desiree Dulce unforgettable porn video</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1449,6 +1616,11 @@
           <t>https://thumb-nss.xhcdn.com/a/hIRNJMVXr7bH0zVrbrXKOw/024/507/315/v2/1280x720.214.jpg</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Tushy Chanel will Do Anything to Satisfy Her Anal Cravings: Ass to Mouth Blowjob Porn | xHamster</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1464,6 +1636,11 @@
           <t>https://tubedupe.com/contents/videos_screenshots/141000/141638/preview.jpg</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>▶ Brazzers – Pussy Tax - Giselle Palmer / Porno Movies, Watch Porn Online, Free Sex Videos</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1474,6 +1651,11 @@
           <t>https://beeg.onl/-0544121872641951?_gl=1*1f16sq2*_ga*MTA4NDUzNzY0LjE3MTM1NTAxNTg.*_ga_MQH2C0NN3E*MTcxMzU1MDE1OC4xLjAuMTcxMzU1MDE1OC4wLjAuMA..&amp;utm_source=porn.biz&amp;utm_medium=Redirect</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Beeg</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1489,6 +1671,11 @@
           <t>https://www.amateur8.com/contents/videos_screenshots/105000/105928/320x180/4.jpg</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Free BLACKEDRAW Pretty brunette hair on the hunt for a soaked BBC Porn Video</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1504,6 +1691,11 @@
           <t>https://www.freeporn8.com/contents/videos_screenshots/384000/384756/320x180/2.jpg</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Free BLACKEDRAW Voluptuous Golden-Haired Can't Resist BBC Porn Video HD</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1539,6 +1731,11 @@
           <t>https://st.love4porn.com/contents/content_sources/289/c1_GBC-1200x150.jpg</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Love4Porn.com Presents Jesus Christ Dwayne! It's HUGE!</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1549,6 +1746,178 @@
       <c r="B89" t="inlineStr">
         <is>
           <t>https://prostasex.org/watch/46276/marta-la-croft-fuck-big-butts-blowjob-hardcore-big-tits-milf-brazzers-wife-stepmom-anal-ass-blow-job-hotmom-big-boobs-handjob/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Marta la croft fuck big butts blowjob hardcore big tits milf brazzers wife stepmom anal ass blow job hotmom big boobs handjob - порно видео онлайн</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.sunporno.com/videos/1595020/banging-the-schools-hottest-teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://ww3.pornhoarder.tv/video/newsensations-dre-delevingne-wants-him-performing-harder-at-work-08-01-2023/Qlo0ZEczVTV1YXJSTlJOcnlkMkNyVkI1RW5QcGcyZTE4RDFWS2J4dnhqZz0=</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NewSensations Dre Delevingne Wants Him Performing Harder At Work 08 01 2023 | PornHoarder.tv</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://vsex.in/84729-dre-delevingne-wants-him-performing-harder-at-work.html</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Dre Delevingne Wants Him Performing Harder At Work » Datos de Videos porno - Vsex.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://mat6tube.com/watch/-131346513_456240867</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.eporner.com/video-XlyTsw9gdC5/stepmom-measures-our-dicks/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://2beeg.me/video/818002/road-trip-stepsister-ramming.html</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Road Trip Stepsister Ramming hot video</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.whoreshub.com/videos/257275/sislovesme-com-2019-07-05-vienna-black-serena-santos-road-trip-stepsister-r/</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[sislovesme.com] - 2019.07.05 - Vienna Black &amp; Serena Santos - Road Trip Stepsister R</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://pervtube.net/bellesafilms-violet-starr-unexpected-threesome/</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Watch FREE BellesaFilms - Violet Starr - Unexpected Threesome | PervTube.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://pervtube.net/dirtywivesclub-violet-starr-31976-cute-wife-violet-starr-fucks-roommate-while-husband-is-away/</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Watch FREE DirtyWivesClub - Violet Starr 31976: Cute Wife Violet Starr Fucks Roommate While Husband Is Away | PervTube.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://hog.mobi/video/20847957_elizabeth_skylars_wild_milf_step_roleplay_with_her_sons_teacher?ad=awn</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>HOG.TV | Elizabeth Skylar's wild MILF step-roleplay with her son's teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>My First Vid</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://collectionofbestporn.com/video/samantha-saint-fucked-in-bed.html</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>403 Forbidden</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://4kporn.xxx/videos/674811/rocco-siffredi-destroys-spanish-hot-during-point-of-view-casting/?utm_source=pbw&amp;utm_campaign=plugs</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Attention Required! | Cloudflare</t>
         </is>
       </c>
     </row>
@@ -1624,10 +1993,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="39.453125" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Aesthetic big-boobed chick Tiffany Watson nailed in the cowgirl pose</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.whoreshub.com/videos/257275/sislovesme-com-2019-07-05-vienna-black-serena-santos-road-trip-stepsister-r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sislovesme start-up capital</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G202"/>
+  <sheetViews>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -1712,37 +2124,37 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Holly Micheals</t>
+          <t>Holly Michaels</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/255/56294735/56294735_149_f3ec.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/sexandsubmission/holly-michaels-ramon-nomar/ultrapussy-face-ponstar-nude/holly-michaels-ramon-nomar-3.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/passionhd/holly-michaels/warm-bikini-honey/holly-michaels-1.jpg</t>
+          <t>https://cdn1337.pichunter.com/media/posts/12--7960346/conversions/510558-20f0c4cf1d8d00477a4663e7c0cc1e49-post_single_big.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/182/42351071/42351071_001_b1a3.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/180/97962832/97962832_139_abd2.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/110/19317287/19317287_015_4051.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/255/56294735/56294735_149_f3ec.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/nubilefilms/holly-michaels/delicious-shaved-pussy-xxx-sex/holly-michaels-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/sexandsubmission/holly-michaels-ramon-nomar/ultrapussy-face-ponstar-nude/holly-michaels-ramon-nomar-3.jpg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/hdvpass/holly-micheals/pofotos-milf-fonda/holly-micheals-3.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/holly-michaels/high-definition-blowjob-mobileporn/holly-michaels-2.jpg</t>
         </is>
       </c>
     </row>
@@ -1971,7 +2383,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Emma rosie blacked</t>
+          <t>Emma rosie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1981,27 +2393,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/atkgalleria/emma-rosie/ddfprod-sexy-xnxx-amazing/emma-rosie-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blowpass/mick-blue-emma-rosie-bella-blu-lilian-stone/highschool-old-young-sexe-photos/mick-blue-emma-rosie-bella-blu-lilian-stone-7.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://content-blacked.pornstar-scenes.com/Kendra_Sunderland-A_Gift_For_You/Kendra-Sunderland-Blacked-A-Gift-For-You-2023-06-24-003.jpg</t>
+          <t>https://m.pornpics.vip/xxx/atkgirlfriends/emma-rosie/cuestoke-amateur-x-rated/hd-emma-rosie-2.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://cdn.brdmedia.com/tgpx/thumbs/297024.jpg</t>
+          <t>https://ei.phncdn.com/videos/202210/28/418394441/thumbs_10/(m=eaSaaTbaAaaaa)(mh=UUFfLTMPZvYtDtrA)2.jpg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://i.imagepost.com/wp-content/uploads/2024/04/gianna_dior_in_steamed_by_blacked.jpg</t>
+          <t>https://m.pornpics.vip/xxx/atkgalleria/emma-rosie/xxxbarazil-solo-sex-woman/emma-rosie-3.jpg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/636/37261147/37261147_003_64ff.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blowpass/emma-rosie-mick-blue/xxx-pov-poto-squirting/emma-rosie-mick-blue-2.jpg</t>
         </is>
       </c>
     </row>
@@ -2415,37 +2827,37 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Mea Milano</t>
+          <t>Mia Melano</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/fantasyhd/ella-milano/pajamisuit-natural-tits-seduced/hd-ella-milano-3.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/125812.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://gray-wpta-prod.cdn.arcpublishing.com/resizer/v2/2WRXC7M5UJDCVMTSVR7PFLKJ6Y?auth=5ab196a96301f9d1a7d9f65217281d41000f3385159ff2426020271625f26b80&amp;width=800&amp;height=533&amp;smart=true</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/jason-luv-mia-melano/clubmobi-high-heels-voyeurweb/hd-jason-luv-mia-melano-7.jpg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://evocdn.net/hw/beeg.porn/10/files/d7b5/2e0b/fcd3/7eb3/da06/6db6/fa64/4c15/1.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/543/16812793/16812793_002_77c0.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://content.bangbros-free.com/Kira_Perez-Big_Dick_Show_Off/Kira-Perez-Bangbros-Big-Dick-Show-Off-2022-07-17-180.jpg</t>
+          <t>https://pornpics.beauty/media/vixen/mia-melano-mick-blue/her-blonde-imgsoo/hd-mia-melano-mick-blue-1.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://pics.javbtc.com/pornpics/innocenthigh/ella-milano-barrett-blade/on-schoolgirl-pussylips-pics/ella-milano-barrett-blade-1.jpg</t>
+          <t>https://i.imagepost.com/wp-content/uploads/2024/01/alex_grey_and_mia_melano_snow_bunnies_have_insatiable_appetites_for_slayed.jpg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/istripper/sirena-milano/jeopardy-ass-sall-school/sirena-milano-1.jpg</t>
+          <t>https://milf.vip/pics/vixen/mia-melano-mick-blue/town-hardcore-mobi-video/hd-mia-melano-mick-blue-1.jpg</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3826,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Sophea Leone</t>
+          <t>Sophia Leone</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3424,17 +3836,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mywifeshotfriend/sophia-leone/prolapse-cumshot-strip/sophia-leone-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/sophia-leone/true-latina-sex-pics/sophia-leone-8.jpg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Lk/r8/KfSir14r8Lk/5181340-johnny-castle-sophia-leone-9.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/vixen/johnny-castle-sophia-leone/dirty-latina-hellpornonipples/johnny-castle-sophia-leone-10.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/C4/kT/Oul94cJkTC4/405228-sophia-leone-nude.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/ix/MQ/6SATAKMMQix/240898-sophia-leone-nude.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3858,17 +4270,17 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Valentina Napii</t>
+          <t>Valentina Nappi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/47/90631220/90631220_005_c5e0.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/609/11983071/11983071_029_c453.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://i6.fuskator.com/large/lAYHVDS0mCN/Black-Valentina-Nappi-Wearing-Platform-High-Heels-Enjoying-Anal-1.jpg</t>
+          <t>https://cdn1337.pichunter.com/media/posts/12--1597262/conversions/117476-30c067702694d0fd60d590560a06f04c-post_single_big.jpg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3895,4176 +4307,5212 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>La serina 69</t>
+          <t>Lela Star</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/547/10818248/10818248_006_a940.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/470/56841732/56841732_086_f1db.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/lasirena-vicki-chase/khushi-anal-sex-xnxx/hd-lasirena-vicki-chase-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/danni/leila-star-lela-star/best-babes-mobile-movie/leila-star-lela-star-6.jpg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Vn/1j/1DU1sXt1jVn/9803295-lasirena69-proud-of-a-vixen-002-00083_880x660.jpg</t>
+          <t>https://vip.yespornpics.com/media/vixen/lela-star-markus-dupree/job-petite-siri-ddfnetwork/hd-lela-star-markus-dupree-1.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://i3.wp.com/hot.boombo.biz/uploads/posts/2023-04/1680895470_hot-boombo-biz-p-la-serena-porn-porno-vontakte-3.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/rQ/Zp/pxkxKdhZprQ/219539-lela-star-nude.jpg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/1W/Ka/duXewMOKa1W/14710994-lasirena69-busty-nympho-lasirena69-opens-her-ass-035-13a5a54057a23679e56b18208759e789_880x660.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/130/85708095/85708095_016_4eec.jpg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/realitykings/lasirena-skylar-vox/mygf-chubby-freaks/lasirena-skylar-vox-1.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2017/08/bed-and-e1550340319852.jpg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Lela Star</t>
+          <t>Victoria June</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/470/56841732/56841732_086_f1db.jpg</t>
+          <t>https://content5.8boobs.com/upload/main/50/5572728.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/danni/leila-star-lela-star/best-babes-mobile-movie/leila-star-lela-star-6.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/blacked/victoria-june/friendly-interracial-sexpartner/victoria-june-2.jpg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/vixen/lela-star-markus-dupree/job-petite-siri-ddfnetwork/hd-lela-star-markus-dupree-1.jpg</t>
+          <t>https://content-cherrypimps.pornstar-scenes.com/Victoria_June-Voluptuous_Victoria/Victoria-June-Cherry-Pimps-Voluptuous-Victoria-2017-10-25-021.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/rQ/Zp/pxkxKdhZprQ/219539-lela-star-nude.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/nc/hI/B7nEsDmhInc/467677-victoria-june-nude.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/130/85708095/85708095_016_4eec.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/8thstreetlatinas/victoria-june/hqxxx-latina-hdporn/hd-victoria-june-11.jpg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://xxxbios.com/wp-content/uploads/2017/08/bed-and-e1550340319852.jpg</t>
+          <t>https://vip.xxxporn.pics/media/myfirstsexteacher/rion-king-victoria-june/her-milf-hit/rion-king-victoria-june-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Victoria June</t>
+          <t>Stella Cox</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://content5.8boobs.com/upload/main/50/5572728.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/639/69100473/69100473_013_1b39.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/blacked/victoria-june/friendly-interracial-sexpartner/victoria-june-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/private/black-angelica-kathy-anderson-victoria-summers-stella-cox-ellen-saint/elite-teen-book/hd-black-angelica-kathy-anderson-victoria-summers-stella-cox-ellen-saint-6.jpg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://content-cherrypimps.pornstar-scenes.com/Victoria_June-Voluptuous_Victoria/Victoria-June-Cherry-Pimps-Voluptuous-Victoria-2017-10-25-021.jpg</t>
+          <t>https://vip.xxxporn.pics/media/onlyblowjob/stella-cox/hot-lingerie-hdpics/stella-cox-1.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/nc/hI/B7nEsDmhInc/467677-victoria-june-nude.jpg</t>
+          <t>https://pornpics.beauty/media/private/stella-cox/look-big-tits-xxx-vod/stella-cox-1.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/8thstreetlatinas/victoria-june/hqxxx-latina-hdporn/hd-victoria-june-11.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/onlytease/jana-b/havoc-babe-girlfriendgirlsex/hd-jana-b-2.jpg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/myfirstsexteacher/rion-king-victoria-june/her-milf-hit/rion-king-victoria-june-1.jpg</t>
+          <t>https://milf.vip/pics/housewife1on1/preston-parker-stella-cox/desimmssex-wife-ups/preston-parker-stella-cox-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>Stella Cox</t>
+          <t>Jia Lissa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/639/69100473/69100473_013_1b39.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/543/61404342/61404342_002_2ec4.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/private/black-angelica-kathy-anderson-victoria-summers-stella-cox-ellen-saint/elite-teen-book/hd-black-angelica-kathy-anderson-victoria-summers-stella-cox-ellen-saint-6.jpg</t>
+          <t>https://m.pornpics.vip/xxx/blacked/jia-lissa-little-dragon/otterson-shaved-original-porn/jia-lissa-little-dragon-5.jpg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/onlyblowjob/stella-cox/hot-lingerie-hdpics/stella-cox-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/vixen/jia-lissa-christian-clay/buxom-teen-barreu-xxx/jia-lissa-christian-clay-3.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/private/stella-cox/look-big-tits-xxx-vod/stella-cox-1.jpg</t>
+          <t>https://vip.xxxporn.pics/media/alexlynn/jia-lissa/ultimatesurrender-teen-monaxxx/hd-jia-lissa-2.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/onlytease/jana-b/havoc-babe-girlfriendgirlsex/hd-jana-b-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/vixen/jia-lissa-ellie-leen-christian-clay/vipergirls-redhead-action/hd-jia-lissa-ellie-leen-christian-clay-2.jpg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/housewife1on1/preston-parker-stella-cox/desimmssex-wife-ups/preston-parker-stella-cox-2.jpg</t>
+          <t>https://babes.plus/sexpics/metart/jia-lissa/high-quality-solo-girls-xxxswathi/jia-lissa-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Jia Lissa</t>
+          <t>Ella Knox</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/543/61404342/61404342_002_2ec4.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/315/40824736/40824736_015_f555.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/blacked/jia-lissa-little-dragon/otterson-shaved-original-porn/jia-lissa-little-dragon-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mynaughtymassage/ella-knox-justin-hunt/dump-massage-resimleri/ella-knox-justin-hunt-5.jpg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/vixen/jia-lissa-christian-clay/buxom-teen-barreu-xxx/jia-lissa-christian-clay-3.jpg</t>
+          <t>https://img1.hotnessrater.com/4533968/ella-knox-porn.jpg?w=4000&amp;h=6000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/alexlynn/jia-lissa/ultimatesurrender-teen-monaxxx/hd-jia-lissa-2.jpg</t>
+          <t>https://cdni.pornpics.com/1280/7/609/48575517/48575517_001_ee45.jpg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/vixen/jia-lissa-ellie-leen-christian-clay/vipergirls-redhead-action/hd-jia-lissa-ellie-leen-christian-clay-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/wicked/ella-knox/rated-cowgirl-piss/hd-ella-knox-7.jpg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/metart/jia-lissa/high-quality-solo-girls-xxxswathi/jia-lissa-1.jpg</t>
+          <t>https://milf.vip/pics/naughtyamerica/ella-knox/camp-pornstar-fingeering/ella-knox-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Ella Knox</t>
+          <t>Lacy Lennon</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/315/40824736/40824736_015_f555.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/336/13960522/13960522_001_a972.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mynaughtymassage/ella-knox-justin-hunt/dump-massage-resimleri/ella-knox-justin-hunt-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/nubilefilms/lacy-lennon-ryan-mclane/gya-teen-crazy3dxxxworld/lacy-lennon-ryan-mclane-1.jpg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://img1.hotnessrater.com/4533968/ella-knox-porn.jpg?w=4000&amp;h=6000</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/08/mq/RJnPkwcmq08/1568339-wallhaven-zm2odg.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/609/48575517/48575517_001_ee45.jpg</t>
+          <t>https://content.newbrazz.com/3878641-Porn_Logic_3/Lacy-Lennon-Brazzers-Porn-Logic-3-2020-01-28-05.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/wicked/ella-knox/rated-cowgirl-piss/hd-ella-knox-7.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/sweetsinner/lacy-lennon/azainicom-ginger-naked-teen/hd-lacy-lennon-4.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/naughtyamerica/ella-knox/camp-pornstar-fingeering/ella-knox-3.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/487/38550925/38550925_073_2aac.jpg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Lacy Lennon</t>
+          <t>Aiden Ashley</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/336/13960522/13960522_001_a972.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/583/65456370/65456370_057_cc8e.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/nubilefilms/lacy-lennon-ryan-mclane/gya-teen-crazy3dxxxworld/lacy-lennon-ryan-mclane-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/newsensations/aiden-ashley/screenshots-small-boobs-pronostar/aiden-ashley-5.jpg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/08/mq/RJnPkwcmq08/1568339-wallhaven-zm2odg.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/yesgirlz/aiden-ashley-summer-vixen/pissy-pussy-naughtymachinima/hd-aiden-ashley-summer-vixen-5.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://content.newbrazz.com/3878641-Porn_Logic_3/Lacy-Lennon-Brazzers-Porn-Logic-3-2020-01-28-05.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/kf/C3/0q1caJdC3kf/10104598-aiden-ashley-evil-angel-aiden-ashley-big-cock-bj-a.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/sweetsinner/lacy-lennon/azainicom-ginger-naked-teen/hd-lacy-lennon-4.jpg</t>
+          <t>https://xxx.hair/media/innocenthigh/jazmine-tame-jordan-ashley/pure-brunette-offyc-sexvideoa/jazmine-tame-jordan-ashley-7.jpg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/487/38550925/38550925_073_2aac.jpg</t>
+          <t>https://pornpics.blog/media/momlover/aiden-ashley-barbie-feels-max-fills-ricky-spanish/sexsexvod-mom-sexo-video/aiden-ashley-barbie-feels-max-fills-ricky-spanish-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>Aiden Ashley</t>
+          <t>Gia Derza</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/583/65456370/65456370_057_cc8e.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/346/28180164/28180164_013_b414.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/newsensations/aiden-ashley/screenshots-small-boobs-pronostar/aiden-ashley-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/gia-derza/pornabe-sofa-hostes-hdphotogallery/hd-gia-derza-5.jpg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/yesgirlz/aiden-ashley-summer-vixen/pissy-pussy-naughtymachinima/hd-aiden-ashley-summer-vixen-5.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/356/63988724/63988724_002_3862.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/kf/C3/0q1caJdC3kf/10104598-aiden-ashley-evil-angel-aiden-ashley-big-cock-bj-a.jpg</t>
+          <t>https://m.pornpics.vip/xxx/bangbrosnetwork/gia-derza/xossip-blowjob-boob/gia-derza-2.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/innocenthigh/jazmine-tame-jordan-ashley/pure-brunette-offyc-sexvideoa/jazmine-tame-jordan-ashley-7.jpg</t>
+          <t>https://cdni.247cumshots.com/460/1/343/32294457/32294457_020_1878.jpg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/momlover/aiden-ashley-barbie-feels-max-fills-ricky-spanish/sexsexvod-mom-sexo-video/aiden-ashley-barbie-feels-max-fills-ricky-spanish-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/gia-derza/pizza-teen-fulllength-1xhoneys/gia-derza-5.jpg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>Gia Derza</t>
+          <t>Sofie reyez</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/346/28180164/28180164_013_b414.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/sofie-reyez-tony-rubino/aztekmusexxx-pornstar-leggings/hd-sofie-reyez-tony-rubino-22.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/gia-derza/pornabe-sofa-hostes-hdphotogallery/hd-gia-derza-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/teensloveblackcocks/sofie-reyez/piper-big-cock-xxxadultphoto/hd-sofie-reyez-2.jpg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/356/63988724/63988724_002_3862.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/sofie-reyez-tony-rubino/aztekmusexxx-pornstar-leggings/hd-sofie-reyez-tony-rubino-22.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/bangbrosnetwork/gia-derza/xossip-blowjob-boob/gia-derza-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/blowpass/sofie-reyez-jc-wilds-porno-dan-dean-van-damme/session-brunette-hd-pictures/hd-sofie-reyez-jc-wilds-porno-dan-dean-van-damme-7.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://cdni.247cumshots.com/460/1/343/32294457/32294457_020_1878.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/blowpass/sofie-reyez-jc-wilds-porno-dan-dean-van-damme/arcade-blowjob-chaad-nacked/hd-sofie-reyez-jc-wilds-porno-dan-dean-van-damme-9.jpg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/gia-derza/pizza-teen-fulllength-1xhoneys/gia-derza-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/slutstepsister/oliver-flynn-sofie-reyez/bing-reality-lust/oliver-flynn-sofie-reyez-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Sofie reyez</t>
+          <t>Chanel Preston</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/sofie-reyez-tony-rubino/aztekmusexxx-pornstar-leggings/hd-sofie-reyez-tony-rubino-22.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/67/91093724/91093724_008_2a69.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/teensloveblackcocks/sofie-reyez/piper-big-cock-xxxadultphoto/hd-sofie-reyez-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/cherrypimps/chanel-preston/cutey-sofa-nakatphoto/chanel-preston-2.jpg</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/sofie-reyez-tony-rubino/aztekmusexxx-pornstar-leggings/hd-sofie-reyez-tony-rubino-22.jpg</t>
+          <t>https://www.babesandstars.com/galleries/54000/54317/04.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/blowpass/sofie-reyez-jc-wilds-porno-dan-dean-van-damme/session-brunette-hd-pictures/hd-sofie-reyez-jc-wilds-porno-dan-dean-van-damme-7.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Se/XE/utaOyufXESe/10348267-chanelpreston-btcp-7.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/blowpass/sofie-reyez-jc-wilds-porno-dan-dean-van-damme/arcade-blowjob-chaad-nacked/hd-sofie-reyez-jc-wilds-porno-dan-dean-van-damme-9.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/eroticbeauty/lena-d/wwwhd-shaved-short/hd-lena-d-9.jpg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/slutstepsister/oliver-flynn-sofie-reyez/bing-reality-lust/oliver-flynn-sofie-reyez-1.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2019/11/25/image_42.jpg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Chanel Preston</t>
+          <t>Kayla Kayden</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/67/91093724/91093724_008_2a69.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/144/71859751/71859751_005_ba47.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/cherrypimps/chanel-preston/cutey-sofa-nakatphoto/chanel-preston-2.jpg</t>
+          <t>https://milf.vip/pics/blacksonblondes/kayla-kayden-jax-slayher-prince-yahshua/marisxxx-big-cock-cheggit/kayla-kayden-jax-slayher-prince-yahshua-1.jpg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.babesandstars.com/galleries/54000/54317/04.jpg</t>
+          <t>https://vip.yespornpics.com/media/vixen/kendall-kayden/porno-beautiful-section/kendall-kayden-3.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Se/XE/utaOyufXESe/10348267-chanelpreston-btcp-7.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/154/59849855/59849855_011_c86f.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/eroticbeauty/lena-d/wwwhd-shaved-short/hd-lena-d-9.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/tonightsgirlfriend/johnny-castle-kayla-kayden/pissing-blonde-skye/hd-johnny-castle-kayla-kayden-13.jpg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2019/11/25/image_42.jpg</t>
+          <t>https://m.pornpics.vip/xxx/naughtyamerica/kayla-kayden/high-resolution-tittyfuck-xxxmedia/kayla-kayden-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>Kayla Kayden</t>
+          <t>Skylar Snow</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/144/71859751/71859751_005_ba47.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/332/70389644/70389644_020_866d.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/blacksonblondes/kayla-kayden-jax-slayher-prince-yahshua/marisxxx-big-cock-cheggit/kayla-kayden-jax-slayher-prince-yahshua-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/twistys/skylar-snow-sofi-ryan/sexphote-stockings-sexo-xxx/skylar-snow-sofi-ryan-11.jpg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/vixen/kendall-kayden/porno-beautiful-section/kendall-kayden-3.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2022/06/profile_001-1-e1655650893959.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/154/59849855/59849855_011_c86f.jpg</t>
+          <t>https://www.thumbnailseries.com/tgpx/thumbs/181258.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/tonightsgirlfriend/johnny-castle-kayla-kayden/pissing-blonde-skye/hd-johnny-castle-kayla-kayden-13.jpg</t>
+          <t>https://m.pornpics.vip/xxx/clubtug/skylar-snow/modelgirl-teen-naughtamerica-bathroom/hd-skylar-snow-10.jpg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/naughtyamerica/kayla-kayden/high-resolution-tittyfuck-xxxmedia/kayla-kayden-3.jpg</t>
+          <t>https://cdni.pornpics.com/1280/7/96/35861910/35861910_004_4985.jpg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Skylar Snow</t>
+          <t>Ivy Lebelle</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/332/70389644/70389644_020_866d.jpg</t>
+          <t>https://content5.silkengirl.com/upload/main/43/5529232.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/twistys/skylar-snow-sofi-ryan/sexphote-stockings-sexo-xxx/skylar-snow-sofi-ryan-11.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/ivy-lebelle-louie-smalls/xxxhub-babe-titt/hd-ivy-lebelle-louie-smalls-6.jpg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://xxxbios.com/wp-content/uploads/2022/06/profile_001-1-e1655650893959.jpg</t>
+          <t>https://content5.silkengirl.com/brazzersnetwork.com/10224/17.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.thumbnailseries.com/tgpx/thumbs/181258.jpg</t>
+          <t>https://cdn.pics-x.com/pornstars/i/ivy-lebelle-19429.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/clubtug/skylar-snow/modelgirl-teen-naughtamerica-bathroom/hd-skylar-snow-10.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/lesbianx/cherie-deville-ivy-lebelle-london-river/tumblr-lingerie-histry-tv18/hd-cherie-deville-ivy-lebelle-london-river-4.jpg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/96/35861910/35861910_004_4985.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/ivy-lebelle/interactive-reverse-cowgirl-browseass/ivy-lebelle-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Ivy Lebelle</t>
+          <t>Bess Breast</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://content5.silkengirl.com/upload/main/43/5529232.jpg</t>
+          <t>https://www.boobieblog.com/img3/BessBreastTwitPic1_tn.jpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/ivy-lebelle-louie-smalls/xxxhub-babe-titt/hd-ivy-lebelle-louie-smalls-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/teamskeet/bess-breast/ddfsexhd-reverse-sxye/bess-breast-2.jpg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://content5.silkengirl.com/brazzersnetwork.com/10224/17.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2022/08/03/bess-breast-curvy-ginger-in-lingerie.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://cdn.pics-x.com/pornstars/i/ivy-lebelle-19429.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Fm/Yk/oWFoZ7xYkFm/5323517-bess-breast-28_880x660.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/lesbianx/cherie-deville-ivy-lebelle-london-river/tumblr-lingerie-histry-tv18/hd-cherie-deville-ivy-lebelle-london-river-4.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/tabooheat/cory-chase-melanie-hicks-bess-breast/ande-chubby-school-pussy/hd-cory-chase-melanie-hicks-bess-breast-4.jpg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/ivy-lebelle/interactive-reverse-cowgirl-browseass/ivy-lebelle-2.jpg</t>
+          <t>https://babes.plus/sexpics/tabooheat/bess-breast-luke-longly/ce-milf-hd-girls/hd-bess-breast-luke-longly-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Bess Breast</t>
+          <t>Chanel Camryn</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.boobieblog.com/img3/BessBreastTwitPic1_tn.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/teamskeet/bess-breast/ddfsexhd-reverse-sxye/bess-breast-2.jpg</t>
+          <t>https://babes.plus/sexpics/deeplush/chanel-camryn-owen-gray-small-hands/fey-hardcore-thefappeningblog/hd-chanel-camryn-owen-gray-small-hands-3.jpg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2022/08/03/bess-breast-curvy-ginger-in-lingerie.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Fm/Yk/oWFoZ7xYkFm/5323517-bess-breast-28_880x660.jpg</t>
+          <t>https://ei.phncdn.com/videos/202304/15/429549461/original/(m=qHJ99JYbeaSaaTbaAaaaa)(mh=h3zExzzBzgS9sw8j)0.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/tabooheat/cory-chase-melanie-hicks-bess-breast/ande-chubby-school-pussy/hd-cory-chase-melanie-hicks-bess-breast-4.jpg</t>
+          <t>https://m.pornpics.vip/xxx/innocenthigh/rahyndee-van-wylde/xxxswathi-teen-tan/rahyndee-van-wylde-7.jpg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/tabooheat/bess-breast-luke-longly/ce-milf-hd-girls/hd-bess-breast-luke-longly-1.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/iE/ip/Sd3eMNHipiE/13552354-chanel-camryn-42-1080px.jpg</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>Chanel Camryn</t>
+          <t>Angel Gostosa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/376/87538541/87538541_016_07d1.jpg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/deeplush/chanel-camryn-owen-gray-small-hands/fey-hardcore-thefappeningblog/hd-chanel-camryn-owen-gray-small-hands-3.jpg</t>
+          <t>https://m.en.ygselect.com/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
+          <t>https://xxx.hair/media/brazzersnetwork/angel-gostosa-jasmine-sherni-chris-diamond-zane-walker/sheena-latina-xxxcutie/hd-angel-gostosa-jasmine-sherni-chris-diamond-zane-walker-20.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://ei.phncdn.com/videos/202304/15/429549461/original/(m=qHJ99JYbeaSaaTbaAaaaa)(mh=h3zExzzBzgS9sw8j)0.jpg</t>
+          <t>https://vip.yespornpics.com/media/bangbrosnetwork/angel-gostosa-jonathan-jordan/thin-hardcore-xxx-vedio/angel-gostosa-jonathan-jordan-4.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/innocenthigh/rahyndee-van-wylde/xxxswathi-teen-tan/rahyndee-van-wylde-7.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/18eighteen/angel-gostosa-berry-mccockiner/hdnatigirl-shorts-pussy-com/hd-angel-gostosa-berry-mccockiner-12.jpg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/iE/ip/Sd3eMNHipiE/13552354-chanel-camryn-42-1080px.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/376/87538541/87538541_016_07d1.jpg</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Angel Gostosa</t>
+          <t>Sera Ryder</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/376/87538541/87538541_016_07d1.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/359/75347206/75347206_002_6de1.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://m.en.ygselect.com/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
+          <t>https://babes.plus/sexpics/pornbabes/sera-ryder/photo10class-hairy-swix/sera-ryder-1.jpg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/brazzersnetwork/angel-gostosa-jasmine-sherni-chris-diamond-zane-walker/sheena-latina-xxxcutie/hd-angel-gostosa-jasmine-sherni-chris-diamond-zane-walker-20.jpg</t>
+          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/bangbrosnetwork/angel-gostosa-jonathan-jordan/thin-hardcore-xxx-vedio/angel-gostosa-jonathan-jordan-4.jpg</t>
+          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/18eighteen/angel-gostosa-berry-mccockiner/hdnatigirl-shorts-pussy-com/hd-angel-gostosa-berry-mccockiner-12.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/cherrypimps/sera-ryder/voto-reverse-cowgirl-social-media/hd-sera-ryder-15.jpg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/376/87538541/87538541_016_07d1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/sera-ryder-dan-damage/doggystyle-beautiful-xxx-garls/hd-sera-ryder-dan-damage-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>Sera Ryder</t>
+          <t>Tru Kait</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/359/75347206/75347206_002_6de1.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/548/91245771/91245771_131_7b60.jpg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/pornbabes/sera-ryder/photo10class-hairy-swix/sera-ryder-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/xempire/ella-reese-jax-slayher/casting-high-heels-same/ella-reese-jax-slayher-3.jpg</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/5u/Jv/LmjkOxqJv5u/12418684-cute-amp-sexy-vixen-tru-kait-shows-off-her-beaut-0002-11-w800.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
+          <t>https://spizoo.pornstar-scenes.com/Tru_Kait-Tru_Kait's_Big_Tits_Are_The_Perfect_Cum_Dump/Tru-Kait-Spizoo-Tru-Kait's-Big-Tits-Are-The-Perfect-Cum-Dump-2020-12-17-009.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/cherrypimps/sera-ryder/voto-reverse-cowgirl-social-media/hd-sera-ryder-15.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/548/78697581/78697581_003_b2e6.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/naughtyamerica/sera-ryder-dan-damage/doggystyle-beautiful-xxx-garls/hd-sera-ryder-dan-damage-2.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Vi/Hu/eo9JTgmHuVi/9155939-tru-kait-fun-pool-vr-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Tru Kait</t>
+          <t>Scarlet Chase</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/548/91245771/91245771_131_7b60.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Op/gw/hJIytqLgwOp/12739598-scarlet-chase-6.jpg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/xempire/ella-reese-jax-slayher/casting-high-heels-same/ella-reese-jax-slayher-3.jpg</t>
+          <t>https://m.pornpics.vip/xxx/brazzersnetwork/scarlet-chase/allbabexxxcom-self-fisting-poren/scarlet-chase-1.jpg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/5u/Jv/LmjkOxqJv5u/12418684-cute-amp-sexy-vixen-tru-kait-shows-off-her-beaut-0002-11-w800.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://spizoo.pornstar-scenes.com/Tru_Kait-Tru_Kait's_Big_Tits_Are_The_Perfect_Cum_Dump/Tru-Kait-Spizoo-Tru-Kait's-Big-Tits-Are-The-Perfect-Cum-Dump-2020-12-17-009.jpg</t>
+          <t>https://pornpics.beauty/media/evilangel/scarlet-chase-elic-chase/busting-big-tits-medicale-bondage/scarlet-chase-elic-chase-2.jpg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/548/78697581/78697581_003_b2e6.jpg</t>
+          <t>https://m.pornpics.vip/xxx/innocenthigh/scarlet-banks-seth-gamble/boosy-brunette-film/scarlet-banks-seth-gamble-2.jpg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Vi/Hu/eo9JTgmHuVi/9155939-tru-kait-fun-pool-vr-2.jpg</t>
+          <t>https://xxx.pornpics.app/pics/evilangel/scarlet-chase-elic-chase/ass-close-up-danger/hd-scarlet-chase-elic-chase-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Scarlet Chase</t>
+          <t>Lola rose</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Op/gw/hJIytqLgwOp/12739598-scarlet-chase-6.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/361/92528828/92528828_001_47be.jpg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/brazzersnetwork/scarlet-chase/allbabexxxcom-self-fisting-poren/scarlet-chase-1.jpg</t>
+          <t>https://m.en.ygselect.com/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://pbs.twimg.com/media/GC2DK8nWcAAuJcb?format=jpg&amp;name=large</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/evilangel/scarlet-chase-elic-chase/busting-big-tits-medicale-bondage/scarlet-chase-elic-chase-2.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/361/92528828/92528828_001_47be.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/innocenthigh/scarlet-banks-seth-gamble/boosy-brunette-film/scarlet-banks-seth-gamble-2.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/167/93719712/93719712_015_2b40.jpg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://xxx.pornpics.app/pics/evilangel/scarlet-chase-elic-chase/ass-close-up-danger/hd-scarlet-chase-elic-chase-2.jpg</t>
+          <t>https://babes.plus/sexpics/facials4k/joshua-lewis-david-lee-lola-rose/nuda-facial-galeria-foto/joshua-lewis-david-lee-lola-rose-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Lola rose</t>
+          <t>Kymberlee anne</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/361/92528828/92528828_001_47be.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/209/52422002/52422002_015_fe1c.jpg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://m.en.ygselect.com/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/dolly-little-kymberlee-anne/exciting-lesbian-kingdom/dolly-little-kymberlee-anne-3.jpg</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/GC2DK8nWcAAuJcb?format=jpg&amp;name=large</t>
+          <t>https://cdnxw1.youx.xxx/gthumb/1/884/1884824_f18ec2a_320x_.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/361/92528828/92528828_001_47be.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/k/kymberlee_anne/gallery04/images/01.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/167/93719712/93719712_015_2b40.jpg</t>
+          <t>https://m.pornpics.vip/xxx/teenslovehugecocks/kymberlee-anne-kharlie-stone/classic-threesome-porn-pov/kymberlee-anne-kharlie-stone-5.jpg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/facials4k/joshua-lewis-david-lee-lola-rose/nuda-facial-galeria-foto/joshua-lewis-david-lee-lola-rose-3.jpg</t>
+          <t>https://vip.xxxporn.pics/media/myfriendshotgirl/kymberlee-anne/nasty-legs-content/kymberlee-anne-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Kymberlee anne</t>
+          <t>Ashly anderson</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/209/52422002/52422002_015_fe1c.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/a/ashley_anderson/gallery18/images/01.jpg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/dolly-little-kymberlee-anne/exciting-lesbian-kingdom/dolly-little-kymberlee-anne-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/babygotboobs/ashly-anderson-jessy-jones/bangg-pornstar-uniform/ashly-anderson-jessy-jones-4.jpg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://cdnxw1.youx.xxx/gthumb/1/884/1884824_f18ec2a_320x_.jpg</t>
+          <t>https://content.newbrazz.com/2819782-Oil_Up_Ashly/Ashly-Anderson-Brazzers-Oil-Up-Ashly-2018-08-09-03.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/k/kymberlee_anne/gallery04/images/01.jpg</t>
+          <t>https://m.pornpics.vip/xxx/spyfam/ashly-anderson/downloadporn-mom-cocks-navaporn/hd-ashly-anderson-3.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/teenslovehugecocks/kymberlee-anne-kharlie-stone/classic-threesome-porn-pov/kymberlee-anne-kharlie-stone-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/babygotboobs/ashly-anderson-charles-dera/inga-yoga-pants-sexdose/hd-ashly-anderson-charles-dera-7.jpg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/myfriendshotgirl/kymberlee-anne/nasty-legs-content/kymberlee-anne-1.jpg</t>
+          <t>https://pornpics.blog/media/naughtyoffice/ashly-anderson-peter-green/naturals-doggy-style-wcp/ashly-anderson-peter-green-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Ashly anderson</t>
+          <t>Jasmine vega</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/a/ashley_anderson/gallery18/images/01.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/202/61959113/61959113_003_607f.jpg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/babygotboobs/ashly-anderson-jessy-jones/bangg-pornstar-uniform/ashly-anderson-jessy-jones-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/ddfbusty/jasmine-black/drity-hardcore-pichunter/jasmine-black-2.jpg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://content.newbrazz.com/2819782-Oil_Up_Ashly/Ashly-Anderson-Brazzers-Oil-Up-Ashly-2018-08-09-03.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Ls/W9/nupL5pHW9Ls/6937976-clara-ghergel-clara-hamilton-daisy-chain-eve-an.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/spyfam/ashly-anderson/downloadporn-mom-cocks-navaporn/hd-ashly-anderson-3.jpg</t>
+          <t>https://babes.plus/sexpics/bangbrosnetwork/jasmine-vega/directory-duncan-saint-vrsex/jasmine-vega-2.jpg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/babygotboobs/ashly-anderson-charles-dera/inga-yoga-pants-sexdose/hd-ashly-anderson-charles-dera-7.jpg</t>
+          <t>https://xxx.hair/media/penthousegold/jasmine-vega-oliver-flynn/nakad-pussy-tribbing/jasmine-vega-oliver-flynn-2.jpg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/naughtyoffice/ashly-anderson-peter-green/naturals-doggy-style-wcp/ashly-anderson-peter-green-2.jpg</t>
+          <t>https://babes.plus/sexpics/bangbrosnetwork/jasmine-vega/directory-duncan-saint-vrsex/jasmine-vega-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>Jasmine vega</t>
+          <t>Sophia Burns</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/202/61959113/61959113_003_607f.jpg</t>
+          <t>https://m.pornpics.vip/xxx/blowpass/sophia-burns/naught-fellatio-summary/sophia-burns-1.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/ddfbusty/jasmine-black/drity-hardcore-pichunter/jasmine-black-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/dirtyflix/sophia-burns/xxxvampiresex-small-boobs-ant/hd-sophia-burns-5.jpg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Ls/W9/nupL5pHW9Ls/6937976-clara-ghergel-clara-hamilton-daisy-chain-eve-an.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/364/76329385/76329385_001_3d27.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/bangbrosnetwork/jasmine-vega/directory-duncan-saint-vrsex/jasmine-vega-2.jpg</t>
+          <t>https://pornpics.beauty/media/ftvgirls/sophia-burns/donwload-shaved-news/sophia-burns-1.jpg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/penthousegold/jasmine-vega-oliver-flynn/nakad-pussy-tribbing/jasmine-vega-oliver-flynn-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/devilsfilm/sophia-burns-josh-rivers/oldman-cumshot-blonde-hustler/hd-sophia-burns-josh-rivers-13.jpg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/bangbrosnetwork/jasmine-vega/directory-duncan-saint-vrsex/jasmine-vega-2.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/sophia-burns-kyle-mason/picturecom-pornstar-hdchut/sophia-burns-kyle-mason-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>Sophia Burns</t>
+          <t>Anna Claire Clouds</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/blowpass/sophia-burns/naught-fellatio-summary/sophia-burns-1.jpg</t>
+          <t>https://pornpics.blog/media/darkx/jax-slayher-anna-claire-clouds/playboyplus-interracial-kising/jax-slayher-anna-claire-clouds-2.jpg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/dirtyflix/sophia-burns/xxxvampiresex-small-boobs-ant/hd-sophia-burns-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/anna-claire-clouds-jazmin-luv/websex-minidress-love-hot/anna-claire-clouds-jazmin-luv-1.jpg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/364/76329385/76329385_001_3d27.jpg</t>
+          <t>https://pornpics.blog/media/darkx/jax-slayher-anna-claire-clouds/playboyplus-interracial-kising/jax-slayher-anna-claire-clouds-2.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/ftvgirls/sophia-burns/donwload-shaved-news/sophia-burns-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/630/31015361/31015361_110_ec58.jpg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/devilsfilm/sophia-burns-josh-rivers/oldman-cumshot-blonde-hustler/hd-sophia-burns-josh-rivers-13.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/julesjordan/anna-claire-clouds/kingsexy-tattoo-xxx-video/hd-anna-claire-clouds-3.jpg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/naughtyamerica/sophia-burns-kyle-mason/picturecom-pornstar-hdchut/sophia-burns-kyle-mason-3.jpg</t>
+          <t>https://pornpics.blog/media/darkx/jax-slayher-anna-claire-clouds/playboyplus-interracial-kising/jax-slayher-anna-claire-clouds-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>Anna Claire Clouds</t>
+          <t>Tasha Holz</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/darkx/jax-slayher-anna-claire-clouds/playboyplus-interracial-kising/jax-slayher-anna-claire-clouds-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/ddfbusty/tasha-holz/comprehensive-european-indexxx/hd-tasha-holz-2.jpg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/anna-claire-clouds-jazmin-luv/websex-minidress-love-hot/anna-claire-clouds-jazmin-luv-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/bigtitsatwork/tasha-holz/megayoungpussy-brunette-hd-photos/tasha-holz-10.jpg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/darkx/jax-slayher-anna-claire-clouds/playboyplus-interracial-kising/jax-slayher-anna-claire-clouds-2.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2016/07/tasha-holz-busty-secretary-gets-boned-hard-190x290.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/630/31015361/31015361_110_ec58.jpg</t>
+          <t>https://m.pornpics.vip/xxx/ddfbusty/tasha-holz/blakcock-big-tits-bellidancce-bigass/hd-tasha-holz-22.jpg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/julesjordan/anna-claire-clouds/kingsexy-tattoo-xxx-video/hd-anna-claire-clouds-3.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/ddfbusty/tasha-holz/nappe-babe-iporntv-com/hd-tasha-holz-16.jpg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/darkx/jax-slayher-anna-claire-clouds/playboyplus-interracial-kising/jax-slayher-anna-claire-clouds-2.jpg</t>
+          <t>https://babes.plus/sexpics/ddfbusty/tasha-holz/wikipedia-tits-photo-thumbnails/tasha-holz-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Tasha Holz</t>
+          <t>Scarlet jones</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/ddfbusty/tasha-holz/comprehensive-european-indexxx/hd-tasha-holz-2.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/bigtitsatwork/tasha-holz/megayoungpussy-brunette-hd-photos/tasha-holz-10.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/privateblack/scarlett-jones/camera-redhead-sexhd/scarlett-jones-10.jpg</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2016/07/tasha-holz-busty-secretary-gets-boned-hard-190x290.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/ddfbusty/tasha-holz/blakcock-big-tits-bellidancce-bigass/hd-tasha-holz-22.jpg</t>
+          <t>https://pornpics.beauty/media/onlyallsites/scarlett-jones/movebog-big-tits-spote/scarlett-jones-1.jpg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/ddfbusty/tasha-holz/nappe-babe-iporntv-com/hd-tasha-holz-16.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/evilangel/joss-lescaf-scarlett-jones/closeup-college-xxxgirls/hd-joss-lescaf-scarlett-jones-12.jpg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/ddfbusty/tasha-holz/wikipedia-tits-photo-thumbnails/tasha-holz-1.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Scarlet jones</t>
+          <t>Stephanie West</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/90/59593421/59593421_112_4e2b.jpg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/privateblack/scarlett-jones/camera-redhead-sexhd/scarlett-jones-10.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/inthecrack/stephanie-west/nge-close-up-xxstrip/stephanie-west-6.jpg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c5/Alicia_Silverstone_2019_by_Glenn_Francis.jpg/800px-Alicia_Silverstone_2019_by_Glenn_Francis.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/onlyallsites/scarlett-jones/movebog-big-tits-spote/scarlett-jones-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/julesjordan/lana-rhoades-stephanie-west/board-reality-swanlake-pussy/hd-lana-rhoades-stephanie-west-8.jpg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/evilangel/joss-lescaf-scarlett-jones/closeup-college-xxxgirls/hd-joss-lescaf-scarlett-jones-12.jpg</t>
+          <t>https://m.pornpics.vip/xxx/naughtyamerica/stephanie-west/incredible-cowgirl-pictures/stephanie-west-4.jpg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://milf.vip/pics/naughtyamerica/stephanie-west/classyslut-cowgirl-sexual/stephanie-west-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Stephanie West</t>
+          <t>Octavia Red</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/90/59593421/59593421_112_4e2b.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mrpov/octavia-red/lux-panties-4k/octavia-red-10.jpg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/inthecrack/stephanie-west/nge-close-up-xxstrip/stephanie-west-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mrpov/octavia-red/lux-panties-4k/octavia-red-10.jpg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c5/Alicia_Silverstone_2019_by_Glenn_Francis.jpg/800px-Alicia_Silverstone_2019_by_Glenn_Francis.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/134505.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/julesjordan/lana-rhoades-stephanie-west/board-reality-swanlake-pussy/hd-lana-rhoades-stephanie-west-8.jpg</t>
+          <t>https://content5.nudebabes.sexy/cherrypimps.com/7405/06.jpg</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/naughtyamerica/stephanie-west/incredible-cowgirl-pictures/stephanie-west-4.jpg</t>
+          <t>https://cdni.247cumshots.com/460/1/355/68231299/68231299_020_6f70.jpg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/naughtyamerica/stephanie-west/classyslut-cowgirl-sexual/stephanie-west-2.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/octavia-red-david-lee/masturbating-blonde-imgur/octavia-red-david-lee-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Octavia Red</t>
+          <t>Armani Black</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mrpov/octavia-red/lux-panties-4k/octavia-red-10.jpg</t>
+          <t>https://pbs.twimg.com/media/FTEJ9_OWQAIP7aM.jpg:large</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mrpov/octavia-red/lux-panties-4k/octavia-red-10.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/armani-black-johnny-love/selection-asshole-sexhdvids/armani-black-johnny-love-10.jpg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/134505.jpg</t>
+          <t>https://xxx.hair/media/throated/mick-blue-add-to-favorites-mickey-violet-armani-black/fostcom-brunette-liveshow/mick-blue-add-to-favorites-mickey-violet-armani-black-3.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://content5.nudebabes.sexy/cherrypimps.com/7405/06.jpg</t>
+          <t>https://content.bangbros-free.com/Armani_Black-Stepmom's_Soapy_Secret/Armani-Black-Bangbros-Stepmom's-Soapy-Secret-2021-11-05-112.jpg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdni.247cumshots.com/460/1/355/68231299/68231299_020_6f70.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/holed/armani-black-brick-danger/pornstarsathome-anal-ania/hd-armani-black-brick-danger-10.jpg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/naughtyamerica/octavia-red-david-lee/masturbating-blonde-imgur/octavia-red-david-lee-2.jpg</t>
+          <t>https://vip.xxxporn.pics/media/naughtyamerica/armani-black-johnny/mercedez-milf-tarts-pornpics/armani-black-johnny-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Armani Black</t>
+          <t>Alexa Payne</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/FTEJ9_OWQAIP7aM.jpg:large</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2022/09/30/alexa-payne-posing-in-lingerie00002.jpg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/naughtyamerica/armani-black-johnny-love/selection-asshole-sexhdvids/armani-black-johnny-love-10.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/alexa-payne-rob-piper/goodhead-interracial-com-indexxx/alexa-payne-rob-piper-2.jpg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/throated/mick-blue-add-to-favorites-mickey-violet-armani-black/fostcom-brunette-liveshow/mick-blue-add-to-favorites-mickey-violet-armani-black-3.jpg</t>
+          <t>https://m.pornpics.vip/xxx/blacked/alexa-payne-rob-piper/goodhead-interracial-com-indexxx/alexa-payne-rob-piper-10.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://content.bangbros-free.com/Armani_Black-Stepmom's_Soapy_Secret/Armani-Black-Bangbros-Stepmom's-Soapy-Secret-2021-11-05-112.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/681/82920567/82920567_023_fbfd.jpg</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/holed/armani-black-brick-danger/pornstarsathome-anal-ania/hd-armani-black-brick-danger-10.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/mylf/alexa-payne-sergeant-miles/channel-brunette-picc/hd-alexa-payne-sergeant-miles-20.jpg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/naughtyamerica/armani-black-johnny/mercedez-milf-tarts-pornpics/armani-black-johnny-1.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2022/09/30/alexa-payne-posing-in-lingerie00002.jpg</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Alexa Payne</t>
+          <t>Allie Nicole</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2022/09/30/alexa-payne-posing-in-lingerie00002.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/a/allie_nicole/gallery23/images/01.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/alexa-payne-rob-piper/goodhead-interracial-com-indexxx/alexa-payne-rob-piper-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/ihaveawife/allie-nicole-chad-white/ass-blonde-wiki/allie-nicole-chad-white-3.jpg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/blacked/alexa-payne-rob-piper/goodhead-interracial-com-indexxx/alexa-payne-rob-piper-10.jpg</t>
+          <t>https://vip.sexhd.pics/media/vixen/allie-nicole/job-doggystyle-wet-photos/allie-nicole-5.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/681/82920567/82920567_023_fbfd.jpg</t>
+          <t>https://m.pornpics.vip/xxx/blacked/allie-nicole-pressure/pee-teen-snapvideo/allie-nicole-pressure-1.jpg</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/mylf/alexa-payne-sergeant-miles/channel-brunette-picc/hd-alexa-payne-sergeant-miles-20.jpg</t>
+          <t>https://xxx.hair/media/innocenthigh/nicole-ferrera-steven-st-croix/ans-latina-7chan/nicole-ferrera-steven-st-croix-1.jpg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2022/09/30/alexa-payne-posing-in-lingerie00002.jpg</t>
+          <t>https://pornpics.beauty/media/onlyteenblowjobs/allie-nicole/soldier-big-cock-bugil-sex/allie-nicole-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Allie Nicole</t>
+          <t>Chanel Camryn</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/a/allie_nicole/gallery23/images/01.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/ihaveawife/allie-nicole-chad-white/ass-blonde-wiki/allie-nicole-chad-white-3.jpg</t>
+          <t>https://babes.plus/sexpics/deeplush/chanel-camryn-owen-gray-small-hands/fey-hardcore-thefappeningblog/hd-chanel-camryn-owen-gray-small-hands-3.jpg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/vixen/allie-nicole/job-doggystyle-wet-photos/allie-nicole-5.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/blacked/allie-nicole-pressure/pee-teen-snapvideo/allie-nicole-pressure-1.jpg</t>
+          <t>https://ei.phncdn.com/videos/202304/15/429549461/original/(m=qHJ99JYbeaSaaTbaAaaaa)(mh=h3zExzzBzgS9sw8j)0.jpg</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/innocenthigh/nicole-ferrera-steven-st-croix/ans-latina-7chan/nicole-ferrera-steven-st-croix-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/innocenthigh/rahyndee-van-wylde/xxxswathi-teen-tan/rahyndee-van-wylde-7.jpg</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/onlyteenblowjobs/allie-nicole/soldier-big-cock-bugil-sex/allie-nicole-2.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/iE/ip/Sd3eMNHipiE/13552354-chanel-camryn-42-1080px.jpg</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Chanel Camryn</t>
+          <t>Baby Kxtten</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/oldje/baby-kxtten/painslut-jeans-cockmobi/baby-kxtten-2.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/deeplush/chanel-camryn-owen-gray-small-hands/fey-hardcore-thefappeningblog/hd-chanel-camryn-owen-gray-small-hands-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/nubiles/baby-kxtten/18x-babe-east/baby-kxtten-13.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/609/32175082/32175082_090_c7e5.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/667/45134131/45134131_109_bac4.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://ei.phncdn.com/videos/202304/15/429549461/original/(m=qHJ99JYbeaSaaTbaAaaaa)(mh=h3zExzzBzgS9sw8j)0.jpg</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>https://m.pornpics.vip/xxx/innocenthigh/rahyndee-van-wylde/xxxswathi-teen-tan/rahyndee-van-wylde-7.jpg</t>
+          <t>https://vip.xxxporn.pics/media/bangbrosnetwork/baby-kxtten/www1x-doubledicked-pornstar-wish/baby-kxtten-2.jpg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/iE/ip/Sd3eMNHipiE/13552354-chanel-camryn-42-1080px.jpg</t>
+          <t>https://milf.vip/pics/oldje/baby-kxtten-nesty-nikky-thorne/exchange-cute-new-update/baby-kxtten-nesty-nikky-thorne-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Baby Kxtten</t>
+          <t>Sera Ryder</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/evilangel/baby-kxtten-charlie-forde-erik-everhard-vince-karter/yojmi-shorts-freeroughporn/hd-baby-kxtten-charlie-forde-erik-everhard-vince-karter-11.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/359/75347206/75347206_002_6de1.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/pornworld/baby-kxtten/sexyvideos-bdsm-sexgangsters/baby-kxtten-10.jpg</t>
+          <t>https://babes.plus/sexpics/pornbabes/sera-ryder/photo10class-hairy-swix/sera-ryder-1.jpg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/667/45134131/45134131_109_bac4.jpg</t>
+          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/zo/iu/oCsecKsiuzo/16909985-baby-kxtten-eden-ivy-freddy-gong-13.jpg</t>
+          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/cherrypimps/sera-ryder/voto-reverse-cowgirl-social-media/hd-sera-ryder-15.jpg</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/pornworld/baby-kxtten/sweetie-hardcore-corset/baby-kxtten-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/sera-ryder-dan-damage/doggystyle-beautiful-xxx-garls/hd-sera-ryder-dan-damage-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Sera Ryder</t>
+          <t>Angie lynx</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/359/75347206/75347206_002_6de1.jpg</t>
+          <t>https://pornpics.blog/media/herlimit/vince-karter-angie-lynx/babexxx-brunette-kittykats/vince-karter-angie-lynx-1.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/pornbabes/sera-ryder/photo10class-hairy-swix/sera-ryder-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/private/angie-lynx-potro-de-bilbao/wet-petite-manyvids/angie-lynx-potro-de-bilbao-11.jpg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
+          <t>https://cdni.lamalinks.com/460/1/368/21978122/21978122_009_ee10.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://content.interracialreality.com/Sera_Ryder-Sera_Ryder_Gets_What_She_Wants_At_The_Gloryhole/Sera-Ryder-Dogfart-Sera-Ryder-Gets-What-She-Wants-At-The-Gloryhole-2024-02-18-14.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/t0/nu/dtEYiytnut0/10580381-bbc19320215_880x660.jpg</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/cherrypimps/sera-ryder/voto-reverse-cowgirl-social-media/hd-sera-ryder-15.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/15/71/pz046z67115/14882999-14882999_880x660.jpg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/naughtyamerica/sera-ryder-dan-damage/doggystyle-beautiful-xxx-garls/hd-sera-ryder-dan-damage-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/21sextury/angie-lynx-toby/tightskinny-european-foto2/angie-lynx-toby-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Angie lynx</t>
+          <t>Theodora Day</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/herlimit/vince-karter-angie-lynx/babexxx-brunette-kittykats/vince-karter-angie-lynx-1.jpg</t>
+          <t>https://pornpics.blog/media/throated/mick-blue-add-to-favorites-theodora-day/st-blowjob-hd-pics/mick-blue-add-to-favorites-theodora-day-3.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/private/angie-lynx-potro-de-bilbao/wet-petite-manyvids/angie-lynx-potro-de-bilbao-11.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/nubilefilms/chad-alva-theodora-day/whippedass-stockings-literotica/chad-alva-theodora-day-2.jpg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://cdni.lamalinks.com/460/1/368/21978122/21978122_009_ee10.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/elegantangel/summer-vixen-theodora-day-britt-blair-summer-col/releasing-interracial-hd-pics/hd-summer-vixen-theodora-day-britt-blair-summer-col-3.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/t0/nu/dtEYiytnut0/10580381-bbc19320215_880x660.jpg</t>
+          <t>https://content-nubiles.pornstar-scenes.com/Parker_Ambrose-February_2024_Flavor_Of_The_Month_Theodora_Day_-_S4-E7/Parker-Ambrose-Nubiles-February-2024-Flavor-Of-The-Month-Theodora-Day---S4:E7-2024-02-01-001.jpg</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/15/71/pz046z67115/14882999-14882999_880x660.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/evilangel/theodora-day-mick-blue/mobil-pawg-pornex-mp4/hd-theodora-day-mick-blue-9.jpg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/21sextury/angie-lynx-toby/tightskinny-european-foto2/angie-lynx-toby-1.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/katie-morgan-sera-ryder-theodora-day-kyle-mason/average-lesbian-face/katie-morgan-sera-ryder-theodora-day-kyle-mason-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Theodora Day</t>
+          <t>Lucky anne</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/throated/mick-blue-add-to-favorites-theodora-day/st-blowjob-hd-pics/mick-blue-add-to-favorites-theodora-day-3.jpg</t>
+          <t>https://cdn77-image.gtflixtv.com/0-W5LUXMWGWq7cqrfNAG3A==,1989961200/2793a83bfb4c510897714118ebae850f003981b6/1/2169/1228/3/1.jpg?c=1&amp;method=resize&amp;f=jpg&amp;w=266&amp;height=328</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/nubilefilms/chad-alva-theodora-day/whippedass-stockings-literotica/chad-alva-theodora-day-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mylf/miss-raquel-lucky-anne-peter-green-ruben-blaze/hermaphrodite-mom-nudefakes/miss-raquel-lucky-anne-peter-green-ruben-blaze-8.jpg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/elegantangel/summer-vixen-theodora-day-britt-blair-summer-col/releasing-interracial-hd-pics/hd-summer-vixen-theodora-day-britt-blair-summer-col-3.jpg</t>
+          <t>https://pornpics.blog/media/bangbrosnetwork/lucky-anne-damion-dayski/first-interracial-sexvideo/hd-lucky-anne-damion-dayski-10.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://content-nubiles.pornstar-scenes.com/Parker_Ambrose-February_2024_Flavor_Of_The_Month_Theodora_Day_-_S4-E7/Parker-Ambrose-Nubiles-February-2024-Flavor-Of-The-Month-Theodora-Day---S4:E7-2024-02-01-001.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/PQ/Bm/VCbp6EDBmPQ/13877821-mc19487083_880x660.jpg</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/evilangel/theodora-day-mick-blue/mobil-pawg-pornex-mp4/hd-theodora-day-mick-blue-9.jpg</t>
+          <t>https://i.imagepost.com/wp-content/uploads/2022/11/tpmassag-with-anne.jpg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/naughtyamerica/katie-morgan-sera-ryder-theodora-day-kyle-mason/average-lesbian-face/katie-morgan-sera-ryder-theodora-day-kyle-mason-2.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/118557.jpg</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>Lucky anne</t>
+          <t>Staci silverstone</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://cdn77-image.gtflixtv.com/0-W5LUXMWGWq7cqrfNAG3A==,1989961200/2793a83bfb4c510897714118ebae850f003981b6/1/2169/1228/3/1.jpg?c=1&amp;method=resize&amp;f=jpg&amp;w=266&amp;height=328</t>
+          <t>https://cdni.pornpics.com/460/7/245/24393164/24393164_014_a11b.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mylf/miss-raquel-lucky-anne-peter-green-ruben-blaze/hermaphrodite-mom-nudefakes/miss-raquel-lucky-anne-peter-green-ruben-blaze-8.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/hometownnudes/staci-silverstone/more-cute-teen-pornmag/staci-silverstone-1.jpg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/bangbrosnetwork/lucky-anne-damion-dayski/first-interracial-sexvideo/hd-lucky-anne-damion-dayski-10.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/543/83438495/83438495_054_3229.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/PQ/Bm/VCbp6EDBmPQ/13877821-mc19487083_880x660.jpg</t>
+          <t>https://vip.sexhd.pics/media/bangbrosnetwork/staci-silverstone/high-quality-blondes-mobi-vod/staci-silverstone-2.jpg</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://i.imagepost.com/wp-content/uploads/2022/11/tpmassag-with-anne.jpg</t>
+          <t>https://www.babesandstars.com/galleries/77000/77993/02.jpg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/118557.jpg</t>
+          <t>https://www.babesandstars.com/galleries/77000/77993/01.jpg</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>Staci silverstone</t>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>sheena ryder</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/245/24393164/24393164_014_a11b.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/97301.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/hometownnudes/staci-silverstone/more-cute-teen-pornmag/staci-silverstone-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/newsensations/sheena-ryder/my-favorite-monstercock-mag/sheena-ryder-4.jpg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/543/83438495/83438495_054_3229.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/23/27042603/27042603_006_d16b.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/bangbrosnetwork/staci-silverstone/high-quality-blondes-mobi-vod/staci-silverstone-2.jpg</t>
+          <t>https://vip.yespornpics.com/media/bangbrosnetwork/sheena-ryder/creampe-milf-vip-sex/sheena-ryder-1.jpg</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.babesandstars.com/galleries/77000/77993/02.jpg</t>
+          <t>https://vip.yespornpics.com/media/realityjunkies/sheena-ryder-bill-bailey/rated-latina-book/hd-sheena-ryder-bill-bailey-13.jpg</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://www.babesandstars.com/galleries/77000/77993/01.jpg</t>
+          <t>https://cdni.pornpics.com/1280/7/54/56594704/56594704_038_2aeb.jpg</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sheena ryder</t>
+          <t>francesca-dicaprio</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/97301.jpg</t>
+          <t>https://m.pornpics.vip/xxx/breathtakers/francesca-dicaprio/croft-brunette-muslimteensexhd/francesca-dicaprio-2.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/newsensations/sheena-ryder/my-favorite-monstercock-mag/sheena-ryder-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/vipissy/francesca-dicaprio-susan-ayn/high-grade-fetish-mobileporn/francesca-dicaprio-susan-ayn-2.jpg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/23/27042603/27042603_006_d16b.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/KX/TK/rR8AIAbTKKX/7960813-taylor-vixen-nude_880x660.jpg</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/bangbrosnetwork/sheena-ryder/creampe-milf-vip-sex/sheena-ryder-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/wetandpissy/francesca-dicaprio/tell-fetish-shylastyle/hd-francesca-dicaprio-17.jpg</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/realityjunkies/sheena-ryder-bill-bailey/rated-latina-book/hd-sheena-ryder-bill-bailey-13.jpg</t>
+          <t>https://vip.yespornpics.com/media/wetandpuffy/francesca-dicaprio/joyful-dildo-film/hd-francesca-dicaprio-9.jpg</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/54/56594704/56594704_038_2aeb.jpg</t>
+          <t>https://babes.plus/sexpics/wetandpissy/francesca-dicaprio/fucking-european-amberathome-interracial/francesca-dicaprio-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>francesca-dicaprio</t>
+          <t>Kitty Carrera</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/breathtakers/francesca-dicaprio/croft-brunette-muslimteensexhd/francesca-dicaprio-2.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/528/46368911/46368911_011_e6f2.jpg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/vipissy/francesca-dicaprio-susan-ayn/high-grade-fetish-mobileporn/francesca-dicaprio-susan-ayn-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/sislovesme/kitty-carrera/sekx-latina-yummyalexxx/hd-kitty-carrera-4.jpg</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/KX/TK/rR8AIAbTKKX/7960813-taylor-vixen-nude_880x660.jpg</t>
+          <t>https://babes.plus/sexpics/welivetogether/alina-lopez-kitty-carrera/anemal-lesbian-neight/alina-lopez-kitty-carrera-19.jpg</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/wetandpissy/francesca-dicaprio/tell-fetish-shylastyle/hd-francesca-dicaprio-17.jpg</t>
+          <t>https://cdn.pics-x.com/pornstars/k/kitty-carrera-21258.jpg</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/wetandpuffy/francesca-dicaprio/joyful-dildo-film/hd-francesca-dicaprio-9.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/atkpetites/kitty-carrera/eroticax-brunette-xxxhub/hd-kitty-carrera-11.jpg</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/wetandpissy/francesca-dicaprio/fucking-european-amberathome-interracial/francesca-dicaprio-1.jpg</t>
+          <t>https://babes.plus/sexpics/onlyteenblowjobs/kitty-carrera/ehcother-petite-model-com/hd-kitty-carrera-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Kitty Carrera</t>
+          <t>Sladki slivki</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/528/46368911/46368911_011_e6f2.jpg</t>
+          <t>https://myteenwebcam.com/fapp/gifs/a0169bb34ddb1d9d05c4c17b5d69e34f.gif</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/sislovesme/kitty-carrera/sekx-latina-yummyalexxx/hd-kitty-carrera-4.jpg</t>
+          <t>https://blovjob.com/content/2022/09/pulsating_001.gif</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/welivetogether/alina-lopez-kitty-carrera/anemal-lesbian-neight/alina-lopez-kitty-carrera-19.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2022/10/gina90171323_003_4afa-e1667258311353.jpg</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://cdn.pics-x.com/pornstars/k/kitty-carrera-21258.jpg</t>
+          <t>https://i.xgroovy.com/contents/videos_screenshots/225000/225530/preview_1080p_gif.mp4.jpg</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/atkpetites/kitty-carrera/eroticax-brunette-xxxhub/hd-kitty-carrera-11.jpg</t>
+          <t>https://i.xgroovy.com/contents/videos_screenshots/35000/35007/preview.jpg</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/onlyteenblowjobs/kitty-carrera/ehcother-petite-model-com/hd-kitty-carrera-2.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2022/10/gina90171323_003_4afa-e1667258311353.jpg</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sladki slivki</t>
+          <t>Lennox Luxe</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://myteenwebcam.com/fapp/gifs/a0169bb34ddb1d9d05c4c17b5d69e34f.gif</t>
+          <t>https://vip.yespornpics.com/media/blacked/lennox-luxe/more-curvy-hashtag/lennox-luxe-3.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://blovjob.com/content/2022/09/pulsating_001.gif</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/lennox-luxe/contain-bbc-porno-token/lennox-luxe-6.jpg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://xxxbios.com/wp-content/uploads/2022/10/gina90171323_003_4afa-e1667258311353.jpg</t>
+          <t>https://content-blacked.pornstar-scenes.com/Lennox_Luxe-It_Started_Off_As_An_Innocent_Crush/Lennox-Luxe-Blacked-It-Started-Off-As-An-Innocent-Crush-2017-01-20-003.jpg</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://i.xgroovy.com/contents/videos_screenshots/225000/225530/preview_1080p_gif.mp4.jpg</t>
+          <t>https://pornpics.beauty/media/doctoradventures/johnny-castle-lennox-luxe/super-hero-cumshot-animated-images/johnny-castle-lennox-luxe-1.jpg</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://i.xgroovy.com/contents/videos_screenshots/35000/35007/preview.jpg</t>
+          <t>https://vip.yespornpics.com/media/bigtitsatwork/lennox-luxe/strapons-teen-movebog/hd-lennox-luxe-8.jpg</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://xxxbios.com/wp-content/uploads/2022/10/gina90171323_003_4afa-e1667258311353.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/MC/3h/dpMhUS23hMC/7762692-i-make-lennox-luxe-blacked-4k-photo.jpg</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lennox Luxe</t>
+          <t>Eva Elfie</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/blacked/lennox-luxe/more-curvy-hashtag/lennox-luxe-3.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/632/34557861/34557861_125_18ef.jpg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/lennox-luxe/contain-bbc-porno-token/lennox-luxe-6.jpg</t>
+          <t>https://cafe24img.poxo.com/ygnext/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://content-blacked.pornstar-scenes.com/Lennox_Luxe-It_Started_Off_As_An_Innocent_Crush/Lennox-Luxe-Blacked-It-Started-Off-As-An-Innocent-Crush-2017-01-20-003.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/632/34557861/34557861_125_18ef.jpg</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/doctoradventures/johnny-castle-lennox-luxe/super-hero-cumshot-animated-images/johnny-castle-lennox-luxe-1.jpg</t>
+          <t>https://i.xgroovy.com/contents/videos_screenshots/220000/220818/preview.jpg</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/bigtitsatwork/lennox-luxe/strapons-teen-movebog/hd-lennox-luxe-8.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/260/70245101/70245101_007_f343.jpg</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/MC/3h/dpMhUS23hMC/7762692-i-make-lennox-luxe-blacked-4k-photo.jpg</t>
+          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/01/fit18-eva-elfie-topless-pornstar-sexy-tits-560x841.jpg</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Eva Elfie</t>
+          <t>Gia Dimarco</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/632/34557861/34557861_125_18ef.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/318/60248328/60248328_012_0097.jpg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://cafe24img.poxo.com/ygnext/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/divinebitches/gia-dimarco/realtime-humiliation-video/gia-dimarco-5.jpg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/632/34557861/34557861_125_18ef.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/81/66635987/66635987_016_d784.jpg</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://i.xgroovy.com/contents/videos_screenshots/220000/220818/preview.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/108/92020666/92020666_056_e564.jpg</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/260/70245101/70245101_007_f343.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/chickpass/lina-logan-drake/ballhaus-amateur-creampies-cock/hd-lina-logan-drake-12.jpg</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/01/fit18-eva-elfie-topless-pornstar-sexy-tits-560x841.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/gia-dimarco/real-shaved-pussy-porngram/gia-dimarco-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Gia de Marco</t>
+          <t>Dorothy Black</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/318/60248328/60248328_012_0097.jpg</t>
+          <t>https://cdni.pornpics.de/460/1/163/86827183/86827183_010_96f9.jpg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/brazzersnetwork/haley-wilde-gia-demarco-gia-dimarco/empire-gangbangs-queen/haley-wilde-gia-demarco-gia-dimarco-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/thelifeerotic/dorothy-black/pants-high-heels-wet-spot/dorothy-black-4.jpg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/318/60248328/60248328_012_0097.jpg</t>
+          <t>https://milf.vip/pics/vivthomas/dorothy-black-sata-jones/1xon1model-lesbian-sexclub/dorothy-black-sata-jones-3.jpg</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://content.newbrazz.com/7603_-_Four_Dicks_to_Gangbang_the_Maid/Gia-Dimarco-Brazzers-Four-Dicks-to-Gangbang-the-Maid-2013-08-21-08.jpg</t>
+          <t>https://m.pornpics.vip/xxx/adultprime/dorothy-black-wivien/sexychut-ass-gifporntube/hd-dorothy-black-wivien-15.jpg</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/brazzersnetwork/haley-wilde-gia-demarco-gia-dimarco/newest-milf-youporn/haley-wilde-gia-demarco-gia-dimarco-10.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/ddfnetwork/cindy-dollar-dorothy-black/impressive-busty-wallpaper/hd-cindy-dollar-dorothy-black-12.jpg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/ihaveawife/gia-dimarco/ultra-big-tits-imagefap/gia-dimarco-1.jpg</t>
+          <t>https://vip.xxxporn.pics/media/eveangelofficial/dorothy-black-eve-angel/babecom-dildo-brooklyn/dorothy-black-eve-angel-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dorothy Black</t>
+          <t>Lily Love</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/1/163/86827183/86827183_010_96f9.jpg</t>
+          <t>https://content5.silkengirl.com/upload/main/43/5130948.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/thelifeerotic/dorothy-black/pants-high-heels-wet-spot/dorothy-black-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/lily-love/local-black-monstercock-vimeo/lily-love-8.jpg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/vivthomas/dorothy-black-sata-jones/1xon1model-lesbian-sexclub/dorothy-black-sata-jones-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/vixen/kylie-page-lily-love-mick-blue/wiredpussy-pornstar-bathing/kylie-page-lily-love-mick-blue-8.jpg</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/adultprime/dorothy-black-wivien/sexychut-ass-gifporntube/hd-dorothy-black-wivien-15.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/9L/ow/d3BtHOoow9L/199900-lily-love-sticky-reward.jpg</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/ddfnetwork/cindy-dollar-dorothy-black/impressive-busty-wallpaper/hd-cindy-dollar-dorothy-black-12.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/t8/6k/BNuqxiE6kt8/10134713-innocenthigh-lily-carter-192_880x660.jpg</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/eveangelofficial/dorothy-black-eve-angel/babecom-dildo-brooklyn/dorothy-black-eve-angel-1.jpg</t>
+          <t>https://babes.plus/sexpics/bjraw/lily-love/shut-outdoor-small/lily-love-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Lily Love</t>
+          <t>Sonya Blaze</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://content5.silkengirl.com/upload/main/43/5130948.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/340/73765353/73765353_015_feda.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/lily-love/local-black-monstercock-vimeo/lily-love-8.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/sonya-blaze/gallerie-doggystyle-nudists/hd-sonya-blaze-6.jpg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/vixen/kylie-page-lily-love-mick-blue/wiredpussy-pornstar-bathing/kylie-page-lily-love-mick-blue-8.jpg</t>
+          <t>https://content-vixen.pornstar-scenes.com/Sonya_Blaze-Caves/Sonya-Blaze-Vixen-Caves-2022-07-15-003.jpg</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/9L/ow/d3BtHOoow9L/199900-lily-love-sticky-reward.jpg</t>
+          <t>https://content-vixen.pornstar-scenes.com/Sonya_Blaze-Alone/Sonya-Blaze-Vixen-Alone-2021-05-21-007.jpg</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/t8/6k/BNuqxiE6kt8/10134713-innocenthigh-lily-carter-192_880x660.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/istripper/sonya-blaze/ani-skinny-pega1/hd-sonya-blaze-9.jpg</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/bjraw/lily-love/shut-outdoor-small/lily-love-2.jpg</t>
+          <t>https://content-vixen.pornstar-scenes.com/Sonya_Blaze-Alone/Sonya-Blaze-Vixen-Alone-2021-05-21-007.jpg</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sonya Blaze</t>
+          <t>Erin Everheart</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/340/73765353/73765353_015_feda.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Km/Fr/6Bx5gwMFrKm/2487640-erin-everheart-nude.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/sonya-blaze/gallerie-doggystyle-nudists/hd-sonya-blaze-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mylf/erin-everheart-karma-rx/nyce-dog-collar-open/erin-everheart-karma-rx-1.jpg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://content-vixen.pornstar-scenes.com/Sonya_Blaze-Caves/Sonya-Blaze-Vixen-Caves-2022-07-15-003.jpg</t>
+          <t>https://content5.mainbabes.com/mylf.com/2176/13.jpg</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://content-vixen.pornstar-scenes.com/Sonya_Blaze-Alone/Sonya-Blaze-Vixen-Alone-2021-05-21-007.jpg</t>
+          <t>https://pornpics.beauty/media/evilangel/richard-mann-erin-everheart/warm-interracial-wwwhd/richard-mann-erin-everheart-1.jpg</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/istripper/sonya-blaze/ani-skinny-pega1/hd-sonya-blaze-9.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/102079.jpg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://content-vixen.pornstar-scenes.com/Sonya_Blaze-Alone/Sonya-Blaze-Vixen-Alone-2021-05-21-007.jpg</t>
+          <t>https://pornpics.blog/media/analmom/erin-everheart-josh-rivers/asshdporn-cheating-freeone/erin-everheart-josh-rivers-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Erin Everheart</t>
+          <t xml:space="preserve">CRYSTAL TAYLOR </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Km/Fr/6Bx5gwMFrKm/2487640-erin-everheart-nude.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/shoplyftermylf/crystal-taylor/xxxseks-mike-mancini-gfleaks/hd-crystal-taylor-4.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mylf/erin-everheart-karma-rx/nyce-dog-collar-open/erin-everheart-karma-rx-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/julesjordan/crystal-taylor/kising-outdoor-pis/crystal-taylor-1.jpg</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://content5.mainbabes.com/mylf.com/2176/13.jpg</t>
+          <t>https://milf.vip/pics/sweetheartvideo/kate-kastle-taylor-vixen/lamour-lesbian-university/kate-kastle-taylor-vixen-2.jpg</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/evilangel/richard-mann-erin-everheart/warm-interracial-wwwhd/richard-mann-erin-everheart-1.jpg</t>
+          <t>https://pornpics.beauty/media/shoplyftermylf/crystal-taylor/play-hardcore-nudeboobs-images/hd-crystal-taylor-4.jpg</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/102079.jpg</t>
+          <t>https://vip.yespornpics.com/media/ftvmilfs/crystal-taylor/babecom-dildo-escortdirectory/hd-crystal-taylor-12.jpg</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/analmom/erin-everheart-josh-rivers/asshdporn-cheating-freeone/erin-everheart-josh-rivers-1.jpg</t>
+          <t>https://milf.vip/pics/mommyblowsbest/crystal-taylor/kitten-brunette-mobile-dramasex/crystal-taylor-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRYSTAL TAYLOR </t>
+          <t>AILA DONOVAN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/shoplyftermylf/crystal-taylor/xxxseks-mike-mancini-gfleaks/hd-crystal-taylor-4.jpg</t>
+          <t>https://milf.vip/pics/girlsway/aila-donovan-christy-love/imagescom-interracial-girld/aila-donovan-christy-love-2.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/julesjordan/crystal-taylor/kising-outdoor-pis/crystal-taylor-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/aila-donovan-isiah-maxwell/videos-blowjob-high/aila-donovan-isiah-maxwell-5.jpg</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/sweetheartvideo/kate-kastle-taylor-vixen/lamour-lesbian-university/kate-kastle-taylor-vixen-2.jpg</t>
+          <t>https://pics.javbtc.com/pornpics/throated/aila-donovan-mick-blue/nouhgty-cumshot-maud/aila-donovan-mick-blue-2.jpg</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/shoplyftermylf/crystal-taylor/play-hardcore-nudeboobs-images/hd-crystal-taylor-4.jpg</t>
+          <t>https://pornpics.beauty/media/momsteachsex/aila-donovan-lexi-luna/poses-threesome-diary/aila-donovan-lexi-luna-1.jpg</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/ftvmilfs/crystal-taylor/babecom-dildo-escortdirectory/hd-crystal-taylor-12.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/girlsway/aila-donovan-rebecca-vanguard/sports-dykes-hqsex/hd-aila-donovan-rebecca-vanguard-4.jpg</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/mommyblowsbest/crystal-taylor/kitten-brunette-mobile-dramasex/crystal-taylor-2.jpg</t>
+          <t>https://milf.vip/pics/spankmonster/aila-donovan/xxxgirl-white-nude/hd-aila-donovan-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AILA DONOVAN</t>
+          <t>CAITLIN BELL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/girlsway/aila-donovan-christy-love/imagescom-interracial-girld/aila-donovan-christy-love-2.jpg</t>
+          <t>https://pornpics.blog/media/milftrip/caitlin-bell/sugardaddy-riding-lounge-photos/hd-caitlin-bell-1.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/aila-donovan-isiah-maxwell/videos-blowjob-high/aila-donovan-isiah-maxwell-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/familyswapxxx/andi-rose-caitlin-bell/analmobilexxx-panties-bokep-pussy/andi-rose-caitlin-bell-4.jpg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://pics.javbtc.com/pornpics/throated/aila-donovan-mick-blue/nouhgty-cumshot-maud/aila-donovan-mick-blue-2.jpg</t>
+          <t>https://img2.badoink.com/content/casts/48811/caitlin-bell-48811.jpg?q=80&amp;w=720</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/momsteachsex/aila-donovan-lexi-luna/poses-threesome-diary/aila-donovan-lexi-luna-1.jpg</t>
+          <t>https://pornpics.beauty/media/milftrip/caitlin-bell/sugardaddy-riding-lounge-photos/hd-caitlin-bell-1.jpg</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/girlsway/aila-donovan-rebecca-vanguard/sports-dykes-hqsex/hd-aila-donovan-rebecca-vanguard-4.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/cherrypimps/caitlin-bell/tgp-dildo-foto-bokep/hd-caitlin-bell-9.jpg</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/spankmonster/aila-donovan/xxxgirl-white-nude/hd-aila-donovan-3.jpg</t>
+          <t>https://pornpics.beauty/media/milftrip/caitlin-bell/sugardaddy-riding-lounge-photos/hd-caitlin-bell-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CAITLIN BELL</t>
+          <t>Emily Belle</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/milftrip/caitlin-bell/sugardaddy-riding-lounge-photos/hd-caitlin-bell-1.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/112200.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/familyswapxxx/andi-rose-caitlin-bell/analmobilexxx-panties-bokep-pussy/andi-rose-caitlin-bell-4.jpg</t>
+          <t>https://milf.vip/pics/maturevan/mia-darklin-lilian-black-seal-kris/navaporn-brunette-lux/mia-darklin-lilian-black-seal-kris-1.jpg</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://img2.badoink.com/content/casts/48811/caitlin-bell-48811.jpg?q=80&amp;w=720</t>
+          <t>https://pics.jjgirls.com/pictures/bjraw/summer-vixen/february-blonde-montain/summer-vixen-1.jpg</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/milftrip/caitlin-bell/sugardaddy-riding-lounge-photos/hd-caitlin-bell-1.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/112200.jpg</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/cherrypimps/caitlin-bell/tgp-dildo-foto-bokep/hd-caitlin-bell-9.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/ddfprod/donna-bell/exclusive-masturbation-hdpicture/hd-donna-bell-3.jpg</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/milftrip/caitlin-bell/sugardaddy-riding-lounge-photos/hd-caitlin-bell-1.jpg</t>
+          <t>https://milf.vip/pics/julesjordan/emily-willis/kyra-spreading-imags-in/emily-willis-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Emily Belle</t>
+          <t>Luxury Girl</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/112200.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/73939.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/maturevan/mia-darklin-lilian-black-seal-kris/navaporn-brunette-lux/mia-darklin-lilian-black-seal-kris-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/hometownnudes/britt-shields/luxury-solo-pichunter/britt-shields-6.jpg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/bjraw/summer-vixen/february-blonde-montain/summer-vixen-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/631/64675719/64675719_001_44ad.jpg</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/112200.jpg</t>
+          <t>https://content5.8boobs.com/upload/main/50/5590628.jpg</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/ddfprod/donna-bell/exclusive-masturbation-hdpicture/hd-donna-bell-3.jpg</t>
+          <t>https://xxx.hair/media/innocenthigh/chad-alva-maci-winslett/18streamcom-teen-xxxhd-videos/chad-alva-maci-winslett-1.jpg</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/julesjordan/emily-willis/kyra-spreading-imags-in/emily-willis-2.jpg</t>
+          <t>https://babes.plus/sexpics/teamskeet/luxury-girl-alejandro-peer/torrent-cute-brazil-xxx/hd-luxury-girl-alejandro-peer-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Luxury Girl</t>
+          <t>Natalie Starr</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/73939.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/358/82798427/82798427_020_8a3c.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/hometownnudes/britt-shields/luxury-solo-pichunter/britt-shields-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/natalia-starr/secure-shaved-spotlight/natalia-starr-11.jpg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/631/64675719/64675719_001_44ad.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/543/42257143/42257143_028_6578.jpg</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://content5.8boobs.com/upload/main/50/5590628.jpg</t>
+          <t>https://cdn.pics-x.com/pornstars/n/natalia-starr-7602.jpg</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/innocenthigh/chad-alva-maci-winslett/18streamcom-teen-xxxhd-videos/chad-alva-maci-winslett-1.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/asiantgirl/sofia/18onlygirls-ladyboy-sexgirlada/hd-sofia-12.jpg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/teamskeet/luxury-girl-alejandro-peer/torrent-cute-brazil-xxx/hd-luxury-girl-alejandro-peer-1.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/5B/tR/07ELkJatR5B/334852-natalia-starr-nude.jpg</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Natalie Starr</t>
+          <t>Roxie Sinner</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/358/82798427/82798427_020_8a3c.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/teamskeet/roxie-sinner/giral-filthy-rich-anklet/hd-roxie-sinner-12.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/natalia-starr/secure-shaved-spotlight/natalia-starr-11.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/bignaturals/roxie-sinner-scott-nails/extreme-brunette-lawan-1x/hd-roxie-sinner-scott-nails-3.jpg</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/543/42257143/42257143_028_6578.jpg</t>
+          <t>https://www.pandesiaworld.com/wp-content/uploads/2023/06/RoxieSinner-topless-560x840.jpg</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://cdn.pics-x.com/pornstars/n/natalia-starr-7602.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/574/85926205/85926205_228_1a02.jpg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/asiantgirl/sofia/18onlygirls-ladyboy-sexgirlada/hd-sofia-12.jpg</t>
+          <t>https://cdni.247cumshots.com/460/1/365/16896059/16896059_015_cb0d.jpg</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/5B/tR/07ELkJatR5B/334852-natalia-starr-nude.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/574/85926205/85926205_228_1a02.jpg</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Roxie Sinner</t>
+          <t>Diana Rider</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/teamskeet/roxie-sinner/giral-filthy-rich-anklet/hd-roxie-sinner-12.jpg</t>
+          <t>https://pornpics.blog/media/metart/diana-rider/brutalcom-babe-vip-xgoro/diana-rider-1.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/bignaturals/roxie-sinner-scott-nails/extreme-brunette-lawan-1x/hd-roxie-sinner-scott-nails-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/metart/diana-rider/devils-solo-bimaxx/diana-rider-5.jpg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.pandesiaworld.com/wp-content/uploads/2023/06/RoxieSinner-topless-560x840.jpg</t>
+          <t>https://thumb-ah.flixcdn.com/xhs2/studio/218147/avatar-x480-jf5AZG.jpg</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/574/85926205/85926205_228_1a02.jpg</t>
+          <t>https://pornpics.beauty/media/metart/diana-rider/bigsizeboobxnx-glamour-pierre999/diana-rider-2.jpg</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://cdni.247cumshots.com/460/1/365/16896059/16896059_015_cb0d.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/metart/diana-rider/sexypic-teen-ishotmyself/hd-diana-rider-8.jpg</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/574/85926205/85926205_228_1a02.jpg</t>
+          <t>https://thumb-ah.flixcdn.com/xhs2/studio/218147/avatar-x480-jf5AZG.jpg</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Diana Rider</t>
+          <t>Penny Barber</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/metart/diana-rider/brutalcom-babe-vip-xgoro/diana-rider-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/682/72670446/72670446_059_938b.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/metart/diana-rider/devils-solo-bimaxx/diana-rider-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/penny-barber-anton-harden/soliel-bbc-pornmodel/penny-barber-anton-harden-9.jpg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://thumb-ah.flixcdn.com/xhs2/studio/218147/avatar-x480-jf5AZG.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/682/72670446/72670446_059_938b.jpg</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/metart/diana-rider/bigsizeboobxnx-glamour-pierre999/diana-rider-2.jpg</t>
+          <t>https://pornpics.beauty/media/naughtyamerica/penny-barber-tyler-cruise/livesex-pornstar-latinas/penny-barber-tyler-cruise-2.jpg</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/metart/diana-rider/sexypic-teen-ishotmyself/hd-diana-rider-8.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/adulttime/ricky-spanish-penny-barber-chloe-surreal/sixy-sexy-amerika/hd-ricky-spanish-penny-barber-chloe-surreal-8.jpg</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://thumb-ah.flixcdn.com/xhs2/studio/218147/avatar-x480-jf5AZG.jpg</t>
+          <t>https://milf.vip/pics/shoplyftermylf/penny-barber/xxxmodels-jizz-sedutv-porno/penny-barber-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Penny Barber</t>
+          <t>Barbie Feels</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/682/72670446/72670446_059_938b.jpg</t>
+          <t>https://pornpics.blog/media/blowpass/barbie-feels-mick-blue/18yearsold-british-fired/hd-barbie-feels-mick-blue-9.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/penny-barber-anton-harden/soliel-bbc-pornmodel/penny-barber-anton-harden-9.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/momlover/barbie-feels-juan-el-caballo-loco/secoreland-latina-xxxpos-game/barbie-feels-juan-el-caballo-loco-4.jpg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/682/72670446/72670446_059_938b.jpg</t>
+          <t>https://www.inxxx.com/contents/videos_screenshots/106000/106634/preview.jpg</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/naughtyamerica/penny-barber-tyler-cruise/livesex-pornstar-latinas/penny-barber-tyler-cruise-2.jpg</t>
+          <t>https://pornpics.beauty/media/momlover/barbie-feels-juan-el-caballo-loco-nick-strokes/imges-blonde-all-photos/barbie-feels-juan-el-caballo-loco-nick-strokes-2.jpg</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/adulttime/ricky-spanish-penny-barber-chloe-surreal/sixy-sexy-amerika/hd-ricky-spanish-penny-barber-chloe-surreal-8.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/blowpass/barbie-feels-celtic-iron/sexhdin-mature-girlsfinishingthejob/hd-barbie-feels-celtic-iron-8.jpg</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/shoplyftermylf/penny-barber/xxxmodels-jizz-sedutv-porno/penny-barber-1.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2023/06/22/barbie-feels-hot-milf-takes-off-her-lingerie1.jpg</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Barbie Feels</t>
+          <t>Dana Wolf</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/blowpass/barbie-feels-mick-blue/18yearsold-british-fired/hd-barbie-feels-mick-blue-9.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/318/43961351/43961351_014_159c.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/momlover/barbie-feels-juan-el-caballo-loco/secoreland-latina-xxxpos-game/barbie-feels-juan-el-caballo-loco-4.jpg</t>
+          <t>https://m.pornpics.vip/xxx/evilangel/dana-wolf/desyra-on-her-knees-sucking-squeezing/dana-wolf-4.jpg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.inxxx.com/contents/videos_screenshots/106000/106634/preview.jpg</t>
+          <t>https://m.pornpics.vip/xxx/newsensations/dana-wolf/website-hotwife-fuak/dana-wolf-1.jpg</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/momlover/barbie-feels-juan-el-caballo-loco-nick-strokes/imges-blonde-all-photos/barbie-feels-juan-el-caballo-loco-nick-strokes-2.jpg</t>
+          <t>https://pornpics.beauty/media/atkexotics/dana-wolf/spreadingxxxpics-teen-facebook/dana-wolf-1.jpg</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/blowpass/barbie-feels-celtic-iron/sexhdin-mature-girlsfinishingthejob/hd-barbie-feels-celtic-iron-8.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/vixen/dana-wolf-mick-blue/hole-hardcore-foto-toket/hd-dana-wolf-mick-blue-5.jpg</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2023/06/22/barbie-feels-hot-milf-takes-off-her-lingerie1.jpg</t>
+          <t>https://milf.vip/pics/newsensations/dana-wolf/bmd-logan-pierce-k18/dana-wolf-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Dana Wolf</t>
+          <t>Lana Rhoades</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/318/43961351/43961351_014_159c.jpg</t>
+          <t>https://cdni.pornpics.de/460/5/230/17565466/17565466_015_4bc2.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/evilangel/dana-wolf/desyra-on-her-knees-sucking-squeezing/dana-wolf-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/lana-rhoades/hihi-tits-project/lana-rhoades-5.jpg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/newsensations/dana-wolf/website-hotwife-fuak/dana-wolf-1.jpg</t>
+          <t>https://vip.yespornpics.com/media/vixen/lana-rhoades/cutey-real-tits-site/lana-rhoades-1.jpg</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/atkexotics/dana-wolf/spreadingxxxpics-teen-facebook/dana-wolf-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/295/96747687/96747687_054_8608.jpg</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/vixen/dana-wolf-mick-blue/hole-hardcore-foto-toket/hd-dana-wolf-mick-blue-5.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/542/94039699/94039699_092_4fd6.jpg</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/newsensations/dana-wolf/bmd-logan-pierce-k18/dana-wolf-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/160/11022173/11022173_004_d57a.jpg</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lana Rhoades</t>
+          <t>Elena Koshka</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/5/230/17565466/17565466_015_4bc2.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/156/32999377/32999377_255_616e.jpg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/lana-rhoades/hihi-tits-project/lana-rhoades-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/elena-koshka-jason-luv/xxxwickedpics-babe-eroticity/elena-koshka-jason-luv-1.jpg</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/vixen/lana-rhoades/cutey-real-tits-site/lana-rhoades-1.jpg</t>
+          <t>https://vip.yespornpics.com/media/vixen/elena-koshka/hammered-facial-3grls/elena-koshka-2.jpg</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/295/96747687/96747687_054_8608.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/103996.jpg</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/542/94039699/94039699_092_4fd6.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/130/18031453/18031453_014_c344.jpg</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/160/11022173/11022173_004_d57a.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/elena-koshka/huges-brunette-convinsing/elena-koshka-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Elena Koshka</t>
+          <t>Natalie Nix</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/156/32999377/32999377_255_616e.jpg</t>
+          <t>https://cdni.lamalinks.com/460/1/343/51039643/51039643_003_7b1c.jpg</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/elena-koshka-jason-luv/xxxwickedpics-babe-eroticity/elena-koshka-jason-luv-1.jpg</t>
+          <t>https://m.en.ygselect.com/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/vixen/elena-koshka/hammered-facial-3grls/elena-koshka-2.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2022/07/12/natalia-nix-in-tiny-black-shorts.jpg</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/103996.jpg</t>
+          <t>https://xxx.hair/media/bigtitsroundasses/juliana-bangbros-sofia-nix/march-latina-session/juliana-bangbros-sofia-nix-2.jpg</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/130/18031453/18031453_014_c344.jpg</t>
+          <t>https://m.pornpics.vip/xxx/sislovesme/natalia-nix-alex-jett/omgbigboobs-latina-starlet/hd-natalia-nix-alex-jett-2.jpg</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/naughtyamerica/elena-koshka/huges-brunette-convinsing/elena-koshka-1.jpg</t>
+          <t>https://milf.vip/pics/mommysgirl/kenzie-taylor-laney-grey-natalia-nix/bartscha-legs-wwwgallery/kenzie-taylor-laney-grey-natalia-nix-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Natalie Nix</t>
+          <t>Ariana Marie</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://cdni.lamalinks.com/460/1/343/51039643/51039643_003_7b1c.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/114/61902343/61902343_114_f342.jpg</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://m.en.ygselect.com/file_data/ygnext/2020/10/15/6c7e510adc7edf9d154c212d411e1724.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/ariana-marie-adria-rae/introduce-ffm-spotlight/ariana-marie-adria-rae-5.jpg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2022/07/12/natalia-nix-in-tiny-black-shorts.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/543/47889517/47889517_021_a64d.jpg</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/bigtitsroundasses/juliana-bangbros-sofia-nix/march-latina-session/juliana-bangbros-sofia-nix-2.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/a/ariana_marie/gallery32/images/01.jpg</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/sislovesme/natalia-nix-alex-jett/omgbigboobs-latina-starlet/hd-natalia-nix-alex-jett-2.jpg</t>
+          <t>https://vip.sexhd.pics/media/innocenthigh/ariana-marie-sonny-nash/smokeitbitchcom-skinny-bangbors/ariana-marie-sonny-nash-2.jpg</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/mommysgirl/kenzie-taylor-laney-grey-natalia-nix/bartscha-legs-wwwgallery/kenzie-taylor-laney-grey-natalia-nix-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/ariana-marie/hottest-doggystyle-nudevista/ariana-marie-6.jpg</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ariana Marie</t>
+          <t>Alyx Star</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/114/61902343/61902343_114_f342.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/554/78624292/78624292_305_6963.jpg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/ariana-marie-adria-rae/introduce-ffm-spotlight/ariana-marie-adria-rae-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/newsensations/alyx-star/oorn-big-cock-calssic/alyx-star-7.jpg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/543/47889517/47889517_021_a64d.jpg</t>
+          <t>https://content-blacked.pornstar-scenes.com/Alyx_Star-Simple_Contract/Alyx-Star-Blacked-Simple-Contract-2022-07-02-008.jpg</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/a/ariana_marie/gallery32/images/01.jpg</t>
+          <t>https://cdn.pics-x.com/pornstars/a/alyx-star-63287.jpg</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/innocenthigh/ariana-marie-sonny-nash/smokeitbitchcom-skinny-bangbors/ariana-marie-sonny-nash-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/zerotolerance/mike-mancini-alyx-star/ultrahd-white-luvv/hd-mike-mancini-alyx-star-5.jpg</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/naughtyamerica/ariana-marie/hottest-doggystyle-nudevista/ariana-marie-6.jpg</t>
+          <t>https://babes.plus/sexpics/julesjordanofficial/alyx-star-lexington-steele/beshine-chinese-xbabes-com/alyx-star-lexington-steele-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Alyx Star</t>
+          <t>Alessandra Jane</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/554/78624292/78624292_305_6963.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/152/50964764/50964764_006_e14d.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/newsensations/alyx-star/oorn-big-cock-calssic/alyx-star-7.jpg</t>
+          <t>https://m.pornpics.vip/xxx/oldje/alessandra-jane/picsanaltobi-hardcore-nordvpn/alessandra-jane-5.jpg</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://content-blacked.pornstar-scenes.com/Alyx_Star-Simple_Contract/Alyx-Star-Blacked-Simple-Contract-2022-07-02-008.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/185/15230512/15230512_002_4a8e.jpg</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://cdn.pics-x.com/pornstars/a/alyx-star-63287.jpg</t>
+          <t>https://vip.yespornpics.com/media/eurosexparties/alessandra-jane-cherry-bright/holiday-reverse-cowgirl-xxxbabe/alessandra-jane-cherry-bright-1.jpg</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/zerotolerance/mike-mancini-alyx-star/ultrahd-white-luvv/hd-mike-mancini-alyx-star-5.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/eurogirlsongirls/alessandra-jane-jenny/kzrn-dildo-expose/hd-alessandra-jane-jenny-4.jpg</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/julesjordanofficial/alyx-star-lexington-steele/beshine-chinese-xbabes-com/alyx-star-lexington-steele-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/21naturals/alessandra-jane/unlimited-cute-info/alessandra-jane-7.jpg</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Alessandra Jane</t>
+          <t>Arabella Mia</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/152/50964764/50964764_006_e14d.jpg</t>
+          <t>https://cdni.lamalinks.com/460/1/141/95538233/95538233_015_cbe2.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/oldje/alessandra-jane/picsanaltobi-hardcore-nordvpn/alessandra-jane-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/chickpass/allison-bloom/yoga-amateur-mobilepics/allison-bloom-6.jpg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://content6.pleasuregirl.net/babes.com/5149/02.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Bx/Tg/Rz5SU8tTgBx/97210-lucy-vixen-nude.jpg</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/eurosexparties/alessandra-jane-cherry-bright/holiday-reverse-cowgirl-xxxbabe/alessandra-jane-cherry-bright-1.jpg</t>
+          <t>https://ei.phncdn.com/videos/202403/02/448977901/original/(m=eGNdHgaaaa)(mh=uT03vNmYxBxddM0b)11.jpg</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/eurogirlsongirls/alessandra-jane-jenny/kzrn-dildo-expose/hd-alessandra-jane-jenny-4.jpg</t>
+          <t>https://ts2.mm.bing.net/th?q=???????????(Taylor%20Swift&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/21naturals/alessandra-jane/unlimited-cute-info/alessandra-jane-7.jpg</t>
+          <t>https://babes.plus/sexpics/peternorth/arabella-noelle-johnny-fender/pix-pornstar-xxxcam/arabella-noelle-johnny-fender-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Arabella Mia</t>
+          <t>Eva Savagiou</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://cdni.lamalinks.com/460/1/141/95538233/95538233_015_cbe2.jpg</t>
+          <t>https://pbs.twimg.com/media/FvcKU-aWIAAH4CL.jpg:small</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/metart/arabella-a/pornmobi-blonde-image-de/arabella-a-11.jpg</t>
+          <t>https://badralsamaahospitals.com/front-assets/img/hospital/ruwi.jpg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Bx/Tg/Rz5SU8tTgBx/97210-lucy-vixen-nude.jpg</t>
+          <t>https://pbs.twimg.com/profile_images/1400374299492425732/5eRJyXVl_400x400.jpg</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/mM/9y/37ndo4g9ymM/10126720-sapphire-lapiedra-katrina-moreno-11_880x660.jpg</t>
+          <t>https://pbs.twimg.com/amplify_video_thumb/1656980243612090368/img/U0i1aMRynY3SvYjc.jpg:small</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://cdni.247cumshots.com/460/1/141/95538233/95538233_015_cbe2.jpg</t>
+          <t>https://ts2.mm.bing.net/th?q=Il%20vecchio%20sborra%20dentro%20porno&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/myboobs/arabella-bella/gianna-high-heels-69wiki/arabella-bella-1.jpg</t>
+          <t>https://augustafreepress.com/wp-content/uploads/2023/06/Eva-Savagiou-900x682-1.png</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Eva Savagiou</t>
+          <t>Seltin Sweety</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/FvcKU-aWIAAH4CL.jpg:small</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/g2/ZK/hSuEeFUZKg2/6252592-big-tits-seltin-sweet-308470576-r7msl2vz-o.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://badralsamaahospitals.com/front-assets/img/hospital/ruwi.jpg</t>
+          <t>https://i0.wp.com/imgen.sexkomix2.com/uploads_images/porn-comic-motoko-kusanagi--cyberboi-sex-comic-sexy-brunette-was-2024-03-16/porn-comic-motoko-kusanagi--cyberboi-sex-comic-sexy-brunette-was-2024-03-16-265213010.jpg?ssl=1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/profile_images/1400374299492425732/5eRJyXVl_400x400.jpg</t>
+          <t>https://photos.xgroovy.com/contents/albums/sources/177000/177777/173555.jpg</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/amplify_video_thumb/1656980243612090368/img/U0i1aMRynY3SvYjc.jpg:small</t>
+          <t>https://cdn3.nude-pics.org/seltin-sweety-ez3KBYJR1c/seltin-sweety.webp</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://ts2.mm.bing.net/th?q=Il%20vecchio%20sborra%20dentro%20porno&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/L8/8j/W7w1mOZ8jL8/7620865-uploaded-by-elitepacks-net-join-tg-elitepacksof_880x660.jpg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://augustafreepress.com/wp-content/uploads/2023/06/Eva-Savagiou-900x682-1.png</t>
+          <t>https://content5.hotstunners.com/upload/main/45/5866220.jpg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Breckie Hill</t>
+          <t>Jesse jane</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://i2-prod.dailystar.co.uk/incoming/article30849578.ece/ALTERNATES/s615/0_unknown_331873772_584584673578599_6830003465036954166_n.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/346/21634492/21634492_015_5dde.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/digitalpress.com.ar/wp-content/uploads/2024/02/590436w850h519c.jpg.webp?fit=850%2C519&amp;ssl=1</t>
+          <t>https://pics.jjgirls.com/pictures/digitalplayground/jesse-jane-scott-nails/pizzott-outdoor-xxxshow/hd-jesse-jane-scott-nails-9.jpg</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://cdn2.bitchesgirls.com/file/breckie-hill-nude-tiktok-breckiehill-onlyfans-leaked-videos-mar-28-2024/bbba4b62a3c53e82127f9d339da534ab9a6e4c93cc4e83f36c777e3b66716332_thumbnail.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/346/21634492/21634492_015_5dde.jpg</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://i2-prod.dailystar.co.uk/incoming/article30849578.ece/ALTERNATES/s615/0_unknown_331873772_584584673578599_6830003465036954166_n.jpg</t>
+          <t>https://content-blacked.pornstar-scenes.com/Jesse_Jane-Addicted/Jesse-Jane-Blacked-Addicted-2019-06-28-008.jpg</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://cdn77-pic.xvideos-cdn.com/videos/thumbs169ll/c3/46/13/c34613d39f7905c51cc2ea72ac7cd5a0/c34613d39f7905c51cc2ea72ac7cd5a0.14.jpg</t>
+          <t>https://m.pornpics.vip/xxx/digitalplayground/jesse-jane-madison-scott/teenn-cowgirl-xxxfish/hd-jesse-jane-madison-scott-9.jpg</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://i2-prod.dailystar.co.uk/incoming/article30849578.ece/ALTERNATES/s615/0_unknown_331873772_584584673578599_6830003465036954166_n.jpg</t>
+          <t>https://babes.plus/sexpics/julesjordan/jesse-jane/pornbae-blonde-bur-videos/jesse-jane-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Seltin Sweety</t>
+          <t>Kylie Page</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/g2/ZK/hSuEeFUZKg2/6252592-big-tits-seltin-sweet-308470576-r7msl2vz-o.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/214/77626339/77626339_016_780e.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://i0.wp.com/imgen.sexkomix2.com/uploads_images/porn-comic-motoko-kusanagi--cyberboi-sex-comic-sexy-brunette-was-2024-03-16/porn-comic-motoko-kusanagi--cyberboi-sex-comic-sexy-brunette-was-2024-03-16-265213010.jpg?ssl=1</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/kylie-page/summer-pornstars-hdimage/kylie-page-3.jpg</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://photos.xgroovy.com/contents/albums/sources/177000/177777/173555.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/543/41343711/41343711_017_c215.jpg</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://cdn3.nude-pics.org/seltin-sweety-ez3KBYJR1c/seltin-sweety.webp</t>
+          <t>https://cdni.pornpics.com/460/5/214/77626339/77626339_016_780e.jpg</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/L8/8j/W7w1mOZ8jL8/7620865-uploaded-by-elitepacks-net-join-tg-elitepacksof_880x660.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/371/15523367/15523367_070_f12b.jpg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://content5.hotstunners.com/upload/main/45/5866220.jpg</t>
+          <t>https://milf.vip/pics/naughtyamerica/kylie-page-will-pounder/garls-wife-sexhd/kylie-page-will-pounder-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Jesse jane</t>
+          <t>Arya Fae</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/346/21634492/21634492_015_5dde.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/86/31015914/31015914_004_82df.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/digitalplayground/jesse-jane-scott-nails/pizzott-outdoor-xxxshow/hd-jesse-jane-scott-nails-9.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/arya-fae-jason-brown/skinny-teen-xxxporn/arya-fae-jason-brown-7.jpg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/346/21634492/21634492_015_5dde.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/vixen/arya-fae/wednesday-beautiful-4porn/arya-fae-8.jpg</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://content-blacked.pornstar-scenes.com/Jesse_Jane-Addicted/Jesse-Jane-Blacked-Addicted-2019-06-28-008.jpg</t>
+          <t>https://www.megatube.xxx/contents/videos_sources/142000/142978/screenshots/5.jpg</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/digitalplayground/jesse-jane-madison-scott/teenn-cowgirl-xxxfish/hd-jesse-jane-madison-scott-9.jpg</t>
+          <t>https://pics.javbtc.com/pornpics/mybabysittersclub/arya-fae-marcus-london/comhd-teen-boobyxvideo/arya-fae-marcus-london-1.jpg</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/julesjordan/jesse-jane/pornbae-blonde-bur-videos/jesse-jane-1.jpg</t>
+          <t>https://babes.plus/sexpics/tushy/arya-fae/wifi-reverse-cowgirl-2lesbian-boy/arya-fae-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dakota Skye</t>
+          <t>Gal Ritchie</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/xN/Sz/Xa14mxTSzxN/200259-dakota-skye-nude.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/UC/HN/kDvLWzgHNUC/12718179-gal-ritchie-big-ass-in-thong00006.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacksonblondes/dakota-skye/slipping-spinner-bartscha/dakota-skye-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/deeper/gal-ritchie-chris-diamond/pussypic-brunette-oz/gal-ritchie-chris-diamond-2.jpg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/83/64364902/64364902_015_0d08.jpg</t>
+          <t>https://deeper.pornstar-scenes.com/Gal_Ritchie-Make_It_Right/Gal-Ritchie-Deeper-Make-It-Right-2023-10-26-videoS.jpg</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/d/dakota_skye/gallery37/images/01.jpg</t>
+          <t>https://m.pornpics.vip/xxx/strokies/gal-ritchie/jaw-british-chloe/hd-gal-ritchie-9.jpg</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/sweetsinner/dakota-skye-steven-st-croix/race-petite-jeze/dakota-skye-steven-st-croix-1.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/adulttime/vince-karter-gal-ritchie/brazznetworkcom-reality-of/hd-vince-karter-gal-ritchie-20.jpg</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://img.barelist.com/images/hosted/tgp/dakota-skye-082714/pics/dakota-skye-teen-gets-her-ass-banged-in-pink-lingerie-1.jpg</t>
+          <t>https://pornpics.blog/media/naughtyamerica/gal-ritchie-ryan-mclane/lounge-sexy-bubbly/gal-ritchie-ryan-mclane-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hailey Paige</t>
+          <t>Keisha Grey</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/459/78093608/78093608_078_8814.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/L4/E6/4u9lET1E6L4/146549-keisha-grey-showing-off-her-latest-facial.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/pornfidelity/haley-paige-kelly-madison-ryan-madison/analxxx-blonde-hdpics/haley-paige-kelly-madison-ryan-madison-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/keisha-grey-anton-harden/xxxstar-interracial-katiarena-com/keisha-grey-anton-harden-12.jpg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.lustfulmodels.com/h/haley-paige/gami2t/cover.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/vixen/jean-val-jean-keisha-grey/indra-latina-veryfirsttime/jean-val-jean-keisha-grey-6.jpg</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/zerotolerance/brea-bennett-haley-paige-jenny-hendrix-jassie-james/edge-lesbian-redtubecom/brea-bennett-haley-paige-jenny-hendrix-jassie-james-1.jpg</t>
+          <t>https://www.iafd.com/graphics/headshots/keishagrey_f_0976.jpg</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/babesandstars/haley-paige/amazing-lingerie-gallery/haley-paige-1.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/eroticbeauty/lena-d/wwwhd-shaved-short/hd-lena-d-9.jpg</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://www.babesandstars.com/galleries/23000/23334/02.jpg</t>
+          <t>https://vip.yespornpics.com/media/mysistershotfriend/keisha-grey/search-ass-fucking-mobi-movie/keisha-grey-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kylie Page</t>
+          <t>Avery Cristy</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/214/77626339/77626339_016_780e.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/113893.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/kylie-page/summer-pornstars-hdimage/kylie-page-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/avery-cristy-freddy-gong/babe-hardcore-xxl-hd/avery-cristy-freddy-gong-3.jpg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/543/41343711/41343711_017_c215.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/113893.jpg</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/214/77626339/77626339_016_780e.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Y3/qT/gOe5HJXqTY3/860271-avery-cristy-leg-spread.jpg</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/371/15523367/15523367_070_f12b.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/279/78616415/78616415_006_3d92.jpg</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/naughtyamerica/kylie-page-will-pounder/garls-wife-sexhd/kylie-page-will-pounder-1.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/113893.jpg</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Arya Fae</t>
+          <t>Bella Roland</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/86/31015914/31015914_004_82df.jpg</t>
+          <t>https://cdni.idealmilf.com/460/1/267/33348927/33348927_001_37a1.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/arya-fae-jason-brown/skinny-teen-xxxporn/arya-fae-jason-brown-7.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/bella-rolland-jax-slayher/oldfarts-reality-mobi-cid/bella-rolland-jax-slayher-2.jpg</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/vixen/arya-fae/wednesday-beautiful-4porn/arya-fae-8.jpg</t>
+          <t>https://s1.milffox.com/p/1/25/43453/pic1.jpg</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.megatube.xxx/contents/videos_sources/142000/142978/screenshots/5.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/282/74543902/74543902_001_bc68.jpg</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://pics.javbtc.com/pornpics/mybabysittersclub/arya-fae-marcus-london/comhd-teen-boobyxvideo/arya-fae-marcus-london-1.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/pervcity/bella-rolland/union-blowjob-night/hd-bella-rolland-4.jpg</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/tushy/arya-fae/wifi-reverse-cowgirl-2lesbian-boy/arya-fae-1.jpg</t>
+          <t>https://content.newbrazz.com/4619631-Kinky_Caterers_Almost_Get_Caught/Bella-Rolland-Brazzers-Kinky-Caterers-Almost-Get-Caught!-2022-02-18-01.jpg</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gal Ritchie</t>
+          <t>Kendra Lust</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/UC/HN/kDvLWzgHNUC/12718179-gal-ritchie-big-ass-in-thong00006.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/37/79593842/79593842_074_2285.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/deeper/gal-ritchie-chris-diamond/pussypic-brunette-oz/gal-ritchie-chris-diamond-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/kendra-lust/fine-interracial-hd-mobi/kendra-lust-1.jpg</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://deeper.pornstar-scenes.com/Gal_Ritchie-Make_It_Right/Gal-Ritchie-Deeper-Make-It-Right-2023-10-26-videoS.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/tX/0I/7h7EEft0ItX/448183-kendra-lust-nude.jpg</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/strokies/gal-ritchie/jaw-british-chloe/hd-gal-ritchie-9.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/433/30494683/30494683_221_08c7.jpg</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/adulttime/vince-karter-gal-ritchie/brazznetworkcom-reality-of/hd-vince-karter-gal-ritchie-20.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/istripper/sata-jones/voluptuous-solo-bigass/hd-sata-jones-11.jpg</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/naughtyamerica/gal-ritchie-ryan-mclane/lounge-sexy-bubbly/gal-ritchie-ryan-mclane-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/naughtyamerica/kendra-lust/direct-milf-mobile-video/kendra-lust-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Keisha Grey</t>
+          <t>Maitland Ward</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/L4/E6/4u9lET1E6L4/146549-keisha-grey-showing-off-her-latest-facial.jpg</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/118432.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/keisha-grey-anton-harden/xxxstar-interracial-katiarena-com/keisha-grey-anton-harden-12.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/maitland-ward-bree-daniels-jax-slayher/top-suggested-party-wales/maitland-ward-bree-daniels-jax-slayher-1.jpg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/vixen/jean-val-jean-keisha-grey/indra-latina-veryfirsttime/jean-val-jean-keisha-grey-6.jpg</t>
+          <t>https://pbs.twimg.com/media/Eur2jJUUUAEcExQ.jpg:small</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.iafd.com/graphics/headshots/keishagrey_f_0976.jpg</t>
+          <t>https://pornpics.beauty/media/brazzersnetwork/maitland-ward-baxter/sistasinthehood-keiran-lee-xxx-tape/maitland-ward-baxter-1.jpg</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/eroticbeauty/lena-d/wwwhd-shaved-short/hd-lena-d-9.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/SL/RW/prGw80SRWSL/660368-maitland-ward-nude.jpg</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/mysistershotfriend/keisha-grey/search-ass-fucking-mobi-movie/keisha-grey-2.jpg</t>
+          <t>https://milf.vip/pics/manuelferrara/maitland-ward/fitness-tiny-tits-profil/maitland-ward-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Avery Cristy</t>
+          <t>Jynx Maze</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/113893.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/116/75466284/75466284_224_352e.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/avery-cristy-freddy-gong/babe-hardcore-xxl-hd/avery-cristy-freddy-gong-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/jynx-maze/enhanced-latina-fuckpics/jynx-maze-6.jpg</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/113893.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/87/65560537/65560537_005_82f9.jpg</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Y3/qT/gOe5HJXqTY3/860271-avery-cristy-leg-spread.jpg</t>
+          <t>https://content5.novoporn.com/bangbrosnetwork.com/0413/11.jpg</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/279/78616415/78616415_006_3d92.jpg</t>
+          <t>https://cdni.pornpics.com/460/5/83/92968641/92968641_016_9d77.jpg</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/113893.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/39/49022862/49022862_010_99aa.jpg</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Scarlett Jones</t>
+          <t>Allie Haze</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/309/13435771/13435771_002_bbb2.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/privateblack/scarlett-jones/camera-redhead-sexhd/hd-scarlett-jones-4.jpg</t>
+          <t>https://i5.fuskator.com/large/eKLulLTkb3T/Black-Allie-Haze-from-NewSensations-Wearing-Pink-Lingerie-1.jpg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://img.barelist.com/images/hosted/tgp/allie-haze-andy-san-dimas-010714/pics/allie-haze-and-andy-san-dimas-get-drilled-in-the-mine-9.jpg</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/onlyallsites/scarlett-jones/movebog-big-tits-spote/scarlett-jones-1.jpg</t>
+          <t>https://www.babesandstars.com/galleries/75000/75508/08.jpg</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/evilangel/joss-lescaf-scarlett-jones/closeup-college-xxxgirls/hd-joss-lescaf-scarlett-jones-12.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/fuckingmachines/allie-haze/kates-bondage-shylastyle/hd-allie-haze-4.jpg</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://m.pornpics.vip/xxx/naughtyamerica/allie-haze/valuable-pussy-tweet/allie-haze-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Bella Roland</t>
+          <t>Vanna Bardot</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://cdni.idealmilf.com/460/1/267/33348927/33348927_001_37a1.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/331/22655263/22655263_011_623e.jpg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/bella-rolland-jax-slayher/oldfarts-reality-mobi-cid/bella-rolland-jax-slayher-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/vanna-bardot/xxxcody-big-cock-fb/hd-vanna-bardot-1.jpg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://s1.milffox.com/p/1/25/43453/pic1.jpg</t>
+          <t>https://pics-storage-1.ok.porn/contents/albums/main/1920x1080/87000/87486/5418421.jpg</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/282/74543902/74543902_001_bc68.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/619/73696486/73696486_052_54f0.jpg</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/pervcity/bella-rolland/union-blowjob-night/hd-bella-rolland-4.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/3rddegreefilms/vanna-bardot/pornaddicted-petite-kookporn/hd-vanna-bardot-2.jpg</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://content.newbrazz.com/4619631-Kinky_Caterers_Almost_Get_Caught/Bella-Rolland-Brazzers-Kinky-Caterers-Almost-Get-Caught!-2022-02-18-01.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/br/cO/vWeEozocObr/7682061-image-224_880x660.jpg</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Kendra Lust</t>
+          <t>Sybil</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/37/79593842/79593842_074_2285.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/542/82990872/82990872_082_63a4.jpg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/kendra-lust/fine-interracial-hd-mobi/kendra-lust-1.jpg</t>
+          <t>https://pornpics.blog/media/blacked/freddy-gong-sybil/hdfree-party-sexshow/hd-freddy-gong-sybil-5.jpg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/tX/0I/7h7EEft0ItX/448183-kendra-lust-nude.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Np/CG/b0ambODCGNp/13929097-sybil-caught-in-the-moment-06.jpg</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/433/30494683/30494683_221_08c7.jpg</t>
+          <t>https://content.bangbros-free.com/Sybil_Stallone-Stepmommy's_Punishment/Sybil-Stallone-Bangbros-Stepmommy's-Punishment-2021-06-18-130.jpg</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/istripper/sata-jones/voluptuous-solo-bigass/hd-sata-jones-11.jpg</t>
+          <t>https://vip.yespornpics.com/media/innocenthigh/alexis-stevens/exciting-schoolgirl-expert/hd-alexis-stevens-1.jpg</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/naughtyamerica/kendra-lust/direct-milf-mobile-video/kendra-lust-4.jpg</t>
+          <t>https://content.badgirlsusa.com/Sybil_Stallone-Sybil_Stallone_Fucks_Young_Cock/Sybil-Stallone-Naughty-America-Sybil-Stallone-fucks-young-cock-2020-03-13-220.jpg</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Maitland Ward</t>
+          <t>Leana Loving</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/118432.jpg</t>
+          <t>https://pbs.twimg.com/media/E_gaBPYXEAI4BT8.jpg:small</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/maitland-ward-bree-daniels-jax-slayher/top-suggested-party-wales/maitland-ward-bree-daniels-jax-slayher-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/lena-paul/direct-cowgirl-porno-sex/lena-paul-1.jpg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/Eur2jJUUUAEcExQ.jpg:small</t>
+          <t>https://cdni.pornpics.com/460/1/241/47757786/47757786_010_04d9.jpg</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/brazzersnetwork/maitland-ward-baxter/sistasinthehood-keiran-lee-xxx-tape/maitland-ward-baxter-1.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/RC/ps/HrF29GCpsRC/3807715-leana-lovings-in-losing-her-nerdinity-6.jpg</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/SL/RW/prGw80SRWSL/660368-maitland-ward-nude.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/innocenthigh/cameron-love-jordan-ash/st-schoolgirl-hardcori-poron/cameron-love-jordan-ash-1.jpg</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/manuelferrara/maitland-ward/fitness-tiny-tits-profil/maitland-ward-2.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/RC/ps/HrF29GCpsRC/3807727-leana-lovings-naughty-america-leana-lovings-gets-h.jpg</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Jynx Maze</t>
+          <t>Kenzie Madison</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/116/75466284/75466284_224_352e.jpg</t>
+          <t>https://cdni.pornpics.com/1280/1/278/38506936/38506936_001_1fa8.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/jynx-maze/enhanced-latina-fuckpics/jynx-maze-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mysistershotfriend/kenzie-madison-will-tile/recommend-teen-africasexxx/kenzie-madison-will-tile-5.jpg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/87/65560537/65560537_005_82f9.jpg</t>
+          <t>https://content-nubiles.pornstar-scenes.com/Kenzie_Madison-Get_Into_It/Kenzie-Madison-Nubiles-Get-Into-It-2019-10-20-002.jpg</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://content5.novoporn.com/bangbrosnetwork.com/0413/11.jpg</t>
+          <t>https://content-nubiles.pornstar-scenes.com/Kenzie_Madison-Get_Into_It/Kenzie-Madison-Nubiles-Get-Into-It-2019-10-20-002.jpg</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/5/83/92968641/92968641_016_9d77.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/bigcockhero/charles-dera-kenzie-madison/cyberxxx-brunette-breast-pics/charles-dera-kenzie-madison-3.jpg</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/39/49022862/49022862_010_99aa.jpg</t>
+          <t>https://babes.plus/sexpics/stepsiblingscaught/kenzie-madison/uniforms-ass-queen/kenzie-madison-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Allie Haze</t>
+          <t>Alex Coal</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/309/13435771/13435771_002_bbb2.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/339/48838675/48838675_005_0ab6.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://i5.fuskator.com/large/eKLulLTkb3T/Black-Allie-Haze-from-NewSensations-Wearing-Pink-Lingerie-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/realityjunkies/alex-coal/proncom-tommy-gunn-nylon/alex-coal-6.jpg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://img.barelist.com/images/hosted/tgp/allie-haze-andy-san-dimas-010714/pics/allie-haze-and-andy-san-dimas-get-drilled-in-the-mine-9.jpg</t>
+          <t>https://xxx.hair/media/nubilefilms/alex-coal-keira-croft-natalia-nix/whiteghetto-threesome-xxx-zone/alex-coal-keira-croft-natalia-nix-6.jpg</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.babesandstars.com/galleries/75000/75508/08.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/519/84610628/84610628_088_fbba.jpg</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/fuckingmachines/allie-haze/kates-bondage-shylastyle/hd-allie-haze-4.jpg</t>
+          <t>https://pornpics.blog/media/innocenthigh/arietta-adams-alex-coal-ricky-spanish/decent-schoolgirl-badass-xander/hd-arietta-adams-alex-coal-ricky-spanish-1.jpg</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/naughtyamerica/allie-haze/valuable-pussy-tweet/allie-haze-1.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/612/74696017/74696017_145_98b4.jpg</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Vanna Bardot</t>
+          <t>Skylar Snow</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/331/22655263/22655263_011_623e.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/332/70389644/70389644_020_866d.jpg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/vanna-bardot/xxxcody-big-cock-fb/hd-vanna-bardot-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/twistys/skylar-snow-sofi-ryan/sexphote-stockings-sexo-xxx/skylar-snow-sofi-ryan-11.jpg</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://pics-storage-1.ok.porn/contents/albums/main/1920x1080/87000/87486/5418421.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2022/06/profile_001-1-e1655650893959.jpg</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/619/73696486/73696486_052_54f0.jpg</t>
+          <t>https://www.thumbnailseries.com/tgpx/thumbs/181258.jpg</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/3rddegreefilms/vanna-bardot/pornaddicted-petite-kookporn/hd-vanna-bardot-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/clubtug/skylar-snow/modelgirl-teen-naughtamerica-bathroom/hd-skylar-snow-10.jpg</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/br/cO/vWeEozocObr/7682061-image-224_880x660.jpg</t>
+          <t>https://cdni.pornpics.com/1280/7/96/35861910/35861910_004_4985.jpg</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sybil</t>
+          <t>Whitney Wright</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/542/82990872/82990872_082_63a4.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2018/02/920083854386378914_1200-e1517576625715.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/blacked/freddy-gong-sybil/hdfree-party-sexshow/hd-freddy-gong-sybil-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/throated/jason-moody-whitney-wright/xtra-cumshot-chase/jason-moody-whitney-wright-2.jpg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Np/CG/b0ambODCGNp/13929097-sybil-caught-in-the-moment-06.jpg</t>
+          <t>https://milf.vip/pics/eroticax/markus-dupree-whitney-wright/purenudism-glamour-friday/markus-dupree-whitney-wright-2.jpg</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://content.bangbros-free.com/Sybil_Stallone-Stepmommy's_Punishment/Sybil-Stallone-Bangbros-Stepmommy's-Punishment-2021-06-18-130.jpg</t>
+          <t>https://vip.xxxporn.pics/media/bangbrosnetwork/whitney-wright/sweetpussyspace-missionary-domination/whitney-wright-2.jpg</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/innocenthigh/alexis-stevens/exciting-schoolgirl-expert/hd-alexis-stevens-1.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/sweetheartvideo/aidra-fox-whitney-wright/knox-dykes-hdvideos-download/hd-aidra-fox-whitney-wright-7.jpg</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://content.badgirlsusa.com/Sybil_Stallone-Sybil_Stallone_Fucks_Young_Cock/Sybil-Stallone-Naughty-America-Sybil-Stallone-fucks-young-cock-2020-03-13-220.jpg</t>
+          <t>https://babes.plus/sexpics/julesjordan/whitney-wright/pantai-spreading-vidios-com/whitney-wright-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Leana Loving</t>
+          <t>Gianna Dior</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/E_gaBPYXEAI4BT8.jpg:small</t>
+          <t>https://cdni.pornpics.de/460/7/674/49544656/49544656_025_0ea4.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/lena-paul/direct-cowgirl-porno-sex/lena-paul-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/gianna-dior/goddes-brunette-chickies-girlies/gianna-dior-4.jpg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/241/47757786/47757786_010_04d9.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/e/emily_willis/gallery191/images/02.jpg</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/RC/ps/HrF29GCpsRC/3807715-leana-lovings-in-losing-her-nerdinity-6.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/g/gianna_dior/gallery74/images/01.jpg</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/innocenthigh/cameron-love-jordan-ash/st-schoolgirl-hardcori-poron/cameron-love-jordan-ash-1.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/FN/Nn/XkekydiNnFN/1096183-gianna-dior-nude.jpg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/RC/ps/HrF29GCpsRC/3807727-leana-lovings-naughty-america-leana-lovings-gets-h.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/gianna-dior-lucas-frost/pannis-teen-pornolaba/gianna-dior-lucas-frost-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Kenzie Madison</t>
+          <t>Aubree Valentine</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/1/278/38506936/38506936_001_1fa8.jpg</t>
+          <t>https://cdni.pornpics.com/1280/7/87/45956733/45956733_003_23d2.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mysistershotfriend/kenzie-madison-will-tile/recommend-teen-africasexxx/kenzie-madison-will-tile-5.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/newsensations/aubree-valentine/sexdose-standing-cowgirl-xnxx/aubree-valentine-9.jpg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://content-nubiles.pornstar-scenes.com/Kenzie_Madison-Get_Into_It/Kenzie-Madison-Nubiles-Get-Into-It-2019-10-20-002.jpg</t>
+          <t>https://content-nubiles.pornstar-scenes.com/Aubree_Valentine-Get_Me_Wet/Aubree-Valentine-Nubiles-Get-Me-Wet-2022-03-20-006.jpg</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://content-nubiles.pornstar-scenes.com/Kenzie_Madison-Get_Into_It/Kenzie-Madison-Nubiles-Get-Into-It-2019-10-20-002.jpg</t>
+          <t>https://content-nubiles.pornstar-scenes.com/Aubree_Valentine-Get_Me_Wet/Aubree-Valentine-Nubiles-Get-Me-Wet-2022-03-20-006.jpg</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/bigcockhero/charles-dera-kenzie-madison/cyberxxx-brunette-breast-pics/charles-dera-kenzie-madison-3.jpg</t>
+          <t>https://cdni.247cumshots.com/460/1/366/44412041/44412041_019_f214.jpg</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/stepsiblingscaught/kenzie-madison/uniforms-ass-queen/kenzie-madison-1.jpg</t>
+          <t>https://content-nubiles.pornstar-scenes.com/Aubree_Valentine-Get_Me_Wet/Aubree-Valentine-Nubiles-Get-Me-Wet-2022-03-20-006.jpg</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Alex Coal</t>
+          <t>Blair Williams</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/339/48838675/48838675_005_0ab6.jpg</t>
+          <t>https://pornpics.blog/media/vixen/blair-williams-manuel-ferrara/bfdvd-teen-premium-version/blair-williams-manuel-ferrara-3.jpg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/realityjunkies/alex-coal/proncom-tommy-gunn-nylon/alex-coal-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/blair-williams-rob-piper/masturbate-mom-wwwimagenes/blair-williams-rob-piper-11.jpg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://xxx.hair/media/nubilefilms/alex-coal-keira-croft-natalia-nix/whiteghetto-threesome-xxx-zone/alex-coal-keira-croft-natalia-nix-6.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/qF/qi/MbTdcpwqiqF/445676-blair-williams-nude.jpg</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/519/84610628/84610628_088_fbba.jpg</t>
+          <t>https://content5.silkengirl.com/nubilefilms.com/2452/03.jpg</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/innocenthigh/arietta-adams-alex-coal-ricky-spanish/decent-schoolgirl-badass-xander/hd-arietta-adams-alex-coal-ricky-spanish-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/sweetsinner/blair-williams-donnie-rock/trueamateurmodelscom-flexible-thumbnail/blair-williams-donnie-rock-2.jpg</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/612/74696017/74696017_145_98b4.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/QW/00/2aIjzg700QW/254585-blissed-out-blair-williams.jpg</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Skylar Snow</t>
+          <t>Annabel Redd</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/332/70389644/70389644_020_866d.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/672/47517742/47517742_040_1758.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/twistys/skylar-snow-sofi-ryan/sexphote-stockings-sexo-xxx/skylar-snow-sofi-ryan-11.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/annabel-redd/bebe-interracial-bangroos/hd-annabel-redd-4.jpg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://xxxbios.com/wp-content/uploads/2022/06/profile_001-1-e1655650893959.jpg</t>
+          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/01/big-boobs-pornstar-Annabel-Redd-porn-Gets-Frisky-cover-560x840.jpg</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.thumbnailseries.com/tgpx/thumbs/181258.jpg</t>
+          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/01/big-boobs-pornstar-Annabel-Redd-porn-Gets-Frisky-cover-560x840.jpg</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/clubtug/skylar-snow/modelgirl-teen-naughtamerica-bathroom/hd-skylar-snow-10.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/annabel-redd-summer-hart-rion-king/bf-swingers-delavare-oprasan/hd-annabel-redd-summer-hart-rion-king-7.jpg</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/96/35861910/35861910_004_4985.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/annabel-redd-nade-nasty/mobiporn-redhead-pornterest/annabel-redd-nade-nasty-7.jpg</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Whitney Wright</t>
+          <t>Gabbie Carter</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://xxxbios.com/wp-content/uploads/2018/02/920083854386378914_1200-e1517576625715.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/303/61245401/61245401_015_d522.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/throated/jason-moody-whitney-wright/xtra-cumshot-chase/jason-moody-whitney-wright-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/gabbie-carter-anton-harden/luv-bbc-wcp/gabbie-carter-anton-harden-4.jpg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/eroticax/markus-dupree-whitney-wright/purenudism-glamour-friday/markus-dupree-whitney-wright-2.jpg</t>
+          <t>https://content-pornfidelity.pornstar-scenes.com/Gabbie_Carter-Perfect_Stroke/Gabbie-Carter-Porn-Fidelity-Perfect-Stroke-2020-03-06-60.jpg</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/bangbrosnetwork/whitney-wright/sweetpussyspace-missionary-domination/whitney-wright-2.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/95/95015204/95015204_102_ee4c.jpg</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/sweetheartvideo/aidra-fox-whitney-wright/knox-dykes-hdvideos-download/hd-aidra-fox-whitney-wright-7.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Km/1a/r5ldBx61aKm/764922-gabbie-carter-nude.jpg</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/julesjordan/whitney-wright/pantai-spreading-vidios-com/whitney-wright-1.jpg</t>
+          <t>https://m.pornpics.vip/xxx/brazzersnetwork/gabbie-carter-small-hands/butyfulsexomobi-ass-picsanaltobi/gabbie-carter-small-hands-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gianna Dior</t>
+          <t>Payton Preslee</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/674/49544656/49544656_025_0ea4.jpg</t>
+          <t>https://www.thumbnailseries.com/tgpx/thumbs/174068.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/gianna-dior/goddes-brunette-chickies-girlies/gianna-dior-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/hotandmean/abella-danger-payton-preslee/uralesbian-pornstar-love/hd-abella-danger-payton-preslee-2.jpg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/e/emily_willis/gallery191/images/02.jpg</t>
+          <t>https://m.pornpics.vip/xxx/pornbabes/payton-preslee/high-level-high-heels-nude-lipsex/payton-preslee-9.jpg</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/g/gianna_dior/gallery74/images/01.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/694/28821365/28821365_136_4b37.jpg</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/FN/Nn/XkekydiNnFN/1096183-gianna-dior-nude.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/julesjordan/payton-preslee/analpornostar-tattoo-squirting/hd-payton-preslee-2.jpg</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/naughtyamerica/gianna-dior-lucas-frost/pannis-teen-pornolaba/gianna-dior-lucas-frost-4.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/6p/ud/kPGdYX8ud6p/3690451-payton-preslee-naughty-america-payton-preslee-gets.jpg</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Aubree Valentine</t>
+          <t>Tori Black</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/7/87/45956733/45956733_003_23d2.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/638/62475187/62475187_015_f687.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/newsensations/aubree-valentine/sexdose-standing-cowgirl-xnxx/aubree-valentine-9.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/tori-black-jason-luv/daci-reality-huge-dildo/tori-black-jason-luv-6.jpg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://content-nubiles.pornstar-scenes.com/Aubree_Valentine-Get_Me_Wet/Aubree-Valentine-Nubiles-Get-Me-Wet-2022-03-20-006.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/543/58742028/58742028_051_14b2.jpg</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://content-nubiles.pornstar-scenes.com/Aubree_Valentine-Get_Me_Wet/Aubree-Valentine-Nubiles-Get-Me-Wet-2022-03-20-006.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/Q7/5q/vTfQeOe5qQ7/770103-tori-black-has-always-been-a-good-cumslut.jpg</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://cdni.247cumshots.com/460/1/366/44412041/44412041_019_f214.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/chickpass/lina-logan-drake/ballhaus-amateur-creampies-cock/hd-lina-logan-drake-12.jpg</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://content-nubiles.pornstar-scenes.com/Aubree_Valentine-Get_Me_Wet/Aubree-Valentine-Nubiles-Get-Me-Wet-2022-03-20-006.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/t/tori_black/gallery09/images/01.jpg</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Blair Williams</t>
+          <t>London Laurent</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/vixen/blair-williams-manuel-ferrara/bfdvd-teen-premium-version/blair-williams-manuel-ferrara-3.jpg</t>
+          <t>https://vip.sexhd.pics/media/strokies/london-laurent/xxximej-curvy-nordvpn/london-laurent-1.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/blair-williams-rob-piper/masturbate-mom-wwwimagenes/blair-williams-rob-piper-11.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/zerotolerance/london-laurent-donny-sins/xxxcody-high-heels-xxxboo/hd-london-laurent-donny-sins-7.jpg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/qF/qi/MbTdcpwqiqF/445676-blair-williams-nude.jpg</t>
+          <t>https://cdn.erocurves.com/wp-content/uploads/2023/09/28/london-laurent-rides-a-bbc.jpg</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://content5.silkengirl.com/nubilefilms.com/2452/03.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/612/69217956/69217956_067_9d41.jpg</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/sweetsinner/blair-williams-donnie-rock/trueamateurmodelscom-flexible-thumbnail/blair-williams-donnie-rock-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/innocenthigh/marcus-london-ruby-rayes/secret-college-pantiesfotossex/marcus-london-ruby-rayes-7.jpg</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/QW/00/2aIjzg700QW/254585-blissed-out-blair-williams.jpg</t>
+          <t>https://cdn.curvyerotic.com/thumbs/london7.jpg</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Anabel Redd</t>
+          <t>Codi Vore</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/574/46390889/46390889_026_51b7.jpg</t>
+          <t>https://pbs.twimg.com/media/Er9YpfmVQAE8Fho.jpg:small</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/annabel-redd/bebe-interracial-bangroos/hd-annabel-redd-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/scoreland/codi-vore/nudepee-kissing-hot-legs/codi-vore-9.jpg</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://content-pornfidelity.pornstar-scenes.com/Annabel_Redd-Naturally_Redd_Part_1/Annabel-Redd-Porn-Fidelity-Naturally-Redd-Part-1-2020-06-02-80.jpg</t>
+          <t>https://vip.yespornpics.com/media/scoreland/codi-vore/janesa-pornstars-ani/codi-vore-2.jpg</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/01/big-boobs-pornstar-Annabel-Redd-porn-Gets-Frisky-cover-560x840.jpg</t>
+          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/10/Codi-Vore-cover-brazzers-400x601.jpg</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/672/47517742/47517742_040_1758.jpg</t>
+          <t>https://babes.plus/sexpics/innocenthigh/lexi-diamond-tj-cummings/18eighteen-latina-anal-xvideos/lexi-diamond-tj-cummings-2.jpg</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/naughtyamerica/annabel-redd-nade-nasty/mobiporn-redhead-pornterest/annabel-redd-nade-nasty-7.jpg</t>
+          <t>https://babes.plus/sexpics/adulttime/codi-vore/virtualreality-hardcore-puffy/codi-vore-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Gabbie Carter</t>
+          <t>Harper Red</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/303/61245401/61245401_015_d522.jpg</t>
+          <t>https://image-service-ht.project1content.com/4ad/02f/1cf/e82/41a/1a5/c39/404/432/8d6/2c/model/profile_001.jpg?width=600&amp;aspectRatio=3x4&amp;imageVersion=1703169937</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/gabbie-carter-anton-harden/luv-bbc-wcp/gabbie-carter-anton-harden-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/braylin-bailey-anton-harden/blueeyedkat-interracial-hornyguy/braylin-bailey-anton-harden-1.jpg</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://content-pornfidelity.pornstar-scenes.com/Gabbie_Carter-Perfect_Stroke/Gabbie-Carter-Porn-Fidelity-Perfect-Stroke-2020-03-06-60.jpg</t>
+          <t>https://hips.hearstapps.com/hmg-prod/images/372586354-1293311351545995-2251165707733095600-n-64f394abc3c71.jpg?crop=1xw:0.75xh;center,top&amp;resize=1200:*</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/95/95015204/95015204_102_ee4c.jpg</t>
+          <t>https://cdni.pornpics.com/1280/1/355/88670070/88670070_001_b761.jpg</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Km/1a/r5ldBx61aKm/764922-gabbie-carter-nude.jpg</t>
+          <t>https://vip.sexhd.pics/media/innocenthigh/dillion-harper/decent-big-tits-xxxbabe/dillion-harper-2.jpg</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/brazzersnetwork/gabbie-carter-small-hands/butyfulsexomobi-ass-picsanaltobi/gabbie-carter-small-hands-2.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/nJ/Vv/fTjFK6vVvnJ/6736554-harper-red-naughty-america-busty-redhead-harper-r_880x660.jpg</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Payton Preslee</t>
+          <t>Linzee Ryder</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.thumbnailseries.com/tgpx/thumbs/174068.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/326/72976198/72976198_015_294a.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/hotandmean/abella-danger-payton-preslee/uralesbian-pornstar-love/hd-abella-danger-payton-preslee-2.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/julesjordan/linzee-ryder/voto-milf-aunty-poto/linzee-ryder-10.jpg</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/pornbabes/payton-preslee/high-level-high-heels-nude-lipsex/payton-preslee-9.jpg</t>
+          <t>https://pornpics.blog/media/naughtyamerica/linzee-ryder-lawson-jones/atk-big-tits-1x-porn/hd-linzee-ryder-lawson-jones-16.jpg</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/694/28821365/28821365_136_4b37.jpg</t>
+          <t>https://m.babe.today/mobile/ftvmilfs/linzee-ryder/bangbros-tanlines-iporntv-com/hd-linzee-ryder-10.jpg</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/julesjordan/payton-preslee/analpornostar-tattoo-squirting/hd-payton-preslee-2.jpg</t>
+          <t>https://m.pornpics.vip/xxx/mommyblowsbest/alex-jett-linzee-ryder/roughfuck-blonde-teenfucktory/alex-jett-linzee-ryder-2.jpg</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/6p/ud/kPGdYX8ud6p/3690451-payton-preslee-naughty-america-payton-preslee-gets.jpg</t>
+          <t>https://pornpics.blog/media/naughtyamerica/linzee-ryder-lawson-jones/atk-big-tits-1x-porn/linzee-ryder-lawson-jones-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tori Black</t>
+          <t>Phoenix marie</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/638/62475187/62475187_015_f687.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/68/46340843/46340843_008_5877.jpg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blackedraw/tori-black-jason-luv/daci-reality-huge-dildo/tori-black-jason-luv-6.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/julesjordan/phoenix-marie/wild-black-pornmag/phoenix-marie-1.jpg</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/543/58742028/58742028_051_14b2.jpg</t>
+          <t>https://www.babesandstars.com/galleries/36000/36750/05.jpg</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/Q7/5q/vTfQeOe5qQ7/770103-tori-black-has-always-been-a-good-cumslut.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/tV/p8/dMsPo2Zp8tV/500107-phoenix-marie-nude.jpg</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/chickpass/lina-logan-drake/ballhaus-amateur-creampies-cock/hd-lina-logan-drake-12.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/95/31848980/31848980_195_5be3.jpg</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/t/tori_black/gallery09/images/01.jpg</t>
+          <t>https://milf.vip/pics/naughtyamerica/phoenix-marie-charles-dera/easternporn-reality-latin/phoenix-marie-charles-dera-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>London Laurent</t>
+          <t>Slimthick vic</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/strokies/london-laurent/xxximej-curvy-nordvpn/london-laurent-1.jpg</t>
+          <t>https://vip.sexhd.pics/media/finishesthejob/slimthick-vic/panther-pov-night-america/slimthick-vic-1.jpg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/zerotolerance/london-laurent-donny-sins/xxxcody-high-heels-xxxboo/hd-london-laurent-donny-sins-7.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/slimthick-vic/xnparisa-lingerie-only/slimthick-vic-9.jpg</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://cdn.erocurves.com/wp-content/uploads/2023/09/28/london-laurent-rides-a-bbc.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/mD/WX/l2FqSI3WXmD/9629948-slimthick-vic-06-1-nude_880x660.jpg</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/612/69217956/69217956_067_9d41.jpg</t>
+          <t>https://www.mypornstarbook.net/pornstars/s/slimthick_vic/gallery11/images/01.jpg</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/innocenthigh/marcus-london-ruby-rayes/secret-college-pantiesfotossex/marcus-london-ruby-rayes-7.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/realitykings/gracie-gates-slimthick-vic/rar-toys-chick/hd-gracie-gates-slimthick-vic-7.jpg</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://cdn.curvyerotic.com/thumbs/london7.jpg</t>
+          <t>https://vip.sexhd.pics/media/finishesthejob/slimthick-vic/panther-pov-night-america/slimthick-vic-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Carlett Jones</t>
+          <t>Crystal Rush</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://vip.xxxporn.pics/media/hardx/crystal-rush-mick-blue/xo-brunette-x-tumblr/crystal-rush-mick-blue-2.jpg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/privateblack/scarlett-jones/camera-redhead-sexhd/scarlett-jones-10.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/nubilesporn/crystal-rush/xxxporn-petite-xxxmodel/crystal-rush-4.jpg</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://xxx.pornpics.app/pics/vixen/crystal-rae/assandh-blowjob-bratsgrils-com/crystal-rae-4.jpg</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://pornpics.beauty/media/onlyallsites/scarlett-jones/movebog-big-tits-spote/scarlett-jones-1.jpg</t>
+          <t>https://milf.vip/pics/bangbrosnetwork/crystal-rush/vvip-creampie-the/crystal-rush-3.jpg</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/evilangel/joss-lescaf-scarlett-jones/closeup-college-xxxgirls/hd-joss-lescaf-scarlett-jones-12.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/anthony-pierce-crystal-rush/deluxx-teacher-naughty-oldcreep/hd-anthony-pierce-crystal-rush-4.jpg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/655/45988477/45988477_134_b6ed.jpg</t>
+          <t>https://vip.yespornpics.com/media/naughtyamerica/brad-sterling-crystal-rush/amazing-pornstar-local/brad-sterling-crystal-rush-4.jpg</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Codi Vore</t>
+          <t>Matti</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/Er9YpfmVQAE8Fho.jpg:small</t>
+          <t>https://www.porn-star.com/tgpx/thumbs/118120.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/scoreland/codi-vore/nudepee-kissing-hot-legs/codi-vore-9.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/metart/lija/collage-big-tits-pussy-images/lija-3.jpg</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/scoreland/codi-vore/janesa-pornstars-ani/codi-vore-2.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/511/59003534/59003534_080_ec15.jpg</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://www.pandesiaworld.com/wp-content/uploads/2021/10/Codi-Vore-cover-brazzers-400x601.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/676/98026212/98026212_065_3790.jpg</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/innocenthigh/lexi-diamond-tj-cummings/18eighteen-latina-anal-xvideos/lexi-diamond-tj-cummings-2.jpg</t>
+          <t>https://cdni.pornpics.com/460/1/363/68553349/68553349_010_aa5f.jpg</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/adulttime/codi-vore/virtualreality-hardcore-puffy/codi-vore-1.jpg</t>
+          <t>https://babes.plus/sexpics/nubiles/matty/bartscha-european-pornboob/matty-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Harper Red</t>
+          <t>Zoey Sinn</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://image-service-ht.project1content.com/4ad/02f/1cf/e82/41a/1a5/c39/404/432/8d6/2c/model/profile_001.jpg?width=600&amp;aspectRatio=3x4&amp;imageVersion=1703169937</t>
+          <t>https://cdni.pornpics.com/460/7/564/76076017/76076017_098_b21f.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/braylin-bailey-anton-harden/blueeyedkat-interracial-hornyguy/braylin-bailey-anton-harden-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/xempire/isiah-maxwell-amari-anne-zoey-sinn/spote-couple-randi-image/isiah-maxwell-amari-anne-zoey-sinn-4.jpg</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://hips.hearstapps.com/hmg-prod/images/372586354-1293311351545995-2251165707733095600-n-64f394abc3c71.jpg?crop=1xw:0.75xh;center,top&amp;resize=1200:*</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/T2/0K/PdUUWSJ0KT2/6594245-zoey-sinn-nude.jpg</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/1280/1/355/88670070/88670070_001_b761.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/564/76076017/76076017_098_b21f.jpg</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/innocenthigh/dillion-harper/decent-big-tits-xxxbabe/dillion-harper-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/wicked/zoey-sinn-nathan-bronson/3g-ebony-swanlake-pentypussy/hd-zoey-sinn-nathan-bronson-5.jpg</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/nJ/Vv/fTjFK6vVvnJ/6736554-harper-red-naughty-america-busty-redhead-harper-r_880x660.jpg</t>
+          <t>https://vip.xxxporn.pics/media/naughtyamerica/zoey-sinn-ryan-driller/actiongirls-brunette-ans/zoey-sinn-ryan-driller-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Linzee Ryder</t>
+          <t>Madison Morgan</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/326/72976198/72976198_015_294a.jpg</t>
+          <t>https://www.porn-star.com/madison_morgan/01.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/julesjordan/linzee-ryder/voto-milf-aunty-poto/linzee-ryder-10.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/mylf/madison-morgan-giovanni-francesco/zemanova-chubby-blonde-bodybuilder/madison-morgan-giovanni-francesco-1.jpg</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/naughtyamerica/linzee-ryder-lawson-jones/atk-big-tits-1x-porn/hd-linzee-ryder-lawson-jones-16.jpg</t>
+          <t>https://cdn.pics-x.com/pornstars/m/madison-morgan-7285.jpg</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://m.babe.today/mobile/ftvmilfs/linzee-ryder/bangbros-tanlines-iporntv-com/hd-linzee-ryder-10.jpg</t>
+          <t>https://cdn.pics-x.com/pornstars/m/madison-morgan-7285.jpg</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/mommyblowsbest/alex-jett-linzee-ryder/roughfuck-blonde-teenfucktory/alex-jett-linzee-ryder-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/mylf/madison-morgan-jason-sweets/wwwabey-public-chut/hd-madison-morgan-jason-sweets-18.jpg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://pornpics.blog/media/naughtyamerica/linzee-ryder-lawson-jones/atk-big-tits-1x-porn/linzee-ryder-lawson-jones-1.jpg</t>
+          <t>https://milf.vip/pics/mylf/madison-morgan-jason-sweets/chutt-reality-activity/madison-morgan-jason-sweets-2.jpg</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Phoenix marie</t>
+          <t>Ashley Lane</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/68/46340843/46340843_008_5877.jpg</t>
+          <t>https://pbs.twimg.com/media/E3N8iFwVUAA1Ous.jpg:large</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/julesjordan/phoenix-marie/wild-black-pornmag/phoenix-marie-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blacked/ashley-lane-avery-cristy/outfit-blindfold-fuckporn/ashley-lane-avery-cristy-3.jpg</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.babesandstars.com/galleries/36000/36750/05.jpg</t>
+          <t>https://cdni.pornpics.com/460/7/544/14488443/14488443_158_0ec5.jpg</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/tV/p8/dMsPo2Zp8tV/500107-phoenix-marie-nude.jpg</t>
+          <t>https://m.pornpics.vip/xxx/metart/ashley-lane/breathtaking-socks-porndoe/hd-ashley-lane-3.jpg</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/95/31848980/31848980_195_5be3.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/devicebondage/ashley-lane-bonnie-rotten-daisy-ducati-janice-griffith/theenglishmansion-bondage-monchi/hd-ashley-lane-bonnie-rotten-daisy-ducati-janice-griffith-5.jpg</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/naughtyamerica/phoenix-marie-charles-dera/easternporn-reality-latin/phoenix-marie-charles-dera-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/ashley-lane-ryan-mclane/trendy-legs-high/ashley-lane-ryan-mclane-6.jpg</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Slimthick vic</t>
+          <t>Kyler Quinn</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/finishesthejob/slimthick-vic/panther-pov-night-america/slimthick-vic-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/554/40637796/40637796_069_b986.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/slimthick-vic/xnparisa-lingerie-only/slimthick-vic-9.jpg</t>
+          <t>https://babes.plus/sexpics/adulttime/kyler-quinn/brand-new-teen-isis/kyler-quinn-1.jpg</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/mD/WX/l2FqSI3WXmD/9629948-slimthick-vic-06-1-nude_880x660.jpg</t>
+          <t>https://www.thumbnailseries.com/tgpx/thumbs/176965.jpg</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://www.mypornstarbook.net/pornstars/s/slimthick_vic/gallery11/images/01.jpg</t>
+          <t>https://www.thumbnailseries.com/tgpx/thumbs/176965.jpg</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/realitykings/gracie-gates-slimthick-vic/rar-toys-chick/hd-gracie-gates-slimthick-vic-7.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/petitehdporn/kyler-quinn/bensonjpg-legs-east/hd-kyler-quinn-17.jpg</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://vip.sexhd.pics/media/finishesthejob/slimthick-vic/panther-pov-night-america/slimthick-vic-1.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/554/40637796/40637796_069_b986.jpg</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Crystal Rush</t>
+          <t>Jenna Starr</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/hardx/crystal-rush-mick-blue/xo-brunette-x-tumblr/crystal-rush-mick-blue-2.jpg</t>
+          <t>https://cdni.pornpics.de/460/5/239/51686203/51686203_014_39fb.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/nubilesporn/crystal-rush/xxxporn-petite-xxxmodel/crystal-rush-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/allgirlmassage/jenna-j-foxx-jenna-sativa/archive-massage-bust/jenna-j-foxx-jenna-sativa-1.jpg</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://xxx.pornpics.app/pics/vixen/crystal-rae/assandh-blowjob-bratsgrils-com/crystal-rae-4.jpg</t>
+          <t>https://pbs.twimg.com/media/FJCWKZfVcAEG03U.jpg:large</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/bangbrosnetwork/crystal-rush/vvip-creampie-the/crystal-rush-3.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/SE/l8/c6oumMZl8SE/9510052-jenna-starr-in-need-of-a-big-ass-103-4eaa43d006bc18b01bc86c23b735585d_880x660.jpg</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/naughtyamerica/anthony-pierce-crystal-rush/deluxx-teacher-naughty-oldcreep/hd-anthony-pierce-crystal-rush-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/innocenthigh/charles-dera-kaci-starr-riley-ray/videk-college-xxx-vidio/charles-dera-kaci-starr-riley-ray-1.jpg</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://vip.yespornpics.com/media/naughtyamerica/brad-sterling-crystal-rush/amazing-pornstar-local/brad-sterling-crystal-rush-4.jpg</t>
+          <t>https://milf.vip/pics/naughtyamerica/rachel-starr/potho-cheating-pawg/rachel-starr-3.jpg</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Matti</t>
+          <t>Sara Diamante</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/tgpx/thumbs/118120.jpg</t>
+          <t>https://cdni.lamalinks.com/460/1/361/46368094/46368094_017_c143.jpg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/metart/lija/collage-big-tits-pussy-images/lija-3.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/immorallive/sara-diamante-porno-dan-dean-van-damme/africa-brunette-ladykinkyboots/hd-sara-diamante-porno-dan-dean-van-damme-6.jpg</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/511/59003534/59003534_080_ec15.jpg</t>
+          <t>https://cdni.lamalinks.com/460/1/361/46368094/46368094_017_c143.jpg</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/676/98026212/98026212_065_3790.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/BM/Jd/apNoSsKJdBM/7502758-ap19078121.jpg</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/1/363/68553349/68553349_010_aa5f.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/blowpass/sara-diamante-porno-dan/sexvideoa-close-up-fully-clothed/hd-sara-diamante-porno-dan-4.jpg</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/nubiles/matty/bartscha-european-pornboob/matty-1.jpg</t>
+          <t>https://babes.plus/sexpics/fittingroom/sara-diamante/brasilpornpics-panties-date/sara-diamante-1.jpg</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Zoey Sinn</t>
+          <t>Mati Khalifia</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/564/76076017/76076017_098_b21f.jpg</t>
+          <t>https://pbs.twimg.com/media/FppcYhPWIAEBMHl.jpg:small</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/xempire/isiah-maxwell-amari-anne-zoey-sinn/spote-couple-randi-image/isiah-maxwell-amari-anne-zoey-sinn-4.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/maturenl/anna-katz-gerald-julia-lane/cocks-amateur-star/anna-katz-gerald-julia-lane-3.jpg</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://static-ca-cdn.eporner.com/gallery/T2/0K/PdUUWSJ0KT2/6594245-zoey-sinn-nude.jpg</t>
+          <t>https://i0.wp.com/www.culturetype.com/wp-content/uploads/2024/05/FEAT-LaToya-Ruby-Frazier-Lesley-Lokko-Thelma-Godlen.jpg?resize=640%2C290&amp;ssl=1</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/564/76076017/76076017_098_b21f.jpg</t>
+          <t>https://ts2.mm.bing.net/th?q=Kell%20bruka&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/wicked/zoey-sinn-nathan-bronson/3g-ebony-swanlake-pentypussy/hd-zoey-sinn-nathan-bronson-5.jpg</t>
+          <t>https://bmkltsly13vb.compat.objectstorage.ap-mumbai-1.oraclecloud.com/cdn.ft.lk/assets/uploads/image_d7e213f630.jpg</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/naughtyamerica/zoey-sinn-ryan-driller/actiongirls-brunette-ans/zoey-sinn-ryan-driller-1.jpg</t>
+          <t>https://ts2.mm.bing.net/th?q=Kell%20bruka&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Madison Morgan</t>
+          <t>Angel Melly</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.porn-star.com/madison_morgan/01.jpg</t>
+          <t>https://cdni.pornpics.de/460/7/580/92693189/92693189_001_a683.jpg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/mylf/madison-morgan-giovanni-francesco/zemanova-chubby-blonde-bodybuilder/madison-morgan-giovanni-francesco-1.jpg</t>
+          <t>https://ts2.mm.bing.net/th?q=????????????-%20The%20Irregular%20at%20Magic%20High&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://cdn.pics-x.com/pornstars/m/madison-morgan-7285.jpg</t>
+          <t>https://static.wikia.nocookie.net/marriedwithchildren/images/f/fb/Kelly_Bundy.jpg/revision/latest/thumbnail/width/360/height/450?cb=20150506132246</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://cdn.pics-x.com/pornstars/m/madison-morgan-7285.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2021/10/beawolf-035-e1634914122931.jpg</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/mylf/madison-morgan-jason-sweets/wwwabey-public-chut/hd-madison-morgan-jason-sweets-18.jpg</t>
+          <t>https://vip.xxxporn.pics/media/babygotboobs/eva-angelina/jerk-pornstar-want/hd-eva-angelina-15.jpg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://milf.vip/pics/mylf/madison-morgan-jason-sweets/chutt-reality-activity/madison-morgan-jason-sweets-2.jpg</t>
+          <t>https://cdn.theyarehuge.com/contents/videos_screenshots/174000/174536/preview.jpg</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ashley Lane</t>
+          <t>Sav Schultz</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://pbs.twimg.com/media/E3N8iFwVUAA1Ous.jpg:large</t>
+          <t>https://myteenwebcam.com/fapp/jpgs/494ce1618e4d995a93c4855e9b27f22b.jpg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/blacked/ashley-lane-avery-cristy/outfit-blindfold-fuckporn/ashley-lane-avery-cristy-3.jpg</t>
+          <t>https://imgv2-2-f.scribdassets.com/img/document/531005187/298x396/cb6fb4e090/1710589375?v=1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.com/460/7/544/14488443/14488443_158_0ec5.jpg</t>
+          <t>https://cdn77-pic.xvideos-cdn.com/videos/thumbs169poster/bb/99/7f/bb997f8e6b8d2fa530491cd6d0f06966-2/bb997f8e6b8d2fa530491cd6d0f06966.3.jpg</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://m.pornpics.vip/xxx/metart/ashley-lane/breathtaking-socks-porndoe/hd-ashley-lane-3.jpg</t>
+          <t>https://cdn77-pic.xvideos-cdn.com/videos/thumbs169poster/bb/99/7f/bb997f8e6b8d2fa530491cd6d0f06966-2/bb997f8e6b8d2fa530491cd6d0f06966.3.jpg</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/devicebondage/ashley-lane-bonnie-rotten-daisy-ducati-janice-griffith/theenglishmansion-bondage-monchi/hd-ashley-lane-bonnie-rotten-daisy-ducati-janice-griffith-5.jpg</t>
+          <t>https://badralsamaahospitals.com/front-assets/img/hospital/ruwi.jpg</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/naughtyamerica/ashley-lane-ryan-mclane/trendy-legs-high/ashley-lane-ryan-mclane-6.jpg</t>
+          <t>https://ts2.mm.bing.net/th?q=Tanja%20sczevtschenko&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Kyler Quinn</t>
+          <t>Aria Banks</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/554/40637796/40637796_069_b986.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2020/06/exxxtrasmall_aria_banks_006-e1593261639221.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://babes.plus/sexpics/adulttime/kyler-quinn/brand-new-teen-isis/kyler-quinn-1.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/aria-banks/lux-reverse-sexphotos/aria-banks-6.jpg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.thumbnailseries.com/tgpx/thumbs/176965.jpg</t>
+          <t>https://s.definebabe.com/t/3/860/ff818a5718fe413682dbeb2f5d0ade01_big.webp</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://www.thumbnailseries.com/tgpx/thumbs/176965.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2020/06/exxxtrasmall_aria_banks_006-e1593261639221.jpg</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/petitehdporn/kyler-quinn/bensonjpg-legs-east/hd-kyler-quinn-17.jpg</t>
+          <t>https://xxx.hair/media/teamskeet/jade-nile-jayden-black-elle-voneva-aria-banks/niche-reality-pussu-porn/hd-jade-nile-jayden-black-elle-voneva-aria-banks-1.jpg</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://cdni.pornpics.de/460/7/554/40637796/40637796_069_b986.jpg</t>
+          <t>https://xxxbios.com/wp-content/uploads/2020/06/exxxtrasmall_aria_banks_006-e1593261639221.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Chloe Surreal</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/Ni/u1/PAs6Fbru1Ni/7281807-69-tittyattack-big-boobies-busty-petite-teen-chlo_880x660.jpg</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/adulttime/chloe-surreal-hollywood-cash/unforgettable-hardcore-curves/chloe-surreal-hollywood-cash-2.jpg</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://pornpics.blog/media/throated/chloe-surreal-mick-blue/xlxx-cum-in-mouth-bur-videos/chloe-surreal-mick-blue-1.jpg</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://content.badgirlsusa.com/Chloe_Surreal-Busty_Blonde_Chloe_Surreal_Trains_With_Her_Friend's_Boyfriend's_Cock_Inside_Her/Chloe-Surreal-Naughty-America-Busty-blonde-Chloe-Surreal-trains-with-her-friend's-boyfriend's-cock-inside-her-2022-09-28-198.jpg</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/brazzersnetwork/kimmy-kimm-chloe-surreal-xander-corvus/dildos-white-vvip/hd-kimmy-kimm-chloe-surreal-xander-corvus-10.jpg</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://content.badgirlsusa.com/Chloe_Surreal-Busty_Blonde_Chloe_Surreal_Trains_With_Her_Friend's_Boyfriend's_Cock_Inside_Her/Chloe-Surreal-Naughty-America-Busty-blonde-Chloe-Surreal-trains-with-her-friend's-boyfriend's-cock-inside-her-2022-09-28-198.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Gabrielle Epstein</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/E1XoGFSUUAAV2Ns.jpg:small</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://opengraph.githubassets.com/d7c2622dd30b585ad31569d63f7c86f472d702da108affb7d3d8c0b5ab50da3e/blinktrade/bitex</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://ts2.mm.bing.net/th?q=Ladies%20to%20faking%20xxx%20video%20Monica%20correa&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://ts2.mm.bing.net/th?q=Ladies%20to%20faking%20xxx%20video%20Monica%20correa&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://ts2.mm.bing.net/th?q=???????????(Taylor%20Swift&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://a.espncdn.com/photo/2022/0510/r1010924_1296x729_16-9.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Empress Jade</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/R8/qb/st2ERm7qbR8/220083-the-jade-empress.jpg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://i.seadn.io/gae/o3oYsdwav7Iapw-EnUR1r3oe8BS3EsF-NhNAMc8tM2-gleW4SFZ-gEOv8WLX-bHtspfKbbTFTxCA6iFeyw_fWAmKXCULc-WohFpV?auto=format&amp;dpr=1&amp;w=1000</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/healthspinechiropractic.com/wp-content/uploads/2021/03/ketone-therapy-scaled.jpg?fit=2560%2C1707&amp;ssl=1</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/healthspinechiropractic.com/wp-content/uploads/2021/03/ketone-therapy-scaled.jpg?fit=2560%2C1707&amp;ssl=1</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://ts2.mm.bing.net/th?q=Directors%20A-Z&amp;w=1200&amp;h=1200&amp;c=100&amp;rs=2&amp;qlt=100&amp;cdv=3&amp;pid=ImgDetMain</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/healthspinechiropractic.com/wp-content/uploads/2021/03/ketone-therapy-scaled.jpg?fit=2560%2C1707&amp;ssl=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Isabella De santos</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/H0/80/BsjpTKi80H0/193537-isabella-de-santos-mui-hambriento-mic.jpg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/bustedbabysitters/isabella-desantos-kendra-lust/high-resolution-latina-porngallery/hd-isabella-desantos-kendra-lust-5.jpg</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://cdni.lamalinks.com/460/5/160/30087592/30087592_012_60f2.jpg</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/Fu/I6/65Igrw7I6Fu/264769-isabella-de-santos.jpg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/innocenthigh/isabella-pena-dick-chibbles/spanking-college-widow/isabella-pena-dick-chibbles-3.jpg</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://vip.xxxporn.pics/media/latinadultery/isabella-de-santos/normal-handjob-img/isabella-de-santos-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Popiense</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/penthousegold/mary-popiense/hardcure-spreading-imagenes-desnuda/hd-mary-popiense-8.jpg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/mary-popiense/xnxoxoxxx-beach-nuttit/mary-popiense-2.jpg</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://g4-1.smutr.com/contents/albums/main/690x690/36000/36278/407913.jpg</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/pornworld/mary-popiense/freaks-babe-hd-mobi/hd-mary-popiense-7.jpg</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/private/potro-de-bilbao-alberto-blanco-mary-popiense-dolly-dyson/follhdsex-sexy-nude-wetspot/hd-potro-de-bilbao-alberto-blanco-mary-popiense-dolly-dyson-14.jpg</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://babes.plus/sexpics/pornworld/mary-popiense/xxxmobihd-hardcore-edge/mary-popiense-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>LaSirena69</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/351/89990314/89990314_015_a17b.jpg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/354/26015648/26015648_003_dfb8.jpg</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://cdn77-pic.xvideos-cdn.com/videos/thumbs169poster/b3/9b/38/b39b38da84e6e54340ef2e3623d1f9dc/b39b38da84e6e54340ef2e3623d1f9dc.30.jpg</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/ij/Ji/HNc9tdBJiij/14227067-1706105572739.jpg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://cdni.hdpornpics.com/460/1/338/69831717/69831717_016_f0b6.jpg</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/1/342/98811657/98811657_005_f0db.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Amia Miley</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/vixen/amia-miley/xtra-pornstars-sexcutie/amia-miley-3.jpg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/brazzersnetwork/amia-miley/materials-cum-eating-sex-mobi/amia-miley-4.jpg</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/vixen/amia-miley/xtra-pornstars-sexcutie/amia-miley-3.jpg</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/256/56314676/56314676_071_32f3.jpg</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/innocenthigh/amia-miley-jack-lawrence/bankoktits-skinny-xxxgalas-pofotos/amia-miley-jack-lawrence-6.jpg</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://content5.novoporn.com/naughtyamerica.com/0231/07.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Kayla Paige</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/37/13914301/13914301_696_dcf7.jpg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/penthousegold/kayla-paige/assfixationcom-lingerie-puasy-hdvideo/kayla-paige-1.jpg</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://pornpics.blog/media/bigcockbully/kayla-paige-michael-stefano/pis-reality-pornxxx555/kayla-paige-michael-stefano-6.jpg</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://jjgirls.pics/gifs/28563834_p.gif</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/spizoo/jessica-jaymes-kayla-paige/girlpop-clothed-doctorsexs/hd-jessica-jaymes-kayla-paige-8.jpg</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/naughtyamerica/donny-sins-kayla-paige/wwwsharimara-blonde-kingdom/donny-sins-kayla-paige-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Anissa Kate</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/5/126/38188508/38188508_014_d007.jpg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/anissa-kate-darrell-deeps-jesus-reyes/goddes-brunette-gostosas-xxx/anissa-kate-darrell-deeps-jesus-reyes-3.jpg</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://vip.xxxporn.pics/media/vixen/anissa-kate-christian-clay/capri-hardcore-sexmedia/anissa-kate-christian-clay-5.jpg</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/432/40945465/40945465_237_0881.jpg</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/onlyteenblowjobs/ruby-williams/sin-teen-info/hd-ruby-williams-5.jpg</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/naughtyamerica/anissa-kate/it-big-tits-sexka-mobi/anissa-kate-3.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Ashley Fires</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/636/67997194/67997194_180_079e.jpg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/ashley-fires/interactive-nice-ass-media/ashley-fires-7.jpg</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/whippedass/ashley-fires-dana-vixen-felony/nuts-bondage-galleryfoto-ngentot/ashley-fires-dana-vixen-felony-4.jpg</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.babesandstars.com/galleries/75000/75728/01.jpg</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/dailysexdose/mandi-dee/babephoto-blonde-blair/hd-mandi-dee-18.jpg</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/naughtyamerica/ashley-fires/babesmovie-milf-land-moma/ashley-fires-3.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Laura Bentley</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://cdn.pics-x.com/pornstars/l/laura-bentley-13613.jpg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/laura-bentley/terrific-cum-shots-porn-vod/laura-bentley-4.jpg</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/nubilesporn/anya-olsen-laura-bentley/fishnets-cumshot-slitpussy/anya-olsen-laura-bentley-4.jpg</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/naughtyamerica/laura-bentley-tyler-cruise/competitive-mom-she/hd-laura-bentley-tyler-cruise-3.jpg</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://vip.yespornpics.com/media/myfirstsexteacher/bill-bailey-laura-bentley/babeshow-petite-xxx-search/hd-bill-bailey-laura-bentley-11.jpg</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/naughtyamerica/sydney-paige-jimmy-michaels/inigin-lingerie-marisxxx/hd-sydney-paige-jimmy-michaels-18.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Tiffany Watson</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.thumbnailseries.com/tgpx/thumbs/170218.jpg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blackedraw/tiffany-watson-sly-diggler/genesis-blonde-0day-porn/hd-tiffany-watson-sly-diggler-2.jpg</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://content.vrbangers.com/uploads/2022/10/633e043c6750e208339141.jpg</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/teamskeet/tiffany-watson-sean-michaels/bity-teen-dengan-murid/hd-tiffany-watson-sean-michaels-18.jpg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/18eighteen/tiffany-watson/sex-ball-licking-town/hd-tiffany-watson-6.jpg</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/pornbabes/tiffany-watson/parker-riding-yumvideo-com/tiffany-watson-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>AJ Fresh</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/newsensations/aj-fresh-jack-black-maya-farrell-scotty-p/international-pornstar-yespornplease/hd-aj-fresh-jack-black-maya-farrell-scotty-p-21.jpg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://babes.plus/sexpics/blackthickgirls/blackthickgirls-model/mofous-chubby-hotties-xxx/blackthickgirls-model-1.jpg</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/EetKgzOUcAAKa5I.jpg:large</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/newsensations/aj-fresh-jack-black-maya-farrell-scotty-p/sicflics-brunette-courtney/hd-aj-fresh-jack-black-maya-farrell-scotty-p-8.jpg</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/newsensations/aj-fresh-jack-black-maya-farrell-scotty-p/international-pornstar-yespornplease/hd-aj-fresh-jack-black-maya-farrell-scotty-p-21.jpg</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/mj-fresh-steve-holmes/pornoindir-pornstar-dress/mj-fresh-steve-holmes-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Josephine Jackson</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/562/46866713/46866713_178_868a.jpg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/clubseventeen/josephine-jackson/hidden-nude-model-18ivy/josephine-jackson-1.jpg</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://5kporn.pornstar-scenes.com/Josephine_Jackson-Juicy_Ms_Jackson/Josephine-Jackson-5K-Porn-Juicy-Ms.-Jackson-2021-02-17-119.jpg</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://5kporn.pornstar-scenes.com/Josephine_Jackson-Juicy_Ms_Jackson/Josephine-Jackson-5K-Porn-Juicy-Ms.-Jackson-2021-02-17-119.jpg</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/puffynetwork/josephine-jackson/magcom-high-heels-slim/hd-josephine-jackson-1.jpg</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://5kporn.pornstar-scenes.com/Josephine_Jackson-Juicy_Ms_Jackson/Josephine-Jackson-5K-Porn-Juicy-Ms.-Jackson-2021-02-17-119.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Holly Day</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.porn-star.com/tgpx/thumbs/114101.jpg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/mattsmodels/holly-day/four-close-up-lingerie/holly-day-2.jpg</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://content.newbrazz.com/3746_-_I_love_Holly_Days!/Holly-Halston-Brazzers-I-love-Holly-Days!-2009-04-07-09.jpg</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://content.newbrazz.com/3746_-_I_love_Holly_Days!/Holly-Halston-Brazzers-I-love-Holly-Days!-2009-04-07-09.jpg</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/adulttime/holly-day-emma-magnolia/cutegirls-lesbian-zz/hd-holly-day-emma-magnolia-19.jpg</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://pornpics.blog/media/naughtyamerica/holly-day-sam-shock/randi-curvy-xhonay-xxx/holly-day-sam-shock-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Brandi Love</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/mylf/brandi-love/heel-milf-mature-trainer/hd-brandi-love-2.jpg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blackmeatwhitefeet/brandi-love/housewife-fake-tits-boundgangbang/brandi-love-11.jpg</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/5/89/13287222/13287222_003_dbe6.jpg</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/bangbrosnetwork/brandi-love/pinporn-reality-sugar-xxx/hd-brandi-love-2.jpg</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/oldje/oldje-model/tranny-spreading-spankingthem/hd-oldje-model-2.jpg</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/naughtyamerica/brandi-love/sluting-blowjob-sister/brandi-love-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Anya Olsen</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/5/221/79154252/79154252_016_8e2e.jpg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/anya-olsen-sydney-cole-isiah-maxwell/fisher-petite-bonbon/anya-olsen-sydney-cole-isiah-maxwell-5.jpg</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/jB/NW/WRXogmpNWjB/12013578-vixen-lilly-bell-amp-anya-olsen-lawyer-vs-pro-35_880x660.jpg</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/167/92656203/92656203_010_d16b.jpg</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/innocenthigh/anya-olsen-eric-john/sex1x-teen-butyfulsexomobi/anya-olsen-eric-john-5.jpg</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/167/92656203/92656203_010_d16b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Samantha Hayes</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/524/81993669/81993669_067_a617.jpg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/samantha-hayes/gorgeous-blowjob-hd-edition/samantha-hayes-1.jpg</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/newsensations/samantha-hayes/bait-ffm-threesome-rain/samantha-hayes-1.jpg</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://pornpics.beauty/media/newsensations/samantha-hayes/mcnude-hotwife-mobipornsex/samantha-hayes-1.jpg</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/ihaveawife/bruce-venture-samantha-hayes/flix-redhead-fat/hd-bruce-venture-samantha-hayes-1.jpg</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://vip.xxxporn.pics/media/ihaveawife/samantha-hayes/edge-clothed-premium-edition/samantha-hayes-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Emily Addison</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.babesandstars.com/galleries/75000/75971/01.jpg</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/whengirlsplay/taylor-vixen-emily-addison/instance-access-hd-video-porngram/taylor-vixen-emily-addison-7.jpg</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.babesandstars.com/galleries/75000/75971/01.jpg</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/baberotica/emily-addison/mpl-curvy-der/hd-emily-addison-3.jpg</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/500/60215785/60215785_123_0ca4.jpg</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>https://www.babesandstars.com/galleries/75000/75971/01.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Jennifer White</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/368/30862310/30862310_006_f31b.jpg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/brattymilf/jennifer-white/mashiro-missionary-karmalita/jennifer-white-1.jpg</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/vixen/angela-white-chris-diamond/great-hardcore-romance/hd-angela-white-chris-diamond-3.jpg</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/368/30862310/30862310_006_f31b.jpg</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/chickpass/lina-logan-drake/ballhaus-amateur-creampies-cock/hd-lina-logan-drake-12.jpg</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/1/368/30862310/30862310_006_f31b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Gia Paige</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/7/533/86160578/86160578_141_72ce.jpg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/gia-paige/nisha-monstercock-versions/gia-paige-8.jpg</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/ON/Bq/P0zvo8OBqON/16379562-teencurves-gia-paige-224_880x660.jpg</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.discountedporn.com/blogimg/giapaige-main-172.jpg</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://vip.yespornpics.com/media/throated/logan-pierce-gia-paige/dares-brunette-tubepleasure/hd-logan-pierce-gia-paige-13.jpg</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://www.discountedporn.com/blogimg/giapaige-main-172.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>AJ Applegate</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/5/237/63164222/63164222_016_2bea.jpg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/aj-applegate/holiday-blonde-vrporn/aj-applegate-1.jpg</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://us.smutr.com/contents/albums/main/690x690/12000/12979/96830.jpg</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://xxx.hair/media/monstersofcock/aj-applegate/exxxtra-nice-ass-fuckxxx/hd-aj-applegate-1.jpg</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/pubanetwork/britney-amber/galleries-redhead-moreym-sexxx/hd-britney-amber-6.jpg</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/aj-applegate/see-hardcore-sexo-pictures/aj-applegate-6.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Adriana Chechik</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/7/67/90989526/90989526_064_e83b.jpg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/adriana-chechik/ura-anal-planet/adriana-chechik-1.jpg</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/543/32927389/32927389_033_1f94.jpg</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://ei.phncdn.com/videos/201606/21/80177521/original/(m=q2462ZXbeaSaaTbaAaaaa)(mh=Pr4GL-0g5VcsZo23)0.jpg</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/teamskeet/daisy-stone-penny-pax-adriana-chechik-kayla-paris/videk-cute-blck-fuk/hd-daisy-stone-penny-pax-adriana-chechik-kayla-paris-2.jpg</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://s.definebabe.com/p/1/47/102881/04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Allison Moore</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/5/212/60159482/60159482_014_c42c.jpg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/spizoo/allison-moore/pichunter-milf-gand/allison-moore-11.jpg</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/5/178/45734502/45734502_016_f33f.jpg</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/bangbrosnetwork/allison-moore/tug-milf-anal-son/allison-moore-1.jpg</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/spizoo/allison-moore/bankoktits-blowjob-sexyandfunny/hd-allison-moore-8.jpg</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://img.barelist.com/images/hosted/tgp/allison-moore-091715/pics/allison-moore-gets-her-ass-drilled-in-black-stockings-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Alex Chance</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/FMnk_r9XoAEiMTX.jpg:small</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/housewife1on1/alex-chance/navaporn-brunette-pornbomby-desnuda/alex-chance-3.jpg</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.pandesiaworld.com/wp-content/uploads/2020/10/AlexChanceBigTitsSexyCloseUpMrLuckyPOV2-560x841.jpg</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/bangbrosnetwork/alex-chance/xxxstar-reality-hd-vids/hd-alex-chance-4.jpg</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/hustler/alex-chance/enhanced-nipples-premium-sex/hd-alex-chance-7.jpg</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://vip.xxxporn.pics/media/naughtyamerica/alex-chance/high-end-tits-sugar-sex/alex-chance-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Elektra Rose</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://cdn-pornstars.porntube.com/0/0/0/0/0/7/5/1/6/1529315303_275x375.jpg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/teensloveblackcocks/elektra-rose/fullhd-blowjob-free-photos/elektra-rose-11.jpg</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://cdn-pornstars.porntube.com/0/0/0/0/0/7/5/1/6/1529315303_275x375.jpg</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://cdn-pornstars.porntube.com/0/0/0/0/0/7/5/1/6/1529315303_275x375.jpg</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/7/527/74792375/74792375_103_555f.jpg</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://cdn-pornstars.porntube.com/0/0/0/0/0/7/5/1/6/1529315303_275x375.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Jayden James</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/81/91783103/91783103_003_ca03.jpg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/mommygotboobs/jayden-jaymes/assfixation-pussy-playmate/jayden-jaymes-1.jpg</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/5/94/29384797/29384797_010_02a8.jpg</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://www.babesandstars.com/galleries/69000/69714/01.jpg</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/elegantangel/alexis-fawx-dana-dearmond-london-river-nina-elle/sexicture-doggy-style-xoldboobs/hd-alexis-fawx-dana-dearmond-london-river-nina-elle-18.jpg</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://babes.plus/sexpics/naughtyamerica/jayden-james/toples-busty-ma-xossip/jayden-james-3.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Sinderella</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/7/543/91146031/91146031_029_021b.jpg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/sinderella/thailen-bedroom-tlanjang/sinderella-1.jpg</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://pornpics.blog/media/vixen/sinderella-mick-blue/picturehunter-pornstar-pentypussy/hd-sinderella-mick-blue-1.jpg</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/blacked/jason-luv-sinderella/hottest-handjob-securehiddencam/hd-jason-luv-sinderella-6.jpg</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/maturenl/cinderella-pimpal-bill/sexgirlada-amateur-legjob/hd-cinderella-pimpal-bill-8.jpg</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/blacked/kira-noir-mandingo-sinderella/valentinecomfreepass-teen-movie/kira-noir-mandingo-sinderella-2.jpg</t>
         </is>
       </c>
     </row>

--- a/links-new.xlsx
+++ b/links-new.xlsx
@@ -429,13 +429,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="21.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="70.26953125" customWidth="1" min="2" max="2"/>
@@ -456,6 +456,7 @@
           <t>https://img.pvvstream.pro/preview/07zPxuNDnLK1JtDT-JWY4g/-97129549_456241199/sun9-59.userapi.com/d7ppTfBjEJWjogEKuXBsc00GV_7_VSj3BimljQ/-iQppzy1-TM.jpg</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
           <t>[comp] holy sh*t! bbc blacked pmv porn compilation (kenzie anne, interracial, gabbie carter, emily willis, elsa jean) - ExPornToons</t>
@@ -476,6 +477,7 @@
           <t>https://img.pvvstream.pro/preview/mlAUz2NU8GO_tm9QDYNN_g/-165127459_456240133/sun9-66.userapi.com/fwStbO57fhGJtOhNfggZMB9S-dfPwozsqrwi8g/MepqQ-H7OXA.jpg</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Deeper blake blossom - ExPornToons</t>
@@ -496,6 +498,7 @@
           <t>https://img.pvvstream.pro/preview/t4DtabtGRj_o4brBkgU3GA/-167219025_456239938/i.mycdn.me/getVideoPreview?id=1450683795975&amp;idx=7&amp;type=39&amp;tkn=OkrmsHIEAn70qdxa80YTc_yLJNI&amp;fn=vid_l&amp;c_uniq_tag=sokeabaenMgU9mOsomlONRxy3ppxBT3bE9BHFnHp3qY</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Linzee ryder [squirt,rimjob,deep throat, big tits,blonde,blowjob,facial,hardcore, fucking,facials big tits секс брюнетка большие - ExPornToons</t>
@@ -513,6 +516,8 @@
           <t>https://www.pornomovies.com/videos/3063635/tushy-i-tried-anal-with-my-roommate-karla-kush/?utm_source=PBWeb&amp;utm_medium=PBWeb&amp;sub=100001</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -523,6 +528,8 @@
           <t>https://mat6tube.com/watch/-201266903_456244518</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,6 +540,8 @@
           <t>https://mat6tube.com/watch/-110216470_456239462</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -543,6 +552,8 @@
           <t>https://mat6tube.com/watch/-132555026_456239242</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -553,6 +564,8 @@
           <t>https://mat6tube.com/watch/-161003282_456239052</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -563,6 +576,8 @@
           <t>https://mat6tube.com/watch/-115615196_456265517</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -573,6 +588,8 @@
           <t>https://mat6tube.com/watch/-207824109_456239170</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -583,6 +600,8 @@
           <t>https://bestpornstars.tv/mov/j7FFS7xolRx/empress-jade-bbc-bj/</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Empress Jade Bbc Bj - Free Sex Movies - BestPornStars.Tv</t>
@@ -1918,6 +1937,316 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Attention Required! | Cloudflare</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://fr.pornhd.sex/video/lucky-anne-slap-me-with-a-cash-arrangement-49083.html</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[Lucky Anne] Slap Me With A Cash Arrangement - Vidéos - PornHD.Sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://veporn.com/not-here-for-gentle-treatment/</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>not here for gentle treatment - Veporn</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://bingato.com/item/blackedraw-kenzie-anne-looking-for-trouble-iwc1-109716</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Attention Required! | Cloudflare</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://veporn.com/being-a-slut-is-not-a-chore-young-lady/</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>being a slut is not a chore, young lady - Veporn</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://veporn.com/just-some-pointers-daddy-right/</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>just some pointers daddy, right? - Veporn</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://veporn.com/try-and-break-me-boys/</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>try and break me, boys - Veporn</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://veporn.com/feed-my-holes-with-your-thick-meat/</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>feed my holes with your thick meat - Veporn</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://taboosex.club/watch/penny-barber-sera-ryder-valentine-swapping</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Penny Barber, Sera Ryder - Valentine Swapping - FamilySwap / Nubiles Porn - TABOOSEX.CLUB (IncestFlix)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://veporn.com/some-girls-need-a-serious-dose-of-adrenaline/</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>some girls need a serious dose of adrenaline - Veporn</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://4kporn.xxx/videos/1000514/ryan-mclane-is-married-which-makes-him-open-to-helping-his-wifey-s-best/?utm_source=videolist&amp;utm_medium=videolist&amp;utm_campaign=list_videos_related_videos&amp;utm_content=7</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Attention Required! | Cloudflare</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://4kporn.xxx/videos/967875/watches-my-employees-fucks-my-hot-my-wifes-tight-pussy/?utm_source=videolist&amp;utm_medium=videolist&amp;utm_campaign=list_videos_related_videos&amp;utm_content=18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Attention Required! | Cloudflare</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://love4porn.com/videos/488150/show-and-tease-s13-e6/?utm_source=pbw&amp;utm_campaign=plugs</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Love4Porn.com Presents Show And Tease - S13:E6</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://crazyporn.xxx/videos/498168/a-new-super-ass4/?utm_source=pbw&amp;utm_campaign=plugs</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://xhamster42.desi/videos/blackedraw-office-hotties-vanessa-christy-devour-new-guy-xh5ixiw?pw=</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Blackedraw Office Hotties Vanessa &amp; Christy Devour New Guy feat. Vanessa Alessia by Blacked Raw | xHamster</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://w4nkr.com/video/32777/angie-faith-big-tits-cute-girl/?utm_campaign=tf</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Video : Angie Faith - Big Tits Cute Girl Porn Video</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.xtits.xxx/videos/26401/dylann-vox-hardcore/?asgtbndr=1</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Dylann vox - hardcore</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.xtits.xxx/videos/152281/dasha-connie-garcia-hot-mother-in-law-reality-threesome-hardcore-with-brunette-and-blonde/</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Dasha &amp; Connie Garcia - Hot mother in law - reality threesome hardcore with brunette and blonde</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.eporner.com/video-lcTGxsXfV9q/angie-faith-cc/?trx=1227735290aee694b81473a256bea12420712</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.rexporn.sex/watch/9941</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>It's just a Holiday! Horny Blonde Savannah Takes Huge Cock In Her Ass</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.porn00.org/video/katie-kush-sera-ryder-stepsis-and-friend-crave-valentines-day-dick/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://pornhd.sex/video/molly-little-smitten-from-the-start-48370.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://ww4.pornhoarder.tv/video/blacked-violet-myer-the-power-of-luv/bWlFWHZ2TmVLSFB0ZjlZRTl2Q3dIbTlFOE80ZDQ2MmtEdXpNNThrbTFTUT0=</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Blacked Violet Myer The Power Of Luv | PornHoarder.tv</t>
         </is>
       </c>
     </row>
@@ -1993,13 +2322,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="39.453125" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -2022,6 +2351,13 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>sislovesme start-up capital</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://veporn.com/pornstar/hazel-moore/</t>
         </is>
       </c>
     </row>
@@ -2036,13 +2372,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="25.90625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -5533,12 +5869,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://vip.pornstar.gallery/pornpics/oldje/baby-kxtten/painslut-jeans-cockmobi/baby-kxtten-2.jpg</t>
+          <t>https://vip.pornstar.gallery/pornpics/oldje/baby-kxtten/xxxpervsonpatrolmobi-old-young-sextory/hd-baby-kxtten-3.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://pics.jjgirls.com/pictures/nubiles/baby-kxtten/18x-babe-east/baby-kxtten-13.jpg</t>
+          <t>https://pics.jjgirls.com/pictures/evilangel/david-perry-lorenzo-viota-vince-karter-baby-kxtten/fb-asshole-di-jepang/david-perry-lorenzo-viota-vince-karter-baby-kxtten-6.jpg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5548,7 +5884,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vip.xxxporn.pics/media/bangbrosnetwork/baby-kxtten/www1x-doubledicked-pornstar-wish/baby-kxtten-2.jpg</t>
+          <t>https://static-ca-cdn.eporner.com/gallery/zo/iu/oCsecKsiuzo/16909985-baby-kxtten-eden-ivy-freddy-gong-13.jpg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6337,7 +6673,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Natalie Starr</t>
+          <t>Natalia Starr</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9513,6 +9849,191 @@
       <c r="G202" t="inlineStr">
         <is>
           <t>https://pics.jjgirls.com/pictures/blacked/kira-noir-mandingo-sinderella/valentinecomfreepass-teen-movie/kira-noir-mandingo-sinderella-2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Dylann Vox</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://cdn.cherrynudes.com/updatethumbs/dylann2.jpg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/18eighteen/dylann-vox/sexpasscomnurse-babe-xbunker/dylann-vox-11.jpg</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://cdn.bunnylust.com/updatethumbs/dylan23.jpg</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/scoreland/dylann-vox/deep-legs-bigblondpornpics/hd-dylann-vox-9.jpg</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://vip.yespornpics.com/media/teenfidelity/dylann-vox/birthday-69-position-cummings/hd-dylann-vox-2.jpg</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://content-nubiles.pornstar-scenes.com/Skylar_Vox-Cum_Harder/Skylar-Vox-Nubiles-Cum-Harder-2020-03-27-014.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Amiee Cambridge</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.com/460/1/370/73038081/73038081_003_2efc.jpg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/tabooheat/cory-chase-amiee-cambridge/butts-spreading-xxv/hd-cory-chase-amiee-cambridge-1.jpg</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://vip.sexhd.pics/media/adulttime/amiee-cambridge-cory-chase/xxxmodels-threesome-sex-suster/hd-amiee-cambridge-cory-chase-9.jpg</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://pornpics.beauty/media/tabooheat/cory-chase-amiee-cambridge-kira-fox-luke-longly/balzazar-european-luvv-massage/hd-cory-chase-amiee-cambridge-kira-fox-luke-longly-1.jpg</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/naughtyamerica/amiee-cambridge-gi-joey/bro-reality-package/hd-amiee-cambridge-gi-joey-3.jpg</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>https://pornpics.blog/media/tabooheat/cory-chase-amiee-cambridge/unlimited-european-1xxxxphoto-porn/hd-cory-chase-amiee-cambridge-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Angie Faith</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/tV/lL/VA8Dp9QlLtV/8092074-angie-faith-nude.jpg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/nubilefilms/angie-faith-ryan-mclane/ticket-pornstar-pornsnap/angie-faith-ryan-mclane-1.jpg</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/blacked/angie-faith-isiah-maxwell-jay-hefner/posexxx-blonde-vid/hd-angie-faith-isiah-maxwell-jay-hefner-1.jpg</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/blacked/angie-faith-isiah-maxwell-jay-hefner/posexxx-blonde-vid/hd-angie-faith-isiah-maxwell-jay-hefner-1.jpg</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://vip.pornstar.gallery/pornpics/spizoo/angie-faith/neked-titjob-wifi-tube/hd-angie-faith-5.jpg</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/nubilefilms/angie-faith-ryan-mclane/fantasies-petite-horny-guy/angie-faith-ryan-mclane-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Jessie Rogers</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/7/689/52665214/52665214_041_f865.jpg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/watchingmymomgoblack/janet-mason-jessie-rogers/charming-first-interracial-albums/janet-mason-jessie-rogers-6.jpg</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://m.pornpics.vip/xxx/evilangel/mira-holly-michaels-jessie-rogers/super-hero-face-social-network/mira-holly-michaels-jessie-rogers-2.jpg</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://static-ca-cdn.eporner.com/gallery/Qt/hO/GDdzw91hOQt/242896-jessie-rogers-nude.jpg</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://cdni.pornpics.de/460/7/689/52665214/52665214_041_f865.jpg</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>https://zoompussy.com/wp-content/uploads/20170331/Pussy-Naked-Girl-Jessie-Rogers-Naughty-Bookworms.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Brook Page</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/pervmom/brook-page/showing-standing-doggystyle-sex-parties/brook-page-6.jpg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://babes.plus/sexpics/anilos/elle-brook/vixenx-toys-masturbation-highsex-videos/elle-brook-1.jpg</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://pics.jjgirls.com/pictures/julesjordan/manuel-ferrara-mischa-brooks/plase-facial-puasy-play/hd-manuel-ferrara-mischa-brooks-7.jpg</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://cdn.pics-x.com/pornstars/b/brook-page-59758.jpg</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://www.shegg.com/images//bailey-brooke-returns-to-lubed-in-2022/lubed-bailey-brooke-2022-768x576.jpg</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>https://milf.vip/pics/brazzersnetwork/brook-page-keiran-lee/pool-milf-program/brook-page-keiran-lee-1.jpg</t>
         </is>
       </c>
     </row>

--- a/links-new.xlsx
+++ b/links-new.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaRaj\OneDrive - GANIT BUSINESS SOLUTIONS PRIVATE LIMITED1\Desktop\projects\prev-links\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D08A7-7A32-49D2-BBAA-FA91DF947B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0EFC6C-15F7-47CF-AA5C-3537C8417E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="profiles" sheetId="3" r:id="rId3"/>
+    <sheet name="indian" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="profiles" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1687">
   <si>
     <t>https://exporntoons.net/watch/-172454327_456286219</t>
   </si>
@@ -186,21 +187,12 @@
     <t>Полнометражный фильм про шлюх ( dorcel big tits в чулках solo мастурбирует трахают в два ствола мжм) - BEST XXX TUBE</t>
   </si>
   <si>
-    <t>https://mat6tube.com/watch/471478089_456239170</t>
-  </si>
-  <si>
     <t>https://mat6tube.com/watch/471478089_456239160</t>
   </si>
   <si>
     <t>Alyx star (porn, anal, порно, porno, creampie, big tits, blowjob, all sex, teens) mp4 hq xxx video - BEST XXX TUBE</t>
   </si>
   <si>
-    <t>https://mat6tube.com/watch/471478089_456239149</t>
-  </si>
-  <si>
-    <t>Alyx star examine my perfect natural boobs - BEST XXX TUBE</t>
-  </si>
-  <si>
     <t>https://mat6tube.com/watch/-219602921_456242626</t>
   </si>
   <si>
@@ -234,19 +226,10 @@
     <t>[naughtyamerica] linzee ryder sexy boss wants you to take a break and fuck - BEST XXX TUBE</t>
   </si>
   <si>
-    <t>https://mat6tube.com/watch/-149052135_456242342</t>
-  </si>
-  <si>
-    <t>https://mat6tube.com/watch/-221679740_456239416</t>
-  </si>
-  <si>
     <t>Ariana Marie threesome</t>
   </si>
   <si>
     <t>https://hqporn.xxx/blacked-ariana-marie-threesome-xxx-video_20446650.html</t>
-  </si>
-  <si>
-    <t>https://mc.yandex.ru/watch/79059544</t>
   </si>
   <si>
     <t>https://icdn05.hqporn.xxx/40222/2011068_1_2x.webp</t>
@@ -296,9 +279,6 @@
     <t>https://www.fapnado.xxx/videos/199677/lonely-trophy-wife-hooks-up-in-an-interracial-manner/?utm_source=awm&amp;utm_medium=awmtraffic&amp;utm_campaign=fapnado&amp;subid1=100001&amp;asgtbndr=1&amp;cid=1571446</t>
   </si>
   <si>
-    <t>https://www.fapnado.xxx/contents/models/688/s1_688.jpg</t>
-  </si>
-  <si>
     <t>Lonely Trophy Wife Hooks up in an Interracial Manner at Fapnado</t>
   </si>
   <si>
@@ -317,18 +297,12 @@
     <t>Evelun Claire</t>
   </si>
   <si>
-    <t>https://www.eporner.com/video-hZyIobPp3XP/evelyn-claire-room-for-one-more/?trx=1227735290aee694b81473a256bea12420712</t>
-  </si>
-  <si>
     <t>Aiden Ashley</t>
   </si>
   <si>
     <t>https://www.freeporn8.com/videos/468092/aiden-ashley-the-ally-with-benefits-720p-2021-vhq/?utm_source=donnie</t>
   </si>
   <si>
-    <t>https://www.freeporn8.com/contents/videos_screenshots/651000/651874/320x180/2.jpg</t>
-  </si>
-  <si>
     <t>Free Aiden Ashley - The Ally With Benefits 720p 2021 VHQ Porn Video HD</t>
   </si>
   <si>
@@ -341,18 +315,12 @@
     <t>https://faptor.com/videos/118175/deeper-evelin-stone-s-date-surprise/?utm_source=awm&amp;utm_medium=awmtraffic&amp;utm_campaign=faptor&amp;subid1=800001&amp;asgtbndr=1&amp;cid=2016804</t>
   </si>
   <si>
-    <t>https://faptor.com/contents/videos_screenshots/184000/184968/320x180/1.jpg</t>
-  </si>
-  <si>
     <t>Deeper - Evelin Stone's Date Surprise</t>
   </si>
   <si>
     <t>https://www.4wank.com/videos/253459/prof-wiener-manhandles-college-girl/?utm_source=fakereferrer&amp;utm_campaign=invalidref&amp;asgtbndr=1&amp;cid=1951070</t>
   </si>
   <si>
-    <t>https://www.4wank.com/contents/videos_screenshots/257000/257507/320x180/1.jpg</t>
-  </si>
-  <si>
     <t>Prof Wiener Manhandles College Girl!</t>
   </si>
   <si>
@@ -362,9 +330,6 @@
     <t>https://cdn.rexporn.sex/contents/videos_screenshots/19000/19054/reximg/preview/2/1.jpg</t>
   </si>
   <si>
-    <t>Timid Chubby Teen Loves When Dominant Men Dominate Her</t>
-  </si>
-  <si>
     <t>https://mat6tube.com/watch/-196485682_456239084</t>
   </si>
   <si>
@@ -389,18 +354,12 @@
     <t>https://faptor.com/videos/126035/lovely-babe-samantha-hayes-is-screwed-by-a-ebony-stud/?utm_source=awm&amp;utm_medium=awmtraffic&amp;utm_campaign=faptor&amp;subid1=800001</t>
   </si>
   <si>
-    <t>https://faptor.com/contents/videos_screenshots/180000/180271/320x180/1.jpg</t>
-  </si>
-  <si>
     <t>Lovely babe Samantha Hayes is screwed by a ebony stud</t>
   </si>
   <si>
     <t>Gizelle Blanco</t>
   </si>
   <si>
-    <t>https://www.eporner.com/video-1ZDWVYPVPIW/gizelle-blanco-it-s-yours/?trx=1227735290aee694b81473a256bea12420712</t>
-  </si>
-  <si>
     <t>Gizelle Blanco - It's Yours! - EPORNER</t>
   </si>
   <si>
@@ -410,18 +369,12 @@
     <t>https://starwank.com/videos/76323/sodomized-in-picturesque-paris-tori-black-anal/?utm_source=awm&amp;utm_medium=awmtraffic&amp;utm_campaign=starwank&amp;subid1=900001</t>
   </si>
   <si>
-    <t>https://starwank.com/contents/videos_screenshots/3000/3563/320x180/1.jpg</t>
-  </si>
-  <si>
     <t>Sodomized in Picturesque Paris - Tori Black Ass Pumping</t>
   </si>
   <si>
     <t>https://www.inxxx.com/v/hot-whore-banged-in-hotel-room-elena-koshka.xxx-video?utm_source=ee4bbs</t>
   </si>
   <si>
-    <t>https://www.inxxx.com/contents/videos_screenshots/31000/31043/320x180/1.jpg</t>
-  </si>
-  <si>
     <t>Hot Whore Banged In Hotel Room - Elena Koshka - XXX Video - inXXX.com</t>
   </si>
   <si>
@@ -431,9 +384,6 @@
     <t>https://www.tubeon.net/video/1308503/lucky-for-you-i-love-perverts</t>
   </si>
   <si>
-    <t>https://e1.tbnpsn.com/media/videos/tmb/1370318/235_132/2.jpg?1</t>
-  </si>
-  <si>
     <t>https://e8.tbnpsn.com/media/videos/tmb/1308503/player/16.jpg</t>
   </si>
   <si>
@@ -441,9 +391,6 @@
   </si>
   <si>
     <t>https://xhamster42.desi/videos/cum-inside-a-spanish-slut-pussy-xhuAQv2?pw=</t>
-  </si>
-  <si>
-    <t>https://ic-tt-nss.xhcdn.com/a/ODk1MDcyMjhkOTY1OTQ2MGUxYWFjMzVlNDEzNDFiNmE/jpeg/000/092/182/avatar1.jpg.v1645607765</t>
   </si>
   <si>
     <t>https://thumb-nss.xhcdn.com/a/HFlOkQXxXdyPxbr2imTCVw/022/635/726/v2/1280x720.214.jpg</t>
@@ -466,15 +413,6 @@
     </t>
   </si>
   <si>
-    <t>https://zbporn.tv/videos/604239/fragile-teeny-gets-anus-stretched-with-gigantic-dong/?promo=1076</t>
-  </si>
-  <si>
-    <t>https://cdnth.zbporn.tv/contents/categories/33/c1_blowjobs.jpg</t>
-  </si>
-  <si>
-    <t>Fragile teeny gets anus stretched with gigantic dong - ZB Porn</t>
-  </si>
-  <si>
     <t>https://www.wankoz.com/videos/410693/broke-bigtit-fucks-two-at-alley/?utm_source=pbwmed&amp;utm_medium=cpc&amp;utm_campaign=wank</t>
   </si>
   <si>
@@ -484,9 +422,6 @@
     <t>https://www.bigtitslust.com/videos/246931/twenty-one-sextury-double-penetration-compilation-the-hottest-european-pornstar-women-get-double-permeated-hard/?utm_source=donnie</t>
   </si>
   <si>
-    <t>https://www.bigtitslust.com/contents/videos_screenshots/270000/270729/320x180/9.jpg</t>
-  </si>
-  <si>
     <t>Porn twenty one SEXTURY - double penetration COMPILATION! The Hottest European Pornstar Women Get Double Permeated HARD! Video</t>
   </si>
   <si>
@@ -496,9 +431,6 @@
     <t>https://xhamster42.desi/videos/stayhomemilf-tattooed-milf-with-huge-jugs-in-crop-top-xhCYkGt?pw=</t>
   </si>
   <si>
-    <t>https://thumb-v-nss.xhcdn.com/site/000/018/296/desktop.jpg.v1715129488</t>
-  </si>
-  <si>
     <t>https://thumb-nss.xhcdn.com/a/Ss-R7d0BI6RP-HjbpzSawQ/021/745/471/v2/1280x720.209.jpg</t>
   </si>
   <si>
@@ -508,18 +440,12 @@
     <t>https://starwank.com/videos/28710/you-re-no-saint-either-tommy-pistol-lilly-bell/?utm_source=awm&amp;utm_medium=awmtraffic&amp;utm_campaign=starwank&amp;subid1=900001&amp;asgtbndr=1&amp;cid=2016803</t>
   </si>
   <si>
-    <t>https://starwank.com/contents/videos_screenshots/0/872/320x180/1.jpg</t>
-  </si>
-  <si>
     <t>You're No Saint Either - Tommy Pistol, Lilly Bell</t>
   </si>
   <si>
     <t>https://xxxshake.com/videos/189061/blonde-trades-pussy-for-a-salary-boost/?utm_source=pbw&amp;utm_medium=anw&amp;utm_campaign=pbw</t>
   </si>
   <si>
-    <t>https://i.xxxshake.com/contents/videos_screenshots/31000/31134/640x360/2.jpg</t>
-  </si>
-  <si>
     <t>Blonde trades pussy for a salary boost - XXXshake.com</t>
   </si>
   <si>
@@ -5030,6 +4956,138 @@
   </si>
   <si>
     <t>https://img.pvvstream.pro/preview/4Pyqpqlsju3_FhqtAQsYJA/-149052135_456241338/sun9-51.userapi.com/nySeUsnLo5u_LbrW3c1wa3ovG_CD4IPAcuQIFA/ScQs2P44WiM.jpg</t>
+  </si>
+  <si>
+    <t>https://desi-porn.tube/video/259023/desi-indian-newly-married-milf-wife-gangbang-with-her-husbands-friend-hindi-audio/?promo=23513</t>
+  </si>
+  <si>
+    <t>https://desi-porn.tube/video/261829/desi-indian-boyfriend-shares-his-huge-tits-girlfriend-to-his-friend-for-1st-time-threesome-hindi-audio2/?promo=23513</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/787g1AuI9r00qwz8WHINyw/-202311464_456239497/sun9-19.userapi.com/impf/o7aS6hTEN32u6DgjiuRngw9F5fCdz_ARu-Qq6A/E2Y9RYVmmqA.jpg?size=800x450&amp;quality=96&amp;keep_aspect_ratio=1&amp;background=000000&amp;sign=64c71954e8c8994527edaf5ee6ff0ffa&amp;c_uniq_tag=lmlc-ySjrVWyXDMp5G-DOzjikmLd7D283RW5KS6-4a0&amp;type=video_thumb</t>
+  </si>
+  <si>
+    <t>https://i.mycdn.me/getVideoPreview?id=2987367729914&amp;idx=7&amp;type=39&amp;tkn=LoY4pn85wfUoPl0z_yrA67wQEVQ&amp;fn=vid_x</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/_hdDGJxTzCGNlT5cmYecdw/-190055806_456239744/sun9-19.userapi.com/Lg_R99kKRUhnWGVTacK8OUX5IVI85t3Oxf2inw/PJ2-wNG-1to.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/BerJGzCFBMUhgAD7Tee_Og/-90647749_456252525/sun9-61.userapi.com/xToy7MSud7Ymbof835NFHL2bCoV4FNZSXtBQoQ/I-KIgek3oBw.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/HVlmP4D31mt8qXu9Smb88w/-219602921_456242626/i.mycdn.me/getVideoPreview?id=4947447581271&amp;idx=1&amp;type=39&amp;tkn=BbQuO-HtuLQp9YSp6WBWP-Uqbzc&amp;fn=vid_x&amp;c_uniq_tag=61EvdqX8PBRoKooU3mNpb_VBOdWaGa36W-6H_FAOZXE</t>
+  </si>
+  <si>
+    <t>https://i.mycdn.me/getVideoPreview?id=5106649336403&amp;idx=2&amp;type=39&amp;tkn=Jn4BGQDl_kTQCnlE3vyWW-RsD-c&amp;fn=vid_x</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/horxf3fSXKjaXLTnaqjAOg/-187217911_456246250/sun9-88.userapi.com/X5wXzgO9JnPQxtSLGT_qS6wZvR1JR3YbkwBhTA/0rTImyPtkYU.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/5gZ8NQ969p0ueAwZqrshjg/-187792045_456239406/sun9-34.userapi.com/c855736/v855736390/1f0d43/JKHg-638SyA.jpg</t>
+  </si>
+  <si>
+    <t>https://i.mycdn.me/getVideoPreview?id=6200749918857&amp;idx=7&amp;type=39&amp;tkn=BQYRAKPGiSI3ef0wxGIuUw_Ly1E&amp;fn=vid_x</t>
+  </si>
+  <si>
+    <t>https://icdn05.hqporn.xxx/40222/sprites/2011068_1.jpg</t>
+  </si>
+  <si>
+    <t>https://icdn05.hqporn.xxx/40051/sprites/2002503_1.jpg</t>
+  </si>
+  <si>
+    <t>https://tn.hdzog.com/contents/videos_screenshots/1994000/1994617/preview.jpg</t>
+  </si>
+  <si>
+    <t>Blacked - Alina Lopez I Do</t>
+  </si>
+  <si>
+    <t>https://tn.upornia.com/contents/videos_screenshots/3221000/3221785/preview.jpg</t>
+  </si>
+  <si>
+    <t>https://www.porndr.com/contents/videos_screenshots/143000/143146/preview_720p.mp4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.fapnado.xxx/contents/videos_screenshots/199000/199677/preview.mp4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.fpo.xxx/contents/videos_screenshots/311000/311007/preview_720p.mp4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.fpo.xxx/video/311007/5-room-for-one-more-evelyn-claire-1wrx/</t>
+  </si>
+  <si>
+    <t>https://www.freeporn8.com/contents/videos_screenshots/468000/468092/preview.mp4.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/Qgwl8rvwlQa2NZDUR_-TRg/-223988393_456239352/i.mycdn.me/getVideoPreview?id=5810106337829&amp;idx=3&amp;type=39&amp;tkn=as4-dq1WqytqbRm2SAZw-sW3nOY&amp;fn=vid_x&amp;c_uniq_tag=5NUC6pPemi0iTZ4U6A13PiVMC1vXPGaNJloCl1yFw2U</t>
+  </si>
+  <si>
+    <t>https://faptor.com/contents/videos_screenshots/118000/118175/preview.jpg</t>
+  </si>
+  <si>
+    <t>https://www.4wank.com/contents/videos_screenshots/253000/253459/preview.jpg</t>
+  </si>
+  <si>
+    <t>Leana Lovings Timid Chubby Teen Loves When Dominant Men Dominate Her</t>
+  </si>
+  <si>
+    <t>https://sun9-67.userapi.com/YlzFH18VQTPYp0NCa-RLrI4h9Hf6Bc4Cteyt8w/1rnZ1EKGmhw.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pvvstream.pro/preview/RO6rGMxMp3BRvVe5rbd6_Q/-222713642_456239492/i.mycdn.me/getVideoPreview?id=5655238478520&amp;idx=1&amp;type=39&amp;tkn=nkkdyJyx-D-VVVK3FktVPTIRUbY&amp;fn=vid_x&amp;c_uniq_tag=stDeYJpMPY0zjZtFGdxck7WlsEqb0rj93Z-ZNxinhZE</t>
+  </si>
+  <si>
+    <t>https://static-eu-cdn.eporner.com/thumbs/static4/7/79/791/7912169/12_360.jpg</t>
+  </si>
+  <si>
+    <t>https://faptor.com/contents/videos_screenshots/126000/126035/preview.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pornwex.tv/contents/videos_screenshots/120000/120458/preview.mp4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pornwex.tv/videos/120458/gizelle-blanco-it-s-yours/</t>
+  </si>
+  <si>
+    <t>https://starwank.com/contents/videos_screenshots/76000/76323/preview.jpg</t>
+  </si>
+  <si>
+    <t>https://www.inxxx.com/contents/videos_screenshots/125000/125000/preview.jpg</t>
+  </si>
+  <si>
+    <t>https://e2.tbnpsn.com/media/videos/tmb/1308503/player/16.jpg</t>
+  </si>
+  <si>
+    <t>https://thumb-nss.xhcdn.com/a/PzbM6zz6okczZihTDDyY4A/022/635/726/v2/2560x1440.214.webp</t>
+  </si>
+  <si>
+    <t>https://cdni.wankoz.com/contents/videos_screenshots/410000/410693/preview_s.mp4.jpg</t>
+  </si>
+  <si>
+    <t>Priya Price Broke bigtits fucks two at alley</t>
+  </si>
+  <si>
+    <t>https://c7739b5000.mjedge.net/contents/videos_screenshots/58000/58379/preview_720p.mp4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bigtitslust.com/contents/videos_screenshots/246000/246931/preview.mp4.jpg</t>
+  </si>
+  <si>
+    <t>Busty Realtor Fucks Her Clients To Sell A House - Lolly Hardcore</t>
+  </si>
+  <si>
+    <t>https://c759f6c07c.mjedge.net/contents/videos_screenshots/165000/165605/preview_720p.mp4.jpg</t>
+  </si>
+  <si>
+    <t>Slutty housewife Sophia Leone gets shagged by a fat BBC</t>
+  </si>
+  <si>
+    <t>https://thumb-nss.xhcdn.com/a/PAa--0-KiwQy3Ntp03Gh7Q/021/745/471/v2/2560x1440.209.webp</t>
+  </si>
+  <si>
+    <t>https://starwank.com/contents/videos_screenshots/28000/28710/preview.jpg</t>
   </si>
 </sst>
 </file>
@@ -5391,10 +5449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5412,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1647</v>
+        <v>1622</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -5426,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1646</v>
+        <v>1621</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -5440,7 +5498,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1640</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5451,10 +5509,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1641</v>
+        <v>1616</v>
       </c>
       <c r="E4" t="s">
-        <v>1642</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5476,7 +5534,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1645</v>
+        <v>1620</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -5490,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1643</v>
+        <v>1618</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -5504,7 +5562,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>1644</v>
+        <v>1619</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -5518,7 +5576,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>1648</v>
+        <v>1623</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -5543,10 +5601,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>1650</v>
+        <v>1625</v>
       </c>
       <c r="E11" t="s">
-        <v>1649</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -5557,10 +5615,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>1652</v>
+        <v>1627</v>
       </c>
       <c r="E12" t="s">
-        <v>1651</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -5582,7 +5640,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>1653</v>
+        <v>1628</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -5596,10 +5654,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>1654</v>
+        <v>1629</v>
       </c>
       <c r="E15" t="s">
-        <v>1655</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -5610,7 +5668,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>1656</v>
+        <v>1631</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -5624,7 +5682,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>1657</v>
+        <v>1632</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -5649,7 +5707,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>1658</v>
+        <v>1633</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -5663,7 +5721,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>1659</v>
+        <v>1634</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
@@ -5685,10 +5743,10 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>1661</v>
+        <v>1636</v>
       </c>
       <c r="E22" t="s">
-        <v>1660</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -5699,7 +5757,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>1662</v>
+        <v>1637</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -5713,13 +5771,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1663</v>
+        <v>1638</v>
       </c>
       <c r="C24" t="s">
-        <v>1664</v>
+        <v>1639</v>
       </c>
       <c r="E24" t="s">
-        <v>1665</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -5730,7 +5788,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>1666</v>
+        <v>1641</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -5744,7 +5802,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>1667</v>
+        <v>1642</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -5757,6 +5815,9 @@
       <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="C27" t="s">
+        <v>1645</v>
+      </c>
       <c r="E27" t="s">
         <v>49</v>
       </c>
@@ -5768,6 +5829,9 @@
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="C28" t="s">
+        <v>1646</v>
+      </c>
       <c r="E28" t="s">
         <v>51</v>
       </c>
@@ -5779,239 +5843,287 @@
       <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C29" t="s">
+        <v>1647</v>
+      </c>
       <c r="E29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C30" t="s">
+        <v>1648</v>
+      </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1649</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1650</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1651</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1652</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C36" t="s">
+        <v>1653</v>
+      </c>
       <c r="E36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>39</v>
+      <c r="A37" t="s">
+        <v>67</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>40</v>
+      <c r="A38" t="s">
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1656</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>42</v>
+      <c r="A40" t="s">
+        <v>76</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>77</v>
+      <c r="A42">
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" t="s">
-        <v>79</v>
+        <v>1659</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>48</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1663</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>49</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>53</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>1664</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>92</v>
+      <c r="A48">
+        <v>54</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>1665</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>96</v>
+      <c r="A49">
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="C49" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>98</v>
+      <c r="A50">
+        <v>56</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>99</v>
@@ -6020,79 +6132,88 @@
         <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>53</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E51" t="s">
         <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E52" t="s">
         <v>104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>107</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C54" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>56</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B55" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E55" t="s">
         <v>111</v>
       </c>
-      <c r="E54" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>57</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>58</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1674</v>
       </c>
       <c r="E56" t="s">
         <v>114</v>
@@ -6100,896 +6221,836 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="C57" t="s">
+        <v>1675</v>
+      </c>
       <c r="E57" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>60</v>
+      <c r="A58" t="s">
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>119</v>
+      <c r="A59">
+        <v>66</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>1677</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>126</v>
+      <c r="A61">
+        <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>1678</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>71</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E63" t="s">
         <v>131</v>
-      </c>
-      <c r="E62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
+        <v>1683</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>142</v>
+      <c r="A65">
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>1685</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>1686</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>71</v>
+      <c r="A69" t="s">
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>72</v>
+      <c r="A70" t="s">
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>167</v>
+      <c r="A75">
+        <v>83</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>169</v>
+      <c r="A76">
+        <v>84</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>82</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>182</v>
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>83</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" t="s">
-        <v>185</v>
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>84</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" t="s">
-        <v>188</v>
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>85</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>190</v>
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>86</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>192</v>
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>87</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" t="s">
-        <v>195</v>
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>197</v>
+      <c r="A86">
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E86" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>93</v>
+      <c r="A91" t="s">
+        <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E93" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E95" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>220</v>
+      <c r="A97">
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E98" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E101" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E107" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E109" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E110" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
-      </c>
-      <c r="E112" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E113" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E114" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E116" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E117" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>244</v>
+      </c>
+      <c r="E118" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E119" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
-      </c>
-      <c r="E120" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E122" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
-      </c>
-      <c r="E123" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E124" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E125" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>273</v>
+        <v>256</v>
+      </c>
+      <c r="E126" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="E127" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E128" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>131</v>
-      </c>
-      <c r="B129" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>132</v>
-      </c>
-      <c r="B130" t="s">
-        <v>278</v>
-      </c>
-      <c r="E130" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>133</v>
-      </c>
-      <c r="B131" t="s">
-        <v>280</v>
-      </c>
-      <c r="E131" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>134</v>
-      </c>
-      <c r="B132" t="s">
-        <v>281</v>
-      </c>
-      <c r="E132" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>135</v>
-      </c>
-      <c r="B133" t="s">
-        <v>283</v>
-      </c>
-      <c r="E133" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>136</v>
-      </c>
-      <c r="B134" t="s">
-        <v>285</v>
-      </c>
-      <c r="E134" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6998,67 +7059,84 @@
     <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B40" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B41" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B42" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B45" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B46" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B50" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B51" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B53" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B54" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B55" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B57" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B58" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B59" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B60" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B61" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B64" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B65" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B66" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B68" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B69" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B71" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B72" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B73" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B74" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B75" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B76" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B77" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B78" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B80" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B81" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B82" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B83" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B84" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B85" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B33" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B34" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B36" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B40" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B41" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B42" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B44" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B50" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B52" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B53" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B54" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B56" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B57" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B58" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B59" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B60" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B62" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B63" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B64" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B65" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B67" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B68" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B69" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B70" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B72" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B73" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B74" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B75" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B76" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B77" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B78" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B79" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB1EA1-5A35-480B-A0FA-33DC9CE6D6DC}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -7073,37 +7151,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7111,7 +7189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G211"/>
   <sheetViews>
@@ -7126,1152 +7204,1152 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="F12" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="F14" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="G14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C15" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D15" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="E15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F15" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G16" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="F17" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="G18" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="G19" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="G20" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="F21" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="G21" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="G22" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D23" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E23" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="F23" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="G23" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B24" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="C24" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="E24" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="F24" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="G24" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="D25" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="F25" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="G25" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D26" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="F26" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="G26" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="E27" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="G27" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B28" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E28" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F28" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="G28" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C29" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D29" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="E29" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G29" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B30" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C30" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D30" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="E30" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="F30" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="G30" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="C31" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="E31" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="F31" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="G31" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C32" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="E32" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="G32" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B33" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="E33" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="F33" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="B34" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C34" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D34" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="E34" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="F34" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="G34" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="B35" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C35" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D35" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="F35" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="G35" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="F36" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="G36" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="B37" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="C37" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="D37" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="E37" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="F37" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="G37" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="C38" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E38" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="F38" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="G38" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="B39" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D39" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E39" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="F39" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="G39" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="B40" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="C40" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D40" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="E40" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="F40" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="G40" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="C41" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D41" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="E41" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="F41" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="G41" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B42" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C42" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D42" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E42" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="F42" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="G42" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="B43" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="C43" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="D43" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="E43" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="F43" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="G43" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C44" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D44" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E44" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="F44" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="G44" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="B45" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="C45" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D45" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="E45" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="F45" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="G45" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="B46" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="C46" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="D46" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="E46" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="F46" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="G46" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="B47" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="C47" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="D47" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E47" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="F47" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="G47" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B48" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D48" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="E48" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="F48" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="G48" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="B49" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="C49" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="D49" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="E49" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F49" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="G49" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="B50" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="D50" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E50" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="F50" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="G50" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -8279,1563 +8357,1563 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="C51" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="D51" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="E51" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="F51" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="G51" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B52" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="C52" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="D52" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="E52" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="F52" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="G52" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="B53" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="C53" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="D53" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="E53" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="F53" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="G53" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="B54" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="C54" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D54" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="E54" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="F54" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="G54" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="B55" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="C55" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="D55" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="E55" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F55" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="G55" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="B56" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="C56" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="D56" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="E56" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F56" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="G56" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="B57" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="C57" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="D57" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="E57" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="F57" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="G57" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="B58" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="C58" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="D58" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="E58" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="F58" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="G58" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="B59" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="C59" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="D59" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="E59" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="F59" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="G59" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="B60" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="C60" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="D60" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="E60" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="F60" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="G60" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="B61" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="C61" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="D61" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="E61" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="F61" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="G61" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="B62" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="C62" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="D62" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="E62" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="F62" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="G62" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="B63" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="C63" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="D63" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="E63" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="F63" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="G63" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="B64" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="C64" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="D64" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="E64" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="F64" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="G64" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="B65" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="C65" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="D65" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="E65" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="F65" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="G65" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C66" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="D66" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="E66" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="F66" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="G66" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="B67" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="C67" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="D67" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="E67" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="F67" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="G67" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="C68" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="D68" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="E68" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="F68" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="G68" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="B69" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="C69" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="D69" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="E69" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="F69" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="G69" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="B70" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="C70" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="D70" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="E70" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="F70" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="G70" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="B71" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="C71" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="D71" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="E71" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="F71" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="G71" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="B72" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="C72" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="D72" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="E72" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="F72" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="G72" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="B73" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="C73" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="D73" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="E73" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="F73" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="G73" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="B74" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="C74" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="D74" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="E74" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="F74" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="G74" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="B75" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="C75" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="D75" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="E75" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="F75" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="G75" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="B76" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="C76" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="D76" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="E76" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="F76" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="G76" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="B77" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="C77" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D77" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="E77" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="F77" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="G77" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="B78" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="C78" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="D78" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="E78" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="F78" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="G78" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="B79" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="C79" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="D79" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="E79" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="F79" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="G79" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="B80" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="C80" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="D80" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E80" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F80" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G80" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="B81" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="C81" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D81" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="E81" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="F81" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="G81" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="B82" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="C82" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="D82" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="E82" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="F82" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="G82" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="B83" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="C83" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="D83" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="E83" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="F83" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="G83" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="B84" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="C84" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="D84" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="E84" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="F84" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="G84" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="B85" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="C85" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="D85" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="E85" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="F85" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="G85" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="B86" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="C86" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="D86" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="E86" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="F86" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="G86" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="B87" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="C87" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="D87" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="E87" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="F87" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="G87" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="B88" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="C88" t="s">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="D88" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E88" t="s">
-        <v>866</v>
+        <v>841</v>
       </c>
       <c r="F88" t="s">
-        <v>867</v>
+        <v>842</v>
       </c>
       <c r="G88" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="B89" t="s">
-        <v>869</v>
+        <v>844</v>
       </c>
       <c r="C89" t="s">
-        <v>870</v>
+        <v>845</v>
       </c>
       <c r="D89" t="s">
-        <v>871</v>
+        <v>846</v>
       </c>
       <c r="E89" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="F89" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
       <c r="G89" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="B90" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="C90" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="D90" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="E90" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
       <c r="F90" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="G90" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="B91" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="C91" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="D91" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="E91" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="F91" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="G91" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="B92" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="C92" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="D92" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="E92" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="F92" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="G92" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="B93" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="C93" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="D93" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="E93" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="F93" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="G93" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="B94" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="C94" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="D94" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="E94" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="F94" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="G94" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="B95" t="s">
-        <v>902</v>
+        <v>877</v>
       </c>
       <c r="C95" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="D95" t="s">
-        <v>904</v>
+        <v>879</v>
       </c>
       <c r="E95" t="s">
-        <v>905</v>
+        <v>880</v>
       </c>
       <c r="F95" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="G95" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="B96" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="C96" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="D96" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="E96" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="F96" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="G96" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="B97" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="C97" t="s">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="D97" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
       <c r="E97" t="s">
-        <v>912</v>
+        <v>887</v>
       </c>
       <c r="F97" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="G97" t="s">
-        <v>914</v>
+        <v>889</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="B98" t="s">
-        <v>916</v>
+        <v>891</v>
       </c>
       <c r="C98" t="s">
-        <v>917</v>
+        <v>892</v>
       </c>
       <c r="D98" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="E98" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="F98" t="s">
-        <v>920</v>
+        <v>895</v>
       </c>
       <c r="G98" t="s">
-        <v>921</v>
+        <v>896</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="B99" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="C99" t="s">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="D99" t="s">
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="E99" t="s">
-        <v>926</v>
+        <v>901</v>
       </c>
       <c r="F99" t="s">
-        <v>927</v>
+        <v>902</v>
       </c>
       <c r="G99" t="s">
-        <v>928</v>
+        <v>903</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>929</v>
+        <v>904</v>
       </c>
       <c r="B100" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="C100" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="D100" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="E100" t="s">
-        <v>933</v>
+        <v>908</v>
       </c>
       <c r="F100" t="s">
-        <v>934</v>
+        <v>909</v>
       </c>
       <c r="G100" t="s">
-        <v>935</v>
+        <v>910</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>936</v>
+        <v>911</v>
       </c>
       <c r="B101" t="s">
-        <v>937</v>
+        <v>912</v>
       </c>
       <c r="C101" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
       <c r="D101" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="E101" t="s">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="F101" t="s">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="G101" t="s">
-        <v>942</v>
+        <v>917</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
       <c r="B102" t="s">
-        <v>944</v>
+        <v>919</v>
       </c>
       <c r="C102" t="s">
-        <v>945</v>
+        <v>920</v>
       </c>
       <c r="D102" t="s">
-        <v>946</v>
+        <v>921</v>
       </c>
       <c r="E102" t="s">
-        <v>947</v>
+        <v>922</v>
       </c>
       <c r="F102" t="s">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="G102" t="s">
-        <v>949</v>
+        <v>924</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="B103" t="s">
-        <v>951</v>
+        <v>926</v>
       </c>
       <c r="C103" t="s">
-        <v>952</v>
+        <v>927</v>
       </c>
       <c r="D103" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
       <c r="E103" t="s">
-        <v>954</v>
+        <v>929</v>
       </c>
       <c r="F103" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
       <c r="G103" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="B104" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
       <c r="C104" t="s">
-        <v>959</v>
+        <v>934</v>
       </c>
       <c r="D104" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="E104" t="s">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="F104" t="s">
-        <v>962</v>
+        <v>937</v>
       </c>
       <c r="G104" t="s">
-        <v>960</v>
+        <v>935</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>963</v>
+        <v>938</v>
       </c>
       <c r="B105" t="s">
-        <v>964</v>
+        <v>939</v>
       </c>
       <c r="C105" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
       <c r="D105" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="E105" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="F105" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
       <c r="G105" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
       <c r="B106" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="C106" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="D106" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="E106" t="s">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="F106" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="G106" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="B107" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="C107" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="D107" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
       <c r="E107" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="F107" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="G107" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="B108" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="C108" t="s">
-        <v>985</v>
+        <v>960</v>
       </c>
       <c r="D108" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="E108" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="F108" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="G108" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="B109" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="C109" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="D109" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="E109" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="F109" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="G109" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="B110" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="C110" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="D110" t="s">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="E110" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="F110" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="G110" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1003</v>
+        <v>978</v>
       </c>
       <c r="B111" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="C111" t="s">
-        <v>1005</v>
+        <v>980</v>
       </c>
       <c r="D111" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="E111" t="s">
-        <v>1007</v>
+        <v>982</v>
       </c>
       <c r="F111" t="s">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="G111" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1010</v>
+        <v>985</v>
       </c>
       <c r="B112" t="s">
-        <v>1011</v>
+        <v>986</v>
       </c>
       <c r="C112" t="s">
-        <v>1012</v>
+        <v>987</v>
       </c>
       <c r="D112" t="s">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="E112" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="F112" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
       <c r="G112" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
       <c r="B113" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="C113" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="D113" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="E113" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="F113" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="G113" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="B114" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="C114" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="D114" t="s">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="E114" t="s">
-        <v>1028</v>
+        <v>1003</v>
       </c>
       <c r="F114" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="G114" t="s">
-        <v>1028</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B115" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="C115" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="D115" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="E115" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="F115" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="G115" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="B116" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="C116" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="D116" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="E116" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="F116" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="G116" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="B117" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="C117" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="D117" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="E117" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="F117" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="G117" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="B118" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="C118" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="D118" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="E118" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="F118" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="G118" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -9843,2138 +9921,2138 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="C119" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="D119" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="E119" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="F119" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="G119" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B120" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="C120" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="D120" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="E120" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="F120" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="G120" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="B121" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="C121" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="D121" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="E121" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="F121" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="G121" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="C122" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="D122" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="E122" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="F122" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="G122" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="C123" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="D123" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="E123" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="F123" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="G123" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="B124" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="C124" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="D124" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="E124" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="F124" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="G124" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="B125" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="C125" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D125" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="E125" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="F125" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="G125" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="B126" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="C126" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="D126" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="E126" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="F126" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
       <c r="G126" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="C127" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="D127" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="E127" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="F127" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
       <c r="G127" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="B128" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="C128" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
       <c r="D128" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="E128" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="F128" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
       <c r="G128" t="s">
-        <v>1117</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1118</v>
+        <v>1093</v>
       </c>
       <c r="B129" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="C129" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="D129" t="s">
-        <v>1121</v>
+        <v>1096</v>
       </c>
       <c r="E129" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="F129" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="G129" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="B130" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="C130" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="D130" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="E130" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="F130" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="G130" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="B131" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="C131" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="D131" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="E131" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="F131" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="G131" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="B132" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="C132" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="D132" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="E132" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="F132" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="G132" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>1144</v>
+        <v>1119</v>
       </c>
       <c r="B133" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="C133" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
       <c r="D133" t="s">
-        <v>1147</v>
+        <v>1122</v>
       </c>
       <c r="E133" t="s">
-        <v>1145</v>
+        <v>1120</v>
       </c>
       <c r="F133" t="s">
-        <v>1148</v>
+        <v>1123</v>
       </c>
       <c r="G133" t="s">
-        <v>1149</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="B134" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="C134" t="s">
-        <v>1152</v>
+        <v>1127</v>
       </c>
       <c r="D134" t="s">
-        <v>1153</v>
+        <v>1128</v>
       </c>
       <c r="E134" t="s">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="F134" t="s">
-        <v>1155</v>
+        <v>1130</v>
       </c>
       <c r="G134" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>1157</v>
+        <v>1132</v>
       </c>
       <c r="B135" t="s">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="C135" t="s">
-        <v>1159</v>
+        <v>1134</v>
       </c>
       <c r="D135" t="s">
-        <v>1160</v>
+        <v>1135</v>
       </c>
       <c r="E135" t="s">
-        <v>1161</v>
+        <v>1136</v>
       </c>
       <c r="F135" t="s">
-        <v>1162</v>
+        <v>1137</v>
       </c>
       <c r="G135" t="s">
-        <v>1163</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1164</v>
+        <v>1139</v>
       </c>
       <c r="B136" t="s">
-        <v>1165</v>
+        <v>1140</v>
       </c>
       <c r="C136" t="s">
-        <v>1166</v>
+        <v>1141</v>
       </c>
       <c r="D136" t="s">
-        <v>1167</v>
+        <v>1142</v>
       </c>
       <c r="E136" t="s">
-        <v>1168</v>
+        <v>1143</v>
       </c>
       <c r="F136" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="G136" t="s">
-        <v>1169</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>1170</v>
+        <v>1145</v>
       </c>
       <c r="B137" t="s">
-        <v>1171</v>
+        <v>1146</v>
       </c>
       <c r="C137" t="s">
-        <v>1172</v>
+        <v>1147</v>
       </c>
       <c r="D137" t="s">
-        <v>1171</v>
+        <v>1146</v>
       </c>
       <c r="E137" t="s">
-        <v>1173</v>
+        <v>1148</v>
       </c>
       <c r="F137" t="s">
-        <v>1174</v>
+        <v>1149</v>
       </c>
       <c r="G137" t="s">
-        <v>1171</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>1175</v>
+        <v>1150</v>
       </c>
       <c r="B138" t="s">
-        <v>1176</v>
+        <v>1151</v>
       </c>
       <c r="C138" t="s">
-        <v>1177</v>
+        <v>1152</v>
       </c>
       <c r="D138" t="s">
-        <v>1178</v>
+        <v>1153</v>
       </c>
       <c r="E138" t="s">
-        <v>1179</v>
+        <v>1154</v>
       </c>
       <c r="F138" t="s">
-        <v>1180</v>
+        <v>1155</v>
       </c>
       <c r="G138" t="s">
-        <v>1181</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>1182</v>
+        <v>1157</v>
       </c>
       <c r="B139" t="s">
-        <v>1183</v>
+        <v>1158</v>
       </c>
       <c r="C139" t="s">
-        <v>1184</v>
+        <v>1159</v>
       </c>
       <c r="D139" t="s">
-        <v>1185</v>
+        <v>1160</v>
       </c>
       <c r="E139" t="s">
-        <v>1186</v>
+        <v>1161</v>
       </c>
       <c r="F139" t="s">
-        <v>1187</v>
+        <v>1162</v>
       </c>
       <c r="G139" t="s">
-        <v>1188</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1189</v>
+        <v>1164</v>
       </c>
       <c r="B140" t="s">
-        <v>1190</v>
+        <v>1165</v>
       </c>
       <c r="C140" t="s">
-        <v>1191</v>
+        <v>1166</v>
       </c>
       <c r="D140" t="s">
-        <v>1192</v>
+        <v>1167</v>
       </c>
       <c r="E140" t="s">
-        <v>1193</v>
+        <v>1168</v>
       </c>
       <c r="F140" t="s">
-        <v>1194</v>
+        <v>1169</v>
       </c>
       <c r="G140" t="s">
-        <v>1195</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1196</v>
+        <v>1171</v>
       </c>
       <c r="B141" t="s">
-        <v>1197</v>
+        <v>1172</v>
       </c>
       <c r="C141" t="s">
-        <v>1198</v>
+        <v>1173</v>
       </c>
       <c r="D141" t="s">
-        <v>1199</v>
+        <v>1174</v>
       </c>
       <c r="E141" t="s">
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="F141" t="s">
-        <v>1201</v>
+        <v>1176</v>
       </c>
       <c r="G141" t="s">
-        <v>1202</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>1203</v>
+        <v>1178</v>
       </c>
       <c r="B142" t="s">
-        <v>1204</v>
+        <v>1179</v>
       </c>
       <c r="C142" t="s">
-        <v>1205</v>
+        <v>1180</v>
       </c>
       <c r="D142" t="s">
-        <v>1206</v>
+        <v>1181</v>
       </c>
       <c r="E142" t="s">
-        <v>1207</v>
+        <v>1182</v>
       </c>
       <c r="F142" t="s">
-        <v>1208</v>
+        <v>1183</v>
       </c>
       <c r="G142" t="s">
-        <v>1209</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1210</v>
+        <v>1185</v>
       </c>
       <c r="B143" t="s">
-        <v>1211</v>
+        <v>1186</v>
       </c>
       <c r="C143" t="s">
-        <v>1212</v>
+        <v>1187</v>
       </c>
       <c r="D143" t="s">
-        <v>1213</v>
+        <v>1188</v>
       </c>
       <c r="E143" t="s">
-        <v>1214</v>
+        <v>1189</v>
       </c>
       <c r="F143" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="G143" t="s">
-        <v>1216</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1217</v>
+        <v>1192</v>
       </c>
       <c r="B144" t="s">
-        <v>1218</v>
+        <v>1193</v>
       </c>
       <c r="C144" t="s">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="D144" t="s">
-        <v>1220</v>
+        <v>1195</v>
       </c>
       <c r="E144" t="s">
-        <v>1221</v>
+        <v>1196</v>
       </c>
       <c r="F144" t="s">
-        <v>1222</v>
+        <v>1197</v>
       </c>
       <c r="G144" t="s">
-        <v>1223</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1224</v>
+        <v>1199</v>
       </c>
       <c r="B145" t="s">
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="C145" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D145" t="s">
-        <v>1226</v>
+        <v>1201</v>
       </c>
       <c r="E145" t="s">
-        <v>1227</v>
+        <v>1202</v>
       </c>
       <c r="F145" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="G145" t="s">
-        <v>1229</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1230</v>
+        <v>1205</v>
       </c>
       <c r="B146" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="C146" t="s">
-        <v>1232</v>
+        <v>1207</v>
       </c>
       <c r="D146" t="s">
-        <v>1233</v>
+        <v>1208</v>
       </c>
       <c r="E146" t="s">
-        <v>1233</v>
+        <v>1208</v>
       </c>
       <c r="F146" t="s">
-        <v>1234</v>
+        <v>1209</v>
       </c>
       <c r="G146" t="s">
-        <v>1235</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1236</v>
+        <v>1211</v>
       </c>
       <c r="B147" t="s">
-        <v>1237</v>
+        <v>1212</v>
       </c>
       <c r="C147" t="s">
-        <v>1238</v>
+        <v>1213</v>
       </c>
       <c r="D147" t="s">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="E147" t="s">
-        <v>1240</v>
+        <v>1215</v>
       </c>
       <c r="F147" t="s">
-        <v>1241</v>
+        <v>1216</v>
       </c>
       <c r="G147" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="B148" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="C148" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="D148" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="E148" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="F148" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="G148" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="B149" t="s">
-        <v>1244</v>
+        <v>1219</v>
       </c>
       <c r="C149" t="s">
-        <v>1245</v>
+        <v>1220</v>
       </c>
       <c r="D149" t="s">
-        <v>1246</v>
+        <v>1221</v>
       </c>
       <c r="E149" t="s">
-        <v>1247</v>
+        <v>1222</v>
       </c>
       <c r="F149" t="s">
-        <v>1248</v>
+        <v>1223</v>
       </c>
       <c r="G149" t="s">
-        <v>1249</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="B150" t="s">
-        <v>1251</v>
+        <v>1226</v>
       </c>
       <c r="C150" t="s">
-        <v>1252</v>
+        <v>1227</v>
       </c>
       <c r="D150" t="s">
-        <v>1253</v>
+        <v>1228</v>
       </c>
       <c r="E150" t="s">
-        <v>1254</v>
+        <v>1229</v>
       </c>
       <c r="F150" t="s">
-        <v>1255</v>
+        <v>1230</v>
       </c>
       <c r="G150" t="s">
-        <v>1256</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1257</v>
+        <v>1232</v>
       </c>
       <c r="B151" t="s">
-        <v>1258</v>
+        <v>1233</v>
       </c>
       <c r="C151" t="s">
-        <v>1259</v>
+        <v>1234</v>
       </c>
       <c r="D151" t="s">
-        <v>1260</v>
+        <v>1235</v>
       </c>
       <c r="E151" t="s">
-        <v>1260</v>
+        <v>1235</v>
       </c>
       <c r="F151" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
       <c r="G151" t="s">
-        <v>1260</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>1262</v>
+        <v>1237</v>
       </c>
       <c r="B152" t="s">
-        <v>1263</v>
+        <v>1238</v>
       </c>
       <c r="C152" t="s">
-        <v>1264</v>
+        <v>1239</v>
       </c>
       <c r="D152" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="E152" t="s">
-        <v>1266</v>
+        <v>1241</v>
       </c>
       <c r="F152" t="s">
-        <v>1267</v>
+        <v>1242</v>
       </c>
       <c r="G152" t="s">
-        <v>1268</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1269</v>
+        <v>1244</v>
       </c>
       <c r="B153" t="s">
-        <v>1270</v>
+        <v>1245</v>
       </c>
       <c r="C153" t="s">
-        <v>1271</v>
+        <v>1246</v>
       </c>
       <c r="D153" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="E153" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="F153" t="s">
-        <v>1273</v>
+        <v>1248</v>
       </c>
       <c r="G153" t="s">
-        <v>1274</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>1275</v>
+        <v>1250</v>
       </c>
       <c r="B154" t="s">
-        <v>1276</v>
+        <v>1251</v>
       </c>
       <c r="C154" t="s">
-        <v>1277</v>
+        <v>1252</v>
       </c>
       <c r="D154" t="s">
-        <v>1278</v>
+        <v>1253</v>
       </c>
       <c r="E154" t="s">
-        <v>1279</v>
+        <v>1254</v>
       </c>
       <c r="F154" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
       <c r="G154" t="s">
-        <v>1281</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>1282</v>
+        <v>1257</v>
       </c>
       <c r="B155" t="s">
-        <v>1283</v>
+        <v>1258</v>
       </c>
       <c r="C155" t="s">
-        <v>1284</v>
+        <v>1259</v>
       </c>
       <c r="D155" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="E155" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="F155" t="s">
-        <v>1287</v>
+        <v>1262</v>
       </c>
       <c r="G155" t="s">
-        <v>1288</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B156" t="s">
-        <v>1289</v>
+        <v>1264</v>
       </c>
       <c r="C156" t="s">
-        <v>1290</v>
+        <v>1265</v>
       </c>
       <c r="D156" t="s">
-        <v>1291</v>
+        <v>1266</v>
       </c>
       <c r="E156" t="s">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="F156" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="G156" t="s">
-        <v>1293</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
       <c r="B157" t="s">
-        <v>1295</v>
+        <v>1270</v>
       </c>
       <c r="C157" t="s">
-        <v>1296</v>
+        <v>1271</v>
       </c>
       <c r="D157" t="s">
-        <v>1297</v>
+        <v>1272</v>
       </c>
       <c r="E157" t="s">
-        <v>1298</v>
+        <v>1273</v>
       </c>
       <c r="F157" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
       <c r="G157" t="s">
-        <v>1300</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>1301</v>
+        <v>1276</v>
       </c>
       <c r="B158" t="s">
-        <v>1302</v>
+        <v>1277</v>
       </c>
       <c r="C158" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
       <c r="D158" t="s">
-        <v>1304</v>
+        <v>1279</v>
       </c>
       <c r="E158" t="s">
-        <v>1305</v>
+        <v>1280</v>
       </c>
       <c r="F158" t="s">
-        <v>1306</v>
+        <v>1281</v>
       </c>
       <c r="G158" t="s">
-        <v>1307</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>1308</v>
+        <v>1283</v>
       </c>
       <c r="B159" t="s">
-        <v>1309</v>
+        <v>1284</v>
       </c>
       <c r="C159" t="s">
-        <v>1310</v>
+        <v>1285</v>
       </c>
       <c r="D159" t="s">
-        <v>1311</v>
+        <v>1286</v>
       </c>
       <c r="E159" t="s">
-        <v>1312</v>
+        <v>1287</v>
       </c>
       <c r="F159" t="s">
-        <v>1313</v>
+        <v>1288</v>
       </c>
       <c r="G159" t="s">
-        <v>1314</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>1315</v>
+        <v>1290</v>
       </c>
       <c r="B160" t="s">
-        <v>1316</v>
+        <v>1291</v>
       </c>
       <c r="C160" t="s">
-        <v>1317</v>
+        <v>1292</v>
       </c>
       <c r="D160" t="s">
-        <v>1318</v>
+        <v>1293</v>
       </c>
       <c r="E160" t="s">
-        <v>1319</v>
+        <v>1294</v>
       </c>
       <c r="F160" t="s">
-        <v>1320</v>
+        <v>1295</v>
       </c>
       <c r="G160" t="s">
-        <v>1321</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1322</v>
+        <v>1297</v>
       </c>
       <c r="B161" t="s">
-        <v>1323</v>
+        <v>1298</v>
       </c>
       <c r="C161" t="s">
-        <v>1324</v>
+        <v>1299</v>
       </c>
       <c r="D161" t="s">
-        <v>1325</v>
+        <v>1300</v>
       </c>
       <c r="E161" t="s">
-        <v>1326</v>
+        <v>1301</v>
       </c>
       <c r="F161" t="s">
-        <v>1327</v>
+        <v>1302</v>
       </c>
       <c r="G161" t="s">
-        <v>1328</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>1329</v>
+        <v>1304</v>
       </c>
       <c r="B162" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
       <c r="C162" t="s">
-        <v>1331</v>
+        <v>1306</v>
       </c>
       <c r="D162" t="s">
-        <v>1332</v>
+        <v>1307</v>
       </c>
       <c r="E162" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
       <c r="F162" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="G162" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
       <c r="B163" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
       <c r="C163" t="s">
-        <v>1337</v>
+        <v>1312</v>
       </c>
       <c r="D163" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
       <c r="E163" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
       <c r="F163" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
       <c r="G163" t="s">
-        <v>1341</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="B164" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
       <c r="C164" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
       <c r="D164" t="s">
-        <v>1345</v>
+        <v>1320</v>
       </c>
       <c r="E164" t="s">
-        <v>1346</v>
+        <v>1321</v>
       </c>
       <c r="F164" t="s">
-        <v>1347</v>
+        <v>1322</v>
       </c>
       <c r="G164" t="s">
-        <v>1348</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>1349</v>
+        <v>1324</v>
       </c>
       <c r="B165" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="C165" t="s">
-        <v>1351</v>
+        <v>1326</v>
       </c>
       <c r="D165" t="s">
-        <v>1352</v>
+        <v>1327</v>
       </c>
       <c r="E165" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="F165" t="s">
-        <v>1353</v>
+        <v>1328</v>
       </c>
       <c r="G165" t="s">
-        <v>1354</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>1355</v>
+        <v>1330</v>
       </c>
       <c r="B166" t="s">
-        <v>1356</v>
+        <v>1331</v>
       </c>
       <c r="C166" t="s">
-        <v>1357</v>
+        <v>1332</v>
       </c>
       <c r="D166" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
       <c r="E166" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
       <c r="F166" t="s">
-        <v>1359</v>
+        <v>1334</v>
       </c>
       <c r="G166" t="s">
-        <v>1360</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
       <c r="B167" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
       <c r="C167" t="s">
-        <v>1363</v>
+        <v>1338</v>
       </c>
       <c r="D167" t="s">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="E167" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
       <c r="F167" t="s">
-        <v>1366</v>
+        <v>1341</v>
       </c>
       <c r="G167" t="s">
-        <v>1367</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>1368</v>
+        <v>1343</v>
       </c>
       <c r="B168" t="s">
-        <v>1369</v>
+        <v>1344</v>
       </c>
       <c r="C168" t="s">
-        <v>1370</v>
+        <v>1345</v>
       </c>
       <c r="D168" t="s">
-        <v>1371</v>
+        <v>1346</v>
       </c>
       <c r="E168" t="s">
-        <v>1371</v>
+        <v>1346</v>
       </c>
       <c r="F168" t="s">
-        <v>1372</v>
+        <v>1347</v>
       </c>
       <c r="G168" t="s">
-        <v>1369</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="B169" t="s">
-        <v>1374</v>
+        <v>1349</v>
       </c>
       <c r="C169" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="D169" t="s">
-        <v>1376</v>
+        <v>1351</v>
       </c>
       <c r="E169" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="F169" t="s">
-        <v>1378</v>
+        <v>1353</v>
       </c>
       <c r="G169" t="s">
-        <v>1379</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="B170" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
       <c r="C170" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
       <c r="D170" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
       <c r="E170" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
       <c r="F170" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="G170" t="s">
-        <v>1385</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>1386</v>
+        <v>1361</v>
       </c>
       <c r="B171" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
       <c r="C171" t="s">
-        <v>1388</v>
+        <v>1363</v>
       </c>
       <c r="D171" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
       <c r="E171" t="s">
-        <v>1390</v>
+        <v>1365</v>
       </c>
       <c r="F171" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="G171" t="s">
-        <v>1390</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1391</v>
+        <v>1366</v>
       </c>
       <c r="B172" t="s">
-        <v>1392</v>
+        <v>1367</v>
       </c>
       <c r="C172" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="D172" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
       <c r="E172" t="s">
-        <v>1395</v>
+        <v>1370</v>
       </c>
       <c r="F172" t="s">
-        <v>1396</v>
+        <v>1371</v>
       </c>
       <c r="G172" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>1398</v>
+        <v>1373</v>
       </c>
       <c r="B173" t="s">
-        <v>1399</v>
+        <v>1374</v>
       </c>
       <c r="C173" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="D173" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
       <c r="E173" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="G173" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
       <c r="B174" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="C174" t="s">
-        <v>1405</v>
+        <v>1380</v>
       </c>
       <c r="D174" t="s">
-        <v>1406</v>
+        <v>1381</v>
       </c>
       <c r="E174" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
       <c r="F174" t="s">
-        <v>1407</v>
+        <v>1382</v>
       </c>
       <c r="G174" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>1408</v>
+        <v>1383</v>
       </c>
       <c r="B175" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
       <c r="C175" t="s">
-        <v>1410</v>
+        <v>1385</v>
       </c>
       <c r="D175" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
       <c r="E175" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
       <c r="F175" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
       <c r="G175" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
       <c r="B176" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
       <c r="C176" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
       <c r="D176" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="E176" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
       <c r="F176" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="G176" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1419</v>
+        <v>1394</v>
       </c>
       <c r="B177" t="s">
-        <v>1420</v>
+        <v>1395</v>
       </c>
       <c r="C177" t="s">
-        <v>1421</v>
+        <v>1396</v>
       </c>
       <c r="D177" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
       <c r="E177" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
       <c r="F177" t="s">
-        <v>1423</v>
+        <v>1398</v>
       </c>
       <c r="G177" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>1424</v>
+        <v>1399</v>
       </c>
       <c r="B178" t="s">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="C178" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
       <c r="D178" t="s">
-        <v>1427</v>
+        <v>1402</v>
       </c>
       <c r="E178" t="s">
-        <v>1428</v>
+        <v>1403</v>
       </c>
       <c r="F178" t="s">
-        <v>1429</v>
+        <v>1404</v>
       </c>
       <c r="G178" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>1431</v>
+        <v>1406</v>
       </c>
       <c r="B179" t="s">
-        <v>1432</v>
+        <v>1407</v>
       </c>
       <c r="C179" t="s">
-        <v>1433</v>
+        <v>1408</v>
       </c>
       <c r="D179" t="s">
-        <v>1434</v>
+        <v>1409</v>
       </c>
       <c r="E179" t="s">
-        <v>1435</v>
+        <v>1410</v>
       </c>
       <c r="F179" t="s">
-        <v>1436</v>
+        <v>1411</v>
       </c>
       <c r="G179" t="s">
-        <v>1437</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>1438</v>
+        <v>1413</v>
       </c>
       <c r="B180" t="s">
-        <v>1439</v>
+        <v>1414</v>
       </c>
       <c r="C180" t="s">
-        <v>1440</v>
+        <v>1415</v>
       </c>
       <c r="D180" t="s">
-        <v>1441</v>
+        <v>1416</v>
       </c>
       <c r="E180" t="s">
-        <v>1442</v>
+        <v>1417</v>
       </c>
       <c r="F180" t="s">
-        <v>1443</v>
+        <v>1418</v>
       </c>
       <c r="G180" t="s">
-        <v>1444</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>1445</v>
+        <v>1420</v>
       </c>
       <c r="B181" t="s">
-        <v>1446</v>
+        <v>1421</v>
       </c>
       <c r="C181" t="s">
-        <v>1447</v>
+        <v>1422</v>
       </c>
       <c r="D181" t="s">
-        <v>1446</v>
+        <v>1421</v>
       </c>
       <c r="E181" t="s">
-        <v>1448</v>
+        <v>1423</v>
       </c>
       <c r="F181" t="s">
-        <v>1449</v>
+        <v>1424</v>
       </c>
       <c r="G181" t="s">
-        <v>1450</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1451</v>
+        <v>1426</v>
       </c>
       <c r="B182" t="s">
-        <v>1452</v>
+        <v>1427</v>
       </c>
       <c r="C182" t="s">
-        <v>1453</v>
+        <v>1428</v>
       </c>
       <c r="D182" t="s">
-        <v>1454</v>
+        <v>1429</v>
       </c>
       <c r="E182" t="s">
-        <v>1455</v>
+        <v>1430</v>
       </c>
       <c r="F182" t="s">
-        <v>1456</v>
+        <v>1431</v>
       </c>
       <c r="G182" t="s">
-        <v>1457</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>1458</v>
+        <v>1433</v>
       </c>
       <c r="B183" t="s">
-        <v>1459</v>
+        <v>1434</v>
       </c>
       <c r="C183" t="s">
-        <v>1460</v>
+        <v>1435</v>
       </c>
       <c r="D183" t="s">
-        <v>1461</v>
+        <v>1436</v>
       </c>
       <c r="E183" t="s">
-        <v>1462</v>
+        <v>1437</v>
       </c>
       <c r="F183" t="s">
-        <v>1463</v>
+        <v>1438</v>
       </c>
       <c r="G183" t="s">
-        <v>1464</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1465</v>
+        <v>1440</v>
       </c>
       <c r="B184" t="s">
-        <v>1466</v>
+        <v>1441</v>
       </c>
       <c r="C184" t="s">
-        <v>1467</v>
+        <v>1442</v>
       </c>
       <c r="D184" t="s">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="E184" t="s">
-        <v>1469</v>
+        <v>1444</v>
       </c>
       <c r="F184" t="s">
-        <v>1470</v>
+        <v>1445</v>
       </c>
       <c r="G184" t="s">
-        <v>1471</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1472</v>
+        <v>1447</v>
       </c>
       <c r="B185" t="s">
-        <v>1473</v>
+        <v>1448</v>
       </c>
       <c r="C185" t="s">
-        <v>1474</v>
+        <v>1449</v>
       </c>
       <c r="D185" t="s">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="E185" t="s">
-        <v>1476</v>
+        <v>1451</v>
       </c>
       <c r="F185" t="s">
-        <v>1477</v>
+        <v>1452</v>
       </c>
       <c r="G185" t="s">
-        <v>1478</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1479</v>
+        <v>1454</v>
       </c>
       <c r="B186" t="s">
-        <v>1480</v>
+        <v>1455</v>
       </c>
       <c r="C186" t="s">
-        <v>1481</v>
+        <v>1456</v>
       </c>
       <c r="D186" t="s">
-        <v>1482</v>
+        <v>1457</v>
       </c>
       <c r="E186" t="s">
-        <v>1483</v>
+        <v>1458</v>
       </c>
       <c r="F186" t="s">
-        <v>1484</v>
+        <v>1459</v>
       </c>
       <c r="G186" t="s">
-        <v>1485</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1486</v>
+        <v>1461</v>
       </c>
       <c r="B187" t="s">
-        <v>1487</v>
+        <v>1462</v>
       </c>
       <c r="C187" t="s">
-        <v>1488</v>
+        <v>1463</v>
       </c>
       <c r="D187" t="s">
-        <v>1489</v>
+        <v>1464</v>
       </c>
       <c r="E187" t="s">
-        <v>1490</v>
+        <v>1465</v>
       </c>
       <c r="F187" t="s">
-        <v>1487</v>
+        <v>1462</v>
       </c>
       <c r="G187" t="s">
-        <v>1491</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>1492</v>
+        <v>1467</v>
       </c>
       <c r="B188" t="s">
-        <v>1493</v>
+        <v>1468</v>
       </c>
       <c r="C188" t="s">
-        <v>1494</v>
+        <v>1469</v>
       </c>
       <c r="D188" t="s">
-        <v>1495</v>
+        <v>1470</v>
       </c>
       <c r="E188" t="s">
-        <v>1495</v>
+        <v>1470</v>
       </c>
       <c r="F188" t="s">
-        <v>1496</v>
+        <v>1471</v>
       </c>
       <c r="G188" t="s">
-        <v>1495</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>1497</v>
+        <v>1472</v>
       </c>
       <c r="B189" t="s">
-        <v>1498</v>
+        <v>1473</v>
       </c>
       <c r="C189" t="s">
-        <v>1499</v>
+        <v>1474</v>
       </c>
       <c r="D189" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="E189" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="F189" t="s">
-        <v>1501</v>
+        <v>1476</v>
       </c>
       <c r="G189" t="s">
-        <v>1502</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1503</v>
+        <v>1478</v>
       </c>
       <c r="B190" t="s">
-        <v>1504</v>
+        <v>1479</v>
       </c>
       <c r="C190" t="s">
-        <v>1505</v>
+        <v>1480</v>
       </c>
       <c r="D190" t="s">
-        <v>1506</v>
+        <v>1481</v>
       </c>
       <c r="E190" t="s">
-        <v>1507</v>
+        <v>1482</v>
       </c>
       <c r="F190" t="s">
-        <v>1508</v>
+        <v>1483</v>
       </c>
       <c r="G190" t="s">
-        <v>1509</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1510</v>
+        <v>1485</v>
       </c>
       <c r="B191" t="s">
-        <v>1511</v>
+        <v>1486</v>
       </c>
       <c r="C191" t="s">
-        <v>1512</v>
+        <v>1487</v>
       </c>
       <c r="D191" t="s">
-        <v>1513</v>
+        <v>1488</v>
       </c>
       <c r="E191" t="s">
-        <v>1514</v>
+        <v>1489</v>
       </c>
       <c r="F191" t="s">
-        <v>1515</v>
+        <v>1490</v>
       </c>
       <c r="G191" t="s">
-        <v>1514</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B192" t="s">
-        <v>1516</v>
+        <v>1491</v>
       </c>
       <c r="C192" t="s">
-        <v>1517</v>
+        <v>1492</v>
       </c>
       <c r="D192" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="E192" t="s">
-        <v>1519</v>
+        <v>1494</v>
       </c>
       <c r="F192" t="s">
-        <v>1520</v>
+        <v>1495</v>
       </c>
       <c r="G192" t="s">
-        <v>1521</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1522</v>
+        <v>1497</v>
       </c>
       <c r="B193" t="s">
-        <v>1523</v>
+        <v>1498</v>
       </c>
       <c r="C193" t="s">
-        <v>1524</v>
+        <v>1499</v>
       </c>
       <c r="D193" t="s">
-        <v>1523</v>
+        <v>1498</v>
       </c>
       <c r="E193" t="s">
-        <v>1525</v>
+        <v>1500</v>
       </c>
       <c r="F193" t="s">
-        <v>1526</v>
+        <v>1501</v>
       </c>
       <c r="G193" t="s">
-        <v>1523</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1527</v>
+        <v>1502</v>
       </c>
       <c r="B194" t="s">
-        <v>1528</v>
+        <v>1503</v>
       </c>
       <c r="C194" t="s">
-        <v>1529</v>
+        <v>1504</v>
       </c>
       <c r="D194" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
       <c r="E194" t="s">
-        <v>1528</v>
+        <v>1503</v>
       </c>
       <c r="F194" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="G194" t="s">
-        <v>1528</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1531</v>
+        <v>1506</v>
       </c>
       <c r="B195" t="s">
-        <v>1532</v>
+        <v>1507</v>
       </c>
       <c r="C195" t="s">
-        <v>1533</v>
+        <v>1508</v>
       </c>
       <c r="D195" t="s">
-        <v>1534</v>
+        <v>1509</v>
       </c>
       <c r="E195" t="s">
-        <v>1535</v>
+        <v>1510</v>
       </c>
       <c r="F195" t="s">
-        <v>1536</v>
+        <v>1511</v>
       </c>
       <c r="G195" t="s">
-        <v>1535</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1537</v>
+        <v>1512</v>
       </c>
       <c r="B196" t="s">
-        <v>1538</v>
+        <v>1513</v>
       </c>
       <c r="C196" t="s">
-        <v>1539</v>
+        <v>1514</v>
       </c>
       <c r="D196" t="s">
-        <v>1540</v>
+        <v>1515</v>
       </c>
       <c r="E196" t="s">
-        <v>1541</v>
+        <v>1516</v>
       </c>
       <c r="F196" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="G196" t="s">
-        <v>1542</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1543</v>
+        <v>1518</v>
       </c>
       <c r="B197" t="s">
-        <v>1544</v>
+        <v>1519</v>
       </c>
       <c r="C197" t="s">
-        <v>1545</v>
+        <v>1520</v>
       </c>
       <c r="D197" t="s">
-        <v>1546</v>
+        <v>1521</v>
       </c>
       <c r="E197" t="s">
-        <v>1547</v>
+        <v>1522</v>
       </c>
       <c r="F197" t="s">
-        <v>1548</v>
+        <v>1523</v>
       </c>
       <c r="G197" t="s">
-        <v>1549</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1550</v>
+        <v>1525</v>
       </c>
       <c r="B198" t="s">
-        <v>1551</v>
+        <v>1526</v>
       </c>
       <c r="C198" t="s">
-        <v>1552</v>
+        <v>1527</v>
       </c>
       <c r="D198" t="s">
-        <v>1553</v>
+        <v>1528</v>
       </c>
       <c r="E198" t="s">
-        <v>1554</v>
+        <v>1529</v>
       </c>
       <c r="F198" t="s">
-        <v>1555</v>
+        <v>1530</v>
       </c>
       <c r="G198" t="s">
-        <v>1556</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1557</v>
+        <v>1532</v>
       </c>
       <c r="B199" t="s">
-        <v>1558</v>
+        <v>1533</v>
       </c>
       <c r="C199" t="s">
-        <v>1559</v>
+        <v>1534</v>
       </c>
       <c r="D199" t="s">
-        <v>1560</v>
+        <v>1535</v>
       </c>
       <c r="E199" t="s">
-        <v>1561</v>
+        <v>1536</v>
       </c>
       <c r="F199" t="s">
-        <v>1562</v>
+        <v>1537</v>
       </c>
       <c r="G199" t="s">
-        <v>1563</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1564</v>
+        <v>1539</v>
       </c>
       <c r="B200" t="s">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="C200" t="s">
-        <v>1566</v>
+        <v>1541</v>
       </c>
       <c r="D200" t="s">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="E200" t="s">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="F200" t="s">
-        <v>1567</v>
+        <v>1542</v>
       </c>
       <c r="G200" t="s">
-        <v>1565</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>1568</v>
+        <v>1543</v>
       </c>
       <c r="B201" t="s">
-        <v>1569</v>
+        <v>1544</v>
       </c>
       <c r="C201" t="s">
-        <v>1570</v>
+        <v>1545</v>
       </c>
       <c r="D201" t="s">
-        <v>1571</v>
+        <v>1546</v>
       </c>
       <c r="E201" t="s">
-        <v>1572</v>
+        <v>1547</v>
       </c>
       <c r="F201" t="s">
-        <v>1573</v>
+        <v>1548</v>
       </c>
       <c r="G201" t="s">
-        <v>1574</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>1575</v>
+        <v>1550</v>
       </c>
       <c r="B202" t="s">
-        <v>1576</v>
+        <v>1551</v>
       </c>
       <c r="C202" t="s">
-        <v>1577</v>
+        <v>1552</v>
       </c>
       <c r="D202" t="s">
-        <v>1578</v>
+        <v>1553</v>
       </c>
       <c r="E202" t="s">
-        <v>1579</v>
+        <v>1554</v>
       </c>
       <c r="F202" t="s">
-        <v>1580</v>
+        <v>1555</v>
       </c>
       <c r="G202" t="s">
-        <v>1581</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>1582</v>
+        <v>1557</v>
       </c>
       <c r="B203" t="s">
-        <v>1583</v>
+        <v>1558</v>
       </c>
       <c r="C203" t="s">
-        <v>1584</v>
+        <v>1559</v>
       </c>
       <c r="D203" t="s">
-        <v>1585</v>
+        <v>1560</v>
       </c>
       <c r="E203" t="s">
-        <v>1586</v>
+        <v>1561</v>
       </c>
       <c r="F203" t="s">
-        <v>1587</v>
+        <v>1562</v>
       </c>
       <c r="G203" t="s">
-        <v>1588</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>1589</v>
+        <v>1564</v>
       </c>
       <c r="B204" t="s">
-        <v>1590</v>
+        <v>1565</v>
       </c>
       <c r="C204" t="s">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="D204" t="s">
-        <v>1592</v>
+        <v>1567</v>
       </c>
       <c r="E204" t="s">
-        <v>1593</v>
+        <v>1568</v>
       </c>
       <c r="F204" t="s">
-        <v>1594</v>
+        <v>1569</v>
       </c>
       <c r="G204" t="s">
-        <v>1595</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1596</v>
+        <v>1571</v>
       </c>
       <c r="B205" t="s">
-        <v>1597</v>
+        <v>1572</v>
       </c>
       <c r="C205" t="s">
-        <v>1598</v>
+        <v>1573</v>
       </c>
       <c r="D205" t="s">
-        <v>1599</v>
+        <v>1574</v>
       </c>
       <c r="E205" t="s">
-        <v>1599</v>
+        <v>1574</v>
       </c>
       <c r="F205" t="s">
-        <v>1600</v>
+        <v>1575</v>
       </c>
       <c r="G205" t="s">
-        <v>1601</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>1602</v>
+        <v>1577</v>
       </c>
       <c r="B206" t="s">
-        <v>1603</v>
+        <v>1578</v>
       </c>
       <c r="C206" t="s">
-        <v>1604</v>
+        <v>1579</v>
       </c>
       <c r="D206" t="s">
-        <v>1605</v>
+        <v>1580</v>
       </c>
       <c r="E206" t="s">
-        <v>1606</v>
+        <v>1581</v>
       </c>
       <c r="F206" t="s">
-        <v>1603</v>
+        <v>1578</v>
       </c>
       <c r="G206" t="s">
-        <v>1607</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>1608</v>
+        <v>1583</v>
       </c>
       <c r="B207" t="s">
-        <v>1609</v>
+        <v>1584</v>
       </c>
       <c r="C207" t="s">
-        <v>1610</v>
+        <v>1585</v>
       </c>
       <c r="D207" t="s">
-        <v>1611</v>
+        <v>1586</v>
       </c>
       <c r="E207" t="s">
-        <v>1612</v>
+        <v>1587</v>
       </c>
       <c r="F207" t="s">
-        <v>1613</v>
+        <v>1588</v>
       </c>
       <c r="G207" t="s">
-        <v>1614</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>1615</v>
+        <v>1590</v>
       </c>
       <c r="B208" t="s">
-        <v>1616</v>
+        <v>1591</v>
       </c>
       <c r="C208" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D208" t="s">
-        <v>1617</v>
+        <v>1592</v>
       </c>
       <c r="E208" t="s">
-        <v>1618</v>
+        <v>1593</v>
       </c>
       <c r="F208" t="s">
-        <v>1619</v>
+        <v>1594</v>
       </c>
       <c r="G208" t="s">
-        <v>1620</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>1621</v>
+        <v>1596</v>
       </c>
       <c r="B209" t="s">
-        <v>1622</v>
+        <v>1597</v>
       </c>
       <c r="C209" t="s">
-        <v>1623</v>
+        <v>1598</v>
       </c>
       <c r="D209" t="s">
-        <v>1624</v>
+        <v>1599</v>
       </c>
       <c r="E209" t="s">
-        <v>1625</v>
+        <v>1600</v>
       </c>
       <c r="F209" t="s">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="G209" t="s">
-        <v>1627</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>1628</v>
+        <v>1603</v>
       </c>
       <c r="B210" t="s">
-        <v>1629</v>
+        <v>1604</v>
       </c>
       <c r="C210" t="s">
-        <v>1630</v>
+        <v>1605</v>
       </c>
       <c r="D210" t="s">
-        <v>1631</v>
+        <v>1606</v>
       </c>
       <c r="E210" t="s">
-        <v>1632</v>
+        <v>1607</v>
       </c>
       <c r="F210" t="s">
-        <v>1633</v>
+        <v>1608</v>
       </c>
       <c r="G210" t="s">
-        <v>1634</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>1635</v>
+        <v>1610</v>
       </c>
       <c r="B211" t="s">
-        <v>1636</v>
+        <v>1611</v>
       </c>
       <c r="C211" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D211" t="s">
-        <v>1637</v>
+        <v>1612</v>
       </c>
       <c r="E211" t="s">
-        <v>1638</v>
+        <v>1613</v>
       </c>
       <c r="F211" t="s">
-        <v>1639</v>
+        <v>1614</v>
       </c>
       <c r="G211" t="s">
-        <v>1636</v>
+        <v>1611</v>
       </c>
     </row>
   </sheetData>
